--- a/app/public/omiya_template.xlsx
+++ b/app/public/omiya_template.xlsx
@@ -6,7 +6,8 @@
     <sheet state="visible" name="売上合計" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="外販集計" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="原価" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="人件費" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="給料（バイト）" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="人件費" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="118">
   <si>
     <t>月</t>
   </si>
@@ -148,9 +149,6 @@
     <t>けいた</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>中川</t>
   </si>
   <si>
@@ -184,12 +182,6 @@
     <t>ジャパンフーズ</t>
   </si>
   <si>
-    <t>プレコフーズ</t>
-  </si>
-  <si>
-    <t>グッドミート</t>
-  </si>
-  <si>
     <t>矢部青果</t>
   </si>
   <si>
@@ -199,9 +191,6 @@
     <t>カクヤス</t>
   </si>
   <si>
-    <t>二ギタ</t>
-  </si>
-  <si>
     <t>ドリンク現金</t>
   </si>
   <si>
@@ -209,9 +198,6 @@
   </si>
   <si>
     <t>備品</t>
-  </si>
-  <si>
-    <t>設備</t>
   </si>
   <si>
     <t>その他</t>
@@ -310,9 +296,6 @@
     <t>31日</t>
   </si>
   <si>
-    <t>氏名</t>
-  </si>
-  <si>
     <t>村田佳志</t>
   </si>
   <si>
@@ -349,7 +332,16 @@
     <t>みん</t>
   </si>
   <si>
+    <t>りゅうや</t>
+  </si>
+  <si>
+    <t>ひかる</t>
+  </si>
+  <si>
     <t>基本給・時給</t>
+  </si>
+  <si>
+    <t>氏名</t>
   </si>
   <si>
     <t>その他手当</t>
@@ -383,7 +375,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="[$¥-411]#,##0"/>
     <numFmt numFmtId="165" formatCode="d&quot;日&quot;"/>
     <numFmt numFmtId="166" formatCode="[$¥-411]#,##0;\-[$¥-411]#,##0"/>
@@ -392,9 +384,10 @@
     <numFmt numFmtId="169" formatCode="&quot;¥&quot;#,##0"/>
     <numFmt numFmtId="170" formatCode="[$¥-411]#,##0.00"/>
     <numFmt numFmtId="171" formatCode="m"/>
-    <numFmt numFmtId="172" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="172" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;-#,##0"/>
+    <numFmt numFmtId="173" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -461,12 +454,23 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,8 +555,14 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor rgb="FFED7D31"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="107">
+  <borders count="121">
     <border/>
     <border>
       <left style="thick">
@@ -1799,6 +1809,17 @@
       </bottom>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
@@ -1806,6 +1827,155 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -1843,7 +2013,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="274">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2393,6 +2563,166 @@
     <xf borderId="102" fillId="7" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="68" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="12" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="96" fillId="12" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="18" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="69" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="103" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="4" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="104" fillId="4" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="33" fillId="4" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="105" fillId="4" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="33" fillId="8" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="104" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="106" fillId="8" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="97" fillId="8" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="99" fillId="8" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="107" fillId="8" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="28" fillId="8" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="33" fillId="4" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="104" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="108" fillId="4" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="84" fillId="4" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="85" fillId="4" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="83" fillId="4" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="38" fillId="4" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="108" fillId="8" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="84" fillId="8" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="85" fillId="8" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="83" fillId="8" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="38" fillId="8" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="108" fillId="4" fontId="13" numFmtId="172" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="84" fillId="4" fontId="13" numFmtId="172" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="85" fillId="4" fontId="13" numFmtId="172" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="83" fillId="4" fontId="13" numFmtId="172" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="38" fillId="4" fontId="13" numFmtId="172" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="108" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="84" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="85" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="83" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="38" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="108" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="84" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="85" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="83" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="38" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="109" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="110" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="111" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="112" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="52" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="63" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="113" fillId="4" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="114" fillId="4" fontId="12" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="115" fillId="4" fontId="12" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="116" fillId="4" fontId="12" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="114" fillId="7" fontId="12" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="117" fillId="7" fontId="12" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2402,38 +2732,38 @@
     <xf borderId="69" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="33" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="7" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="17" fillId="0" fontId="7" numFmtId="173" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="103" fillId="0" fontId="4" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="105" fillId="0" fontId="4" numFmtId="173" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="172" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="17" fillId="0" fontId="10" numFmtId="172" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="173" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="17" fillId="0" fontId="10" numFmtId="173" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="33" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="104" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="118" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="10" numFmtId="172" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="105" fillId="0" fontId="4" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="10" fillId="0" fontId="10" numFmtId="173" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="119" fillId="0" fontId="4" numFmtId="173" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="106" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="120" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="21" fillId="7" fontId="4" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="21" fillId="7" fontId="4" numFmtId="173" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="172" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="173" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="172" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="173" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2499,13 +2829,18 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="3">
+  <tableStyles count="4">
     <tableStyle count="3" pivot="0" name="売上合計-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="原価-style">
+      <tableStyleElement dxfId="4" type="headerRow"/>
+      <tableStyleElement dxfId="5" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="給料（バイト）-style">
       <tableStyleElement dxfId="4" type="headerRow"/>
       <tableStyleElement dxfId="5" type="firstRowStripe"/>
       <tableStyleElement dxfId="2" type="secondRowStripe"/>
@@ -2535,6 +2870,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AF2:AK33" displayName="Table_1" name="Table_1" id="1">
   <tableColumns count="6">
@@ -2550,30 +2889,36 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O33" displayName="Table_2" name="Table_2" id="2">
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:K33" displayName="Table_2" name="Table_2" id="2">
+  <tableColumns count="11">
     <tableColumn name="業者" id="1"/>
     <tableColumn name="西原" id="2"/>
     <tableColumn name="国吉" id="3"/>
     <tableColumn name="ジャパンフーズ" id="4"/>
-    <tableColumn name="プレコフーズ" id="5"/>
-    <tableColumn name="グッドミート" id="6"/>
-    <tableColumn name="矢部青果" id="7"/>
-    <tableColumn name="フード現金" id="8"/>
-    <tableColumn name="カクヤス" id="9"/>
-    <tableColumn name="二ギタ" id="10"/>
-    <tableColumn name="ドリンク現金" id="11"/>
-    <tableColumn name="消耗品" id="12"/>
-    <tableColumn name="備品" id="13"/>
-    <tableColumn name="設備" id="14"/>
-    <tableColumn name="その他" id="15"/>
+    <tableColumn name="矢部青果" id="5"/>
+    <tableColumn name="フード現金" id="6"/>
+    <tableColumn name="カクヤス" id="7"/>
+    <tableColumn name="ドリンク現金" id="8"/>
+    <tableColumn name="消耗品" id="9"/>
+    <tableColumn name="備品" id="10"/>
+    <tableColumn name="その他" id="11"/>
   </tableColumns>
   <tableStyleInfo name="原価-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M5" displayName="Table_3" name="Table_3" id="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AD1:AE34" displayName="Table_3" name="Table_3" id="3">
+  <tableColumns count="2">
+    <tableColumn name="りゅうや" id="1"/>
+    <tableColumn name="ひかる" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="給料（バイト）-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M5" displayName="Table_4" name="Table_4" id="4">
   <tableColumns count="13">
     <tableColumn name="氏名" id="1"/>
     <tableColumn name="村田佳志" id="2"/>
@@ -15523,7 +15868,7 @@
     <row r="1" ht="21.0" customHeight="1">
       <c r="A1" s="132">
         <f>NOW()</f>
-        <v>45858.70008</v>
+        <v>45859.37547</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -15754,7 +16099,7 @@
         <f t="array" ref="A3:A33">IF(ROW(A2:A32)-1 &lt;= DAY(EOMONTH(DATE(YEAR(TODAY()), A1, 1), 0)),
                  DATE(YEAR(TODAY()), A1, ROW(A2:A32)-1),
                  "")</f>
-        <v>1441400</v>
+        <v>1441430</v>
       </c>
       <c r="B3" s="31" t="str">
         <f t="shared" ref="B3:B33" si="2">IF(A3 = "", "", TEXT(A2, "ddd"))</f>
@@ -15820,11 +16165,11 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="49">
-        <v>1441401.0</v>
+        <v>1441431.0</v>
       </c>
       <c r="B4" s="50" t="str">
         <f t="shared" si="2"/>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="C4" s="150"/>
       <c r="D4" s="52"/>
@@ -15886,11 +16231,11 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="67">
-        <v>1441402.0</v>
+        <v>1441432.0</v>
       </c>
       <c r="B5" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="C5" s="155"/>
       <c r="D5" s="69"/>
@@ -15952,11 +16297,11 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="49">
-        <v>1441403.0</v>
+        <v>1441433.0</v>
       </c>
       <c r="B6" s="50" t="str">
         <f t="shared" si="2"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="C6" s="150"/>
       <c r="D6" s="52"/>
@@ -16018,11 +16363,11 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="67">
-        <v>1441404.0</v>
+        <v>1441434.0</v>
       </c>
       <c r="B7" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="C7" s="155"/>
       <c r="D7" s="69"/>
@@ -16084,11 +16429,11 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="49">
-        <v>1441405.0</v>
+        <v>1441435.0</v>
       </c>
       <c r="B8" s="50" t="str">
         <f t="shared" si="2"/>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="C8" s="150"/>
       <c r="D8" s="52"/>
@@ -16150,11 +16495,11 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="67">
-        <v>1441406.0</v>
+        <v>1441436.0</v>
       </c>
       <c r="B9" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="C9" s="155"/>
       <c r="D9" s="69"/>
@@ -16216,11 +16561,11 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="49">
-        <v>1441407.0</v>
+        <v>1441437.0</v>
       </c>
       <c r="B10" s="50" t="str">
         <f t="shared" si="2"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="C10" s="150"/>
       <c r="D10" s="52"/>
@@ -16282,11 +16627,11 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="67">
-        <v>1441408.0</v>
+        <v>1441438.0</v>
       </c>
       <c r="B11" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="C11" s="155"/>
       <c r="D11" s="69"/>
@@ -16348,11 +16693,11 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="49">
-        <v>1441409.0</v>
+        <v>1441439.0</v>
       </c>
       <c r="B12" s="50" t="str">
         <f t="shared" si="2"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="C12" s="150"/>
       <c r="D12" s="52"/>
@@ -16414,11 +16759,11 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="67">
-        <v>1441410.0</v>
+        <v>1441440.0</v>
       </c>
       <c r="B13" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="C13" s="155"/>
       <c r="D13" s="69"/>
@@ -16480,11 +16825,11 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="49">
-        <v>1441411.0</v>
+        <v>1441441.0</v>
       </c>
       <c r="B14" s="50" t="str">
         <f t="shared" si="2"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="C14" s="150"/>
       <c r="D14" s="52"/>
@@ -16546,11 +16891,11 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="67">
-        <v>1441412.0</v>
+        <v>1441442.0</v>
       </c>
       <c r="B15" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="C15" s="155"/>
       <c r="D15" s="69"/>
@@ -16612,11 +16957,11 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="49">
-        <v>1441413.0</v>
+        <v>1441443.0</v>
       </c>
       <c r="B16" s="50" t="str">
         <f t="shared" si="2"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="C16" s="150"/>
       <c r="D16" s="52"/>
@@ -16678,11 +17023,11 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="67">
-        <v>1441414.0</v>
+        <v>1441444.0</v>
       </c>
       <c r="B17" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="C17" s="155"/>
       <c r="D17" s="69"/>
@@ -16744,11 +17089,11 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="49">
-        <v>1441415.0</v>
+        <v>1441445.0</v>
       </c>
       <c r="B18" s="50" t="str">
         <f t="shared" si="2"/>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="C18" s="150"/>
       <c r="D18" s="52"/>
@@ -16810,11 +17155,11 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="67">
-        <v>1441416.0</v>
+        <v>1441446.0</v>
       </c>
       <c r="B19" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="C19" s="155"/>
       <c r="D19" s="69"/>
@@ -16876,11 +17221,11 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="49">
-        <v>1441417.0</v>
+        <v>1441447.0</v>
       </c>
       <c r="B20" s="50" t="str">
         <f t="shared" si="2"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="C20" s="150"/>
       <c r="D20" s="52"/>
@@ -16942,11 +17287,11 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="67">
-        <v>1441418.0</v>
+        <v>1441448.0</v>
       </c>
       <c r="B21" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="C21" s="155"/>
       <c r="D21" s="69"/>
@@ -17008,11 +17353,11 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="49">
-        <v>1441419.0</v>
+        <v>1441449.0</v>
       </c>
       <c r="B22" s="50" t="str">
         <f t="shared" si="2"/>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="C22" s="150"/>
       <c r="D22" s="52"/>
@@ -17074,11 +17419,11 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="67">
-        <v>1441420.0</v>
+        <v>1441450.0</v>
       </c>
       <c r="B23" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="C23" s="155"/>
       <c r="D23" s="69"/>
@@ -17140,11 +17485,11 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="49">
-        <v>1441421.0</v>
+        <v>1441451.0</v>
       </c>
       <c r="B24" s="50" t="str">
         <f t="shared" si="2"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="C24" s="150"/>
       <c r="D24" s="52"/>
@@ -17206,11 +17551,11 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="67">
-        <v>1441422.0</v>
+        <v>1441452.0</v>
       </c>
       <c r="B25" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="C25" s="155"/>
       <c r="D25" s="69"/>
@@ -17272,11 +17617,11 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="49">
-        <v>1441423.0</v>
+        <v>1441453.0</v>
       </c>
       <c r="B26" s="50" t="str">
         <f t="shared" si="2"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="C26" s="150"/>
       <c r="D26" s="52"/>
@@ -17338,11 +17683,11 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="67">
-        <v>1441424.0</v>
+        <v>1441454.0</v>
       </c>
       <c r="B27" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="C27" s="155"/>
       <c r="D27" s="69"/>
@@ -17404,11 +17749,11 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="49">
-        <v>1441425.0</v>
+        <v>1441455.0</v>
       </c>
       <c r="B28" s="50" t="str">
         <f t="shared" si="2"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="52"/>
@@ -17470,11 +17815,11 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="67">
-        <v>1441426.0</v>
+        <v>1441456.0</v>
       </c>
       <c r="B29" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="C29" s="155"/>
       <c r="D29" s="69"/>
@@ -17536,11 +17881,11 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="49">
-        <v>1441427.0</v>
+        <v>1441457.0</v>
       </c>
       <c r="B30" s="50" t="str">
         <f t="shared" si="2"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="C30" s="150"/>
       <c r="D30" s="52"/>
@@ -17602,11 +17947,11 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="67">
-        <v>1441428.0</v>
+        <v>1441458.0</v>
       </c>
       <c r="B31" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="C31" s="155"/>
       <c r="D31" s="69"/>
@@ -17668,11 +18013,11 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="49">
-        <v>1441429.0</v>
+        <v>1441459.0</v>
       </c>
       <c r="B32" s="50" t="str">
         <f t="shared" si="2"/>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="52"/>
@@ -17733,12 +18078,12 @@
       <c r="AX32" s="12"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="67" t="s">
-        <v>44</v>
+      <c r="A33" s="67">
+        <v>1441460.0</v>
       </c>
       <c r="B33" s="31" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>木</v>
       </c>
       <c r="C33" s="161"/>
       <c r="D33" s="88"/>
@@ -18045,37 +18390,37 @@
       <c r="A36" s="119"/>
       <c r="B36" s="12"/>
       <c r="C36" s="170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36" s="134"/>
       <c r="E36" s="135"/>
       <c r="F36" s="170" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G36" s="134"/>
       <c r="H36" s="135"/>
       <c r="I36" s="170" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J36" s="134"/>
       <c r="K36" s="135"/>
       <c r="L36" s="170" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M36" s="134"/>
       <c r="N36" s="135"/>
       <c r="O36" s="170" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P36" s="134"/>
       <c r="Q36" s="135"/>
       <c r="R36" s="170" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S36" s="134"/>
       <c r="T36" s="135"/>
       <c r="U36" s="170" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V36" s="134"/>
       <c r="W36" s="135"/>
@@ -20324,38 +20669,38 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="AP1:AR1"/>
     <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="AP36:AR36"/>
-    <mergeCell ref="AS36:AU36"/>
-    <mergeCell ref="U36:W36"/>
     <mergeCell ref="X36:Z36"/>
     <mergeCell ref="AA36:AC36"/>
     <mergeCell ref="AD36:AF36"/>
     <mergeCell ref="AG36:AI36"/>
     <mergeCell ref="AJ36:AL36"/>
     <mergeCell ref="AM36:AO36"/>
+    <mergeCell ref="AP36:AR36"/>
+    <mergeCell ref="AS36:AU36"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="I36:K36"/>
     <mergeCell ref="L36:N36"/>
     <mergeCell ref="O36:Q36"/>
     <mergeCell ref="R36:T36"/>
+    <mergeCell ref="U36:W36"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -20379,55 +20724,47 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="6.86"/>
-    <col customWidth="1" min="2" max="6" width="14.43"/>
+    <col customWidth="1" min="2" max="4" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
       <c r="A1" s="178" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="H1" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="J1" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="K1" s="179" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="179" t="s">
-        <v>66</v>
-      </c>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
@@ -20435,14 +20772,10 @@
       <c r="T1" s="12"/>
       <c r="U1" s="12"/>
       <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="180" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B2" s="181"/>
       <c r="C2" s="181"/>
@@ -20451,13 +20784,13 @@
       <c r="F2" s="181"/>
       <c r="G2" s="181"/>
       <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="182"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="183"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
@@ -20465,14 +20798,10 @@
       <c r="T2" s="12"/>
       <c r="U2" s="12"/>
       <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="184" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B3" s="185"/>
       <c r="C3" s="185"/>
@@ -20483,11 +20812,11 @@
       <c r="H3" s="185"/>
       <c r="I3" s="185"/>
       <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="185"/>
-      <c r="M3" s="185"/>
-      <c r="N3" s="185"/>
-      <c r="O3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
@@ -20495,14 +20824,10 @@
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="180" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B4" s="187"/>
       <c r="C4" s="187"/>
@@ -20511,28 +20836,24 @@
       <c r="F4" s="187"/>
       <c r="G4" s="187"/>
       <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="187"/>
-      <c r="K4" s="187"/>
-      <c r="L4" s="188"/>
-      <c r="M4" s="188"/>
-      <c r="N4" s="188"/>
-      <c r="O4" s="189"/>
-      <c r="P4" s="190"/>
-      <c r="Q4" s="190"/>
-      <c r="R4" s="190"/>
-      <c r="S4" s="190"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="188"/>
+      <c r="K4" s="189"/>
+      <c r="L4" s="190"/>
+      <c r="M4" s="190"/>
+      <c r="N4" s="190"/>
+      <c r="O4" s="190"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="184" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B5" s="185"/>
       <c r="C5" s="185"/>
@@ -20543,11 +20864,11 @@
       <c r="H5" s="185"/>
       <c r="I5" s="185"/>
       <c r="J5" s="185"/>
-      <c r="K5" s="185"/>
-      <c r="L5" s="185"/>
-      <c r="M5" s="185"/>
-      <c r="N5" s="185"/>
-      <c r="O5" s="186"/>
+      <c r="K5" s="186"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
@@ -20555,14 +20876,10 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="180" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B6" s="187"/>
       <c r="C6" s="187"/>
@@ -20573,11 +20890,11 @@
       <c r="H6" s="187"/>
       <c r="I6" s="187"/>
       <c r="J6" s="187"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="187"/>
-      <c r="M6" s="187"/>
-      <c r="N6" s="187"/>
-      <c r="O6" s="191"/>
+      <c r="K6" s="191"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
@@ -20585,14 +20902,10 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="184" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B7" s="185"/>
       <c r="C7" s="185"/>
@@ -20603,26 +20916,22 @@
       <c r="H7" s="185"/>
       <c r="I7" s="185"/>
       <c r="J7" s="185"/>
-      <c r="K7" s="185"/>
-      <c r="L7" s="185"/>
-      <c r="M7" s="185"/>
-      <c r="N7" s="185"/>
-      <c r="O7" s="186"/>
+      <c r="K7" s="186"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
       <c r="P7" s="12"/>
-      <c r="Q7" s="82"/>
+      <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="180" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B8" s="187"/>
       <c r="C8" s="187"/>
@@ -20631,28 +20940,24 @@
       <c r="F8" s="187"/>
       <c r="G8" s="187"/>
       <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
-      <c r="J8" s="187"/>
-      <c r="K8" s="187"/>
-      <c r="L8" s="188"/>
-      <c r="M8" s="188"/>
-      <c r="N8" s="188"/>
-      <c r="O8" s="189"/>
-      <c r="P8" s="192"/>
-      <c r="Q8" s="192"/>
+      <c r="I8" s="188"/>
+      <c r="J8" s="188"/>
+      <c r="K8" s="189"/>
+      <c r="L8" s="192"/>
+      <c r="M8" s="192"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="184" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B9" s="185"/>
       <c r="C9" s="185"/>
@@ -20663,11 +20968,11 @@
       <c r="H9" s="185"/>
       <c r="I9" s="185"/>
       <c r="J9" s="185"/>
-      <c r="K9" s="185"/>
-      <c r="L9" s="185"/>
-      <c r="M9" s="185"/>
-      <c r="N9" s="185"/>
-      <c r="O9" s="186"/>
+      <c r="K9" s="186"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
@@ -20675,14 +20980,10 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="180" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B10" s="187"/>
       <c r="C10" s="187"/>
@@ -20693,26 +20994,22 @@
       <c r="H10" s="187"/>
       <c r="I10" s="187"/>
       <c r="J10" s="187"/>
-      <c r="K10" s="187"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="187"/>
-      <c r="N10" s="187"/>
-      <c r="O10" s="191"/>
+      <c r="K10" s="191"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
       <c r="P10" s="12"/>
-      <c r="Q10" s="82"/>
+      <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="184" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B11" s="185"/>
       <c r="C11" s="185"/>
@@ -20723,11 +21020,11 @@
       <c r="H11" s="185"/>
       <c r="I11" s="185"/>
       <c r="J11" s="185"/>
-      <c r="K11" s="185"/>
-      <c r="L11" s="185"/>
-      <c r="M11" s="185"/>
-      <c r="N11" s="185"/>
-      <c r="O11" s="186"/>
+      <c r="K11" s="186"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
@@ -20735,14 +21032,10 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="180" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B12" s="187"/>
       <c r="C12" s="187"/>
@@ -20753,11 +21046,11 @@
       <c r="H12" s="187"/>
       <c r="I12" s="187"/>
       <c r="J12" s="187"/>
-      <c r="K12" s="187"/>
-      <c r="L12" s="187"/>
-      <c r="M12" s="187"/>
-      <c r="N12" s="187"/>
-      <c r="O12" s="191"/>
+      <c r="K12" s="191"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
@@ -20765,14 +21058,10 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="184" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B13" s="185"/>
       <c r="C13" s="185"/>
@@ -20783,26 +21072,22 @@
       <c r="H13" s="185"/>
       <c r="I13" s="185"/>
       <c r="J13" s="185"/>
-      <c r="K13" s="185"/>
-      <c r="L13" s="185"/>
-      <c r="M13" s="185"/>
-      <c r="N13" s="185"/>
-      <c r="O13" s="186"/>
+      <c r="K13" s="186"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
       <c r="P13" s="12"/>
-      <c r="Q13" s="82"/>
+      <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="180" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B14" s="187"/>
       <c r="C14" s="187"/>
@@ -20813,11 +21098,11 @@
       <c r="H14" s="187"/>
       <c r="I14" s="187"/>
       <c r="J14" s="187"/>
-      <c r="K14" s="187"/>
-      <c r="L14" s="187"/>
-      <c r="M14" s="187"/>
-      <c r="N14" s="187"/>
-      <c r="O14" s="191"/>
+      <c r="K14" s="191"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
@@ -20825,14 +21110,10 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="184" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B15" s="185"/>
       <c r="C15" s="185"/>
@@ -20843,11 +21124,11 @@
       <c r="H15" s="185"/>
       <c r="I15" s="185"/>
       <c r="J15" s="185"/>
-      <c r="K15" s="185"/>
-      <c r="L15" s="185"/>
-      <c r="M15" s="185"/>
-      <c r="N15" s="185"/>
-      <c r="O15" s="186"/>
+      <c r="K15" s="186"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
@@ -20855,14 +21136,10 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="180" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B16" s="187"/>
       <c r="C16" s="187"/>
@@ -20873,11 +21150,11 @@
       <c r="H16" s="187"/>
       <c r="I16" s="187"/>
       <c r="J16" s="187"/>
-      <c r="K16" s="187"/>
-      <c r="L16" s="187"/>
-      <c r="M16" s="187"/>
-      <c r="N16" s="187"/>
-      <c r="O16" s="191"/>
+      <c r="K16" s="191"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
@@ -20885,14 +21162,10 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="184" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B17" s="185"/>
       <c r="C17" s="185"/>
@@ -20903,11 +21176,11 @@
       <c r="H17" s="185"/>
       <c r="I17" s="185"/>
       <c r="J17" s="185"/>
-      <c r="K17" s="185"/>
-      <c r="L17" s="185"/>
-      <c r="M17" s="185"/>
-      <c r="N17" s="185"/>
-      <c r="O17" s="186"/>
+      <c r="K17" s="186"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
@@ -20915,14 +21188,10 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="180" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B18" s="187"/>
       <c r="C18" s="187"/>
@@ -20933,11 +21202,11 @@
       <c r="H18" s="187"/>
       <c r="I18" s="187"/>
       <c r="J18" s="187"/>
-      <c r="K18" s="187"/>
-      <c r="L18" s="187"/>
-      <c r="M18" s="187"/>
-      <c r="N18" s="187"/>
-      <c r="O18" s="191"/>
+      <c r="K18" s="191"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
@@ -20945,14 +21214,10 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="184" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B19" s="185"/>
       <c r="C19" s="185"/>
@@ -20963,11 +21228,11 @@
       <c r="H19" s="185"/>
       <c r="I19" s="185"/>
       <c r="J19" s="185"/>
-      <c r="K19" s="185"/>
-      <c r="L19" s="185"/>
-      <c r="M19" s="185"/>
-      <c r="N19" s="185"/>
-      <c r="O19" s="186"/>
+      <c r="K19" s="186"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
@@ -20975,14 +21240,10 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="180" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B20" s="187"/>
       <c r="C20" s="187"/>
@@ -20993,11 +21254,11 @@
       <c r="H20" s="187"/>
       <c r="I20" s="187"/>
       <c r="J20" s="187"/>
-      <c r="K20" s="187"/>
-      <c r="L20" s="187"/>
-      <c r="M20" s="187"/>
-      <c r="N20" s="187"/>
-      <c r="O20" s="191"/>
+      <c r="K20" s="191"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
@@ -21005,14 +21266,10 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="184" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B21" s="185"/>
       <c r="C21" s="185"/>
@@ -21023,26 +21280,22 @@
       <c r="H21" s="185"/>
       <c r="I21" s="185"/>
       <c r="J21" s="185"/>
-      <c r="K21" s="185"/>
-      <c r="L21" s="185"/>
-      <c r="M21" s="185"/>
-      <c r="N21" s="185"/>
-      <c r="O21" s="186"/>
+      <c r="K21" s="186"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
       <c r="P21" s="12"/>
-      <c r="Q21" s="82"/>
+      <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="180" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B22" s="187"/>
       <c r="C22" s="187"/>
@@ -21053,11 +21306,11 @@
       <c r="H22" s="187"/>
       <c r="I22" s="187"/>
       <c r="J22" s="187"/>
-      <c r="K22" s="187"/>
-      <c r="L22" s="187"/>
-      <c r="M22" s="187"/>
-      <c r="N22" s="187"/>
-      <c r="O22" s="191"/>
+      <c r="K22" s="191"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
@@ -21065,14 +21318,10 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="184" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B23" s="185"/>
       <c r="C23" s="185"/>
@@ -21083,11 +21332,11 @@
       <c r="H23" s="185"/>
       <c r="I23" s="185"/>
       <c r="J23" s="185"/>
-      <c r="K23" s="185"/>
-      <c r="L23" s="185"/>
-      <c r="M23" s="185"/>
-      <c r="N23" s="185"/>
-      <c r="O23" s="186"/>
+      <c r="K23" s="186"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
@@ -21095,14 +21344,10 @@
       <c r="T23" s="12"/>
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="180" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B24" s="187"/>
       <c r="C24" s="187"/>
@@ -21113,11 +21358,11 @@
       <c r="H24" s="187"/>
       <c r="I24" s="187"/>
       <c r="J24" s="187"/>
-      <c r="K24" s="187"/>
-      <c r="L24" s="187"/>
-      <c r="M24" s="187"/>
-      <c r="N24" s="187"/>
-      <c r="O24" s="191"/>
+      <c r="K24" s="191"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
@@ -21125,14 +21370,10 @@
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
       <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="184" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B25" s="185"/>
       <c r="C25" s="185"/>
@@ -21143,11 +21384,11 @@
       <c r="H25" s="185"/>
       <c r="I25" s="185"/>
       <c r="J25" s="185"/>
-      <c r="K25" s="185"/>
-      <c r="L25" s="185"/>
-      <c r="M25" s="185"/>
-      <c r="N25" s="185"/>
-      <c r="O25" s="186"/>
+      <c r="K25" s="186"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
@@ -21155,14 +21396,10 @@
       <c r="T25" s="12"/>
       <c r="U25" s="12"/>
       <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="180" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B26" s="187"/>
       <c r="C26" s="187"/>
@@ -21173,11 +21410,11 @@
       <c r="H26" s="187"/>
       <c r="I26" s="187"/>
       <c r="J26" s="187"/>
-      <c r="K26" s="187"/>
-      <c r="L26" s="187"/>
-      <c r="M26" s="187"/>
-      <c r="N26" s="187"/>
-      <c r="O26" s="191"/>
+      <c r="K26" s="191"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
@@ -21185,14 +21422,10 @@
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
       <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="184" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B27" s="185"/>
       <c r="C27" s="185"/>
@@ -21203,11 +21436,11 @@
       <c r="H27" s="185"/>
       <c r="I27" s="185"/>
       <c r="J27" s="185"/>
-      <c r="K27" s="185"/>
-      <c r="L27" s="185"/>
-      <c r="M27" s="185"/>
-      <c r="N27" s="185"/>
-      <c r="O27" s="186"/>
+      <c r="K27" s="186"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
@@ -21215,14 +21448,10 @@
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="180" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B28" s="187"/>
       <c r="C28" s="187"/>
@@ -21233,11 +21462,11 @@
       <c r="H28" s="187"/>
       <c r="I28" s="187"/>
       <c r="J28" s="187"/>
-      <c r="K28" s="187"/>
-      <c r="L28" s="187"/>
-      <c r="M28" s="187"/>
-      <c r="N28" s="187"/>
-      <c r="O28" s="191"/>
+      <c r="K28" s="191"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
@@ -21245,14 +21474,10 @@
       <c r="T28" s="12"/>
       <c r="U28" s="12"/>
       <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="184" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B29" s="185"/>
       <c r="C29" s="185"/>
@@ -21263,11 +21488,11 @@
       <c r="H29" s="185"/>
       <c r="I29" s="185"/>
       <c r="J29" s="185"/>
-      <c r="K29" s="185"/>
-      <c r="L29" s="185"/>
-      <c r="M29" s="185"/>
-      <c r="N29" s="185"/>
-      <c r="O29" s="186"/>
+      <c r="K29" s="186"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
@@ -21275,14 +21500,10 @@
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
       <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="180" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B30" s="187"/>
       <c r="C30" s="187"/>
@@ -21293,11 +21514,11 @@
       <c r="H30" s="187"/>
       <c r="I30" s="187"/>
       <c r="J30" s="187"/>
-      <c r="K30" s="187"/>
-      <c r="L30" s="187"/>
-      <c r="M30" s="187"/>
-      <c r="N30" s="187"/>
-      <c r="O30" s="191"/>
+      <c r="K30" s="191"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
@@ -21305,14 +21526,10 @@
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
       <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="184" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B31" s="185"/>
       <c r="C31" s="185"/>
@@ -21323,11 +21540,11 @@
       <c r="H31" s="185"/>
       <c r="I31" s="185"/>
       <c r="J31" s="185"/>
-      <c r="K31" s="185"/>
-      <c r="L31" s="185"/>
-      <c r="M31" s="185"/>
-      <c r="N31" s="185"/>
-      <c r="O31" s="186"/>
+      <c r="K31" s="186"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
@@ -21335,14 +21552,10 @@
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
       <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="193" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B32" s="194"/>
       <c r="C32" s="194"/>
@@ -21353,11 +21566,11 @@
       <c r="H32" s="194"/>
       <c r="I32" s="194"/>
       <c r="J32" s="194"/>
-      <c r="K32" s="194"/>
-      <c r="L32" s="194"/>
-      <c r="M32" s="194"/>
-      <c r="N32" s="194"/>
-      <c r="O32" s="195"/>
+      <c r="K32" s="195"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
@@ -21365,10 +21578,6 @@
       <c r="T32" s="12"/>
       <c r="U32" s="12"/>
       <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="196" t="s">
@@ -21387,7 +21596,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="197">
-        <f t="shared" ref="E33:O33" si="2">SUM(E2:E32)</f>
+        <f t="shared" ref="E33:K33" si="2">SUM(E2:E32)</f>
         <v>0</v>
       </c>
       <c r="F33" s="197">
@@ -21410,26 +21619,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K33" s="197">
+      <c r="K33" s="198">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L33" s="197">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="197">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="197">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="198">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
@@ -21437,27 +21634,23 @@
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
       <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
@@ -21465,10 +21658,6 @@
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
       <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="11"/>
@@ -21493,10 +21682,6 @@
       <c r="T35" s="12"/>
       <c r="U35" s="12"/>
       <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="11"/>
@@ -21521,10 +21706,6 @@
       <c r="T36" s="12"/>
       <c r="U36" s="12"/>
       <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="12"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="11"/>
@@ -21532,9 +21713,9 @@
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
+      <c r="F37" s="82"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="82"/>
+      <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
@@ -21549,10 +21730,6 @@
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
       <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="11"/>
@@ -21577,10 +21754,6 @@
       <c r="T38" s="12"/>
       <c r="U38" s="12"/>
       <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="12"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="11"/>
@@ -21605,10 +21778,6 @@
       <c r="T39" s="12"/>
       <c r="U39" s="12"/>
       <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="11"/>
@@ -21633,10 +21802,6 @@
       <c r="T40" s="12"/>
       <c r="U40" s="12"/>
       <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="12"/>
-      <c r="Z40" s="12"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="11"/>
@@ -21661,10 +21826,6 @@
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
       <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12"/>
-      <c r="Z41" s="12"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="11"/>
@@ -21689,10 +21850,6 @@
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
       <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="12"/>
-      <c r="Y42" s="12"/>
-      <c r="Z42" s="12"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="11"/>
@@ -21717,10 +21874,6 @@
       <c r="T43" s="12"/>
       <c r="U43" s="12"/>
       <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="12"/>
-      <c r="Z43" s="12"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="11"/>
@@ -21745,10 +21898,6 @@
       <c r="T44" s="12"/>
       <c r="U44" s="12"/>
       <c r="V44" s="12"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="12"/>
-      <c r="Z44" s="12"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="11"/>
@@ -21773,10 +21922,6 @@
       <c r="T45" s="12"/>
       <c r="U45" s="12"/>
       <c r="V45" s="12"/>
-      <c r="W45" s="12"/>
-      <c r="X45" s="12"/>
-      <c r="Y45" s="12"/>
-      <c r="Z45" s="12"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="11"/>
@@ -21801,10 +21946,6 @@
       <c r="T46" s="12"/>
       <c r="U46" s="12"/>
       <c r="V46" s="12"/>
-      <c r="W46" s="12"/>
-      <c r="X46" s="12"/>
-      <c r="Y46" s="12"/>
-      <c r="Z46" s="12"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="11"/>
@@ -21829,10 +21970,6 @@
       <c r="T47" s="12"/>
       <c r="U47" s="12"/>
       <c r="V47" s="12"/>
-      <c r="W47" s="12"/>
-      <c r="X47" s="12"/>
-      <c r="Y47" s="12"/>
-      <c r="Z47" s="12"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="11"/>
@@ -21857,10 +21994,6 @@
       <c r="T48" s="12"/>
       <c r="U48" s="12"/>
       <c r="V48" s="12"/>
-      <c r="W48" s="12"/>
-      <c r="X48" s="12"/>
-      <c r="Y48" s="12"/>
-      <c r="Z48" s="12"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="11"/>
@@ -21885,10 +22018,6 @@
       <c r="T49" s="12"/>
       <c r="U49" s="12"/>
       <c r="V49" s="12"/>
-      <c r="W49" s="12"/>
-      <c r="X49" s="12"/>
-      <c r="Y49" s="12"/>
-      <c r="Z49" s="12"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="11"/>
@@ -21913,10 +22042,6 @@
       <c r="T50" s="12"/>
       <c r="U50" s="12"/>
       <c r="V50" s="12"/>
-      <c r="W50" s="12"/>
-      <c r="X50" s="12"/>
-      <c r="Y50" s="12"/>
-      <c r="Z50" s="12"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="11"/>
@@ -21941,10 +22066,6 @@
       <c r="T51" s="12"/>
       <c r="U51" s="12"/>
       <c r="V51" s="12"/>
-      <c r="W51" s="12"/>
-      <c r="X51" s="12"/>
-      <c r="Y51" s="12"/>
-      <c r="Z51" s="12"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="11"/>
@@ -21969,10 +22090,6 @@
       <c r="T52" s="12"/>
       <c r="U52" s="12"/>
       <c r="V52" s="12"/>
-      <c r="W52" s="12"/>
-      <c r="X52" s="12"/>
-      <c r="Y52" s="12"/>
-      <c r="Z52" s="12"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="11"/>
@@ -21997,10 +22114,6 @@
       <c r="T53" s="12"/>
       <c r="U53" s="12"/>
       <c r="V53" s="12"/>
-      <c r="W53" s="12"/>
-      <c r="X53" s="12"/>
-      <c r="Y53" s="12"/>
-      <c r="Z53" s="12"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="11"/>
@@ -22025,10 +22138,6 @@
       <c r="T54" s="12"/>
       <c r="U54" s="12"/>
       <c r="V54" s="12"/>
-      <c r="W54" s="12"/>
-      <c r="X54" s="12"/>
-      <c r="Y54" s="12"/>
-      <c r="Z54" s="12"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="11"/>
@@ -22053,10 +22162,6 @@
       <c r="T55" s="12"/>
       <c r="U55" s="12"/>
       <c r="V55" s="12"/>
-      <c r="W55" s="12"/>
-      <c r="X55" s="12"/>
-      <c r="Y55" s="12"/>
-      <c r="Z55" s="12"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="11"/>
@@ -22081,10 +22186,6 @@
       <c r="T56" s="12"/>
       <c r="U56" s="12"/>
       <c r="V56" s="12"/>
-      <c r="W56" s="12"/>
-      <c r="X56" s="12"/>
-      <c r="Y56" s="12"/>
-      <c r="Z56" s="12"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="11"/>
@@ -22109,10 +22210,6 @@
       <c r="T57" s="12"/>
       <c r="U57" s="12"/>
       <c r="V57" s="12"/>
-      <c r="W57" s="12"/>
-      <c r="X57" s="12"/>
-      <c r="Y57" s="12"/>
-      <c r="Z57" s="12"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="11"/>
@@ -22137,10 +22234,6 @@
       <c r="T58" s="12"/>
       <c r="U58" s="12"/>
       <c r="V58" s="12"/>
-      <c r="W58" s="12"/>
-      <c r="X58" s="12"/>
-      <c r="Y58" s="12"/>
-      <c r="Z58" s="12"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="11"/>
@@ -22165,10 +22258,6 @@
       <c r="T59" s="12"/>
       <c r="U59" s="12"/>
       <c r="V59" s="12"/>
-      <c r="W59" s="12"/>
-      <c r="X59" s="12"/>
-      <c r="Y59" s="12"/>
-      <c r="Z59" s="12"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="11"/>
@@ -22193,10 +22282,6 @@
       <c r="T60" s="12"/>
       <c r="U60" s="12"/>
       <c r="V60" s="12"/>
-      <c r="W60" s="12"/>
-      <c r="X60" s="12"/>
-      <c r="Y60" s="12"/>
-      <c r="Z60" s="12"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="11"/>
@@ -22221,10 +22306,6 @@
       <c r="T61" s="12"/>
       <c r="U61" s="12"/>
       <c r="V61" s="12"/>
-      <c r="W61" s="12"/>
-      <c r="X61" s="12"/>
-      <c r="Y61" s="12"/>
-      <c r="Z61" s="12"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="11"/>
@@ -22249,10 +22330,6 @@
       <c r="T62" s="12"/>
       <c r="U62" s="12"/>
       <c r="V62" s="12"/>
-      <c r="W62" s="12"/>
-      <c r="X62" s="12"/>
-      <c r="Y62" s="12"/>
-      <c r="Z62" s="12"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="11"/>
@@ -22277,10 +22354,6 @@
       <c r="T63" s="12"/>
       <c r="U63" s="12"/>
       <c r="V63" s="12"/>
-      <c r="W63" s="12"/>
-      <c r="X63" s="12"/>
-      <c r="Y63" s="12"/>
-      <c r="Z63" s="12"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="11"/>
@@ -22305,10 +22378,6 @@
       <c r="T64" s="12"/>
       <c r="U64" s="12"/>
       <c r="V64" s="12"/>
-      <c r="W64" s="12"/>
-      <c r="X64" s="12"/>
-      <c r="Y64" s="12"/>
-      <c r="Z64" s="12"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="11"/>
@@ -22333,10 +22402,6 @@
       <c r="T65" s="12"/>
       <c r="U65" s="12"/>
       <c r="V65" s="12"/>
-      <c r="W65" s="12"/>
-      <c r="X65" s="12"/>
-      <c r="Y65" s="12"/>
-      <c r="Z65" s="12"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="11"/>
@@ -22361,10 +22426,6 @@
       <c r="T66" s="12"/>
       <c r="U66" s="12"/>
       <c r="V66" s="12"/>
-      <c r="W66" s="12"/>
-      <c r="X66" s="12"/>
-      <c r="Y66" s="12"/>
-      <c r="Z66" s="12"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="11"/>
@@ -22389,10 +22450,6 @@
       <c r="T67" s="12"/>
       <c r="U67" s="12"/>
       <c r="V67" s="12"/>
-      <c r="W67" s="12"/>
-      <c r="X67" s="12"/>
-      <c r="Y67" s="12"/>
-      <c r="Z67" s="12"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="11"/>
@@ -22417,10 +22474,6 @@
       <c r="T68" s="12"/>
       <c r="U68" s="12"/>
       <c r="V68" s="12"/>
-      <c r="W68" s="12"/>
-      <c r="X68" s="12"/>
-      <c r="Y68" s="12"/>
-      <c r="Z68" s="12"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="11"/>
@@ -22445,10 +22498,6 @@
       <c r="T69" s="12"/>
       <c r="U69" s="12"/>
       <c r="V69" s="12"/>
-      <c r="W69" s="12"/>
-      <c r="X69" s="12"/>
-      <c r="Y69" s="12"/>
-      <c r="Z69" s="12"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="11"/>
@@ -22473,10 +22522,6 @@
       <c r="T70" s="12"/>
       <c r="U70" s="12"/>
       <c r="V70" s="12"/>
-      <c r="W70" s="12"/>
-      <c r="X70" s="12"/>
-      <c r="Y70" s="12"/>
-      <c r="Z70" s="12"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="11"/>
@@ -22501,10 +22546,6 @@
       <c r="T71" s="12"/>
       <c r="U71" s="12"/>
       <c r="V71" s="12"/>
-      <c r="W71" s="12"/>
-      <c r="X71" s="12"/>
-      <c r="Y71" s="12"/>
-      <c r="Z71" s="12"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="11"/>
@@ -22529,10 +22570,6 @@
       <c r="T72" s="12"/>
       <c r="U72" s="12"/>
       <c r="V72" s="12"/>
-      <c r="W72" s="12"/>
-      <c r="X72" s="12"/>
-      <c r="Y72" s="12"/>
-      <c r="Z72" s="12"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="11"/>
@@ -22557,10 +22594,6 @@
       <c r="T73" s="12"/>
       <c r="U73" s="12"/>
       <c r="V73" s="12"/>
-      <c r="W73" s="12"/>
-      <c r="X73" s="12"/>
-      <c r="Y73" s="12"/>
-      <c r="Z73" s="12"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="11"/>
@@ -22585,10 +22618,6 @@
       <c r="T74" s="12"/>
       <c r="U74" s="12"/>
       <c r="V74" s="12"/>
-      <c r="W74" s="12"/>
-      <c r="X74" s="12"/>
-      <c r="Y74" s="12"/>
-      <c r="Z74" s="12"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="11"/>
@@ -22613,10 +22642,6 @@
       <c r="T75" s="12"/>
       <c r="U75" s="12"/>
       <c r="V75" s="12"/>
-      <c r="W75" s="12"/>
-      <c r="X75" s="12"/>
-      <c r="Y75" s="12"/>
-      <c r="Z75" s="12"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="11"/>
@@ -22641,10 +22666,6 @@
       <c r="T76" s="12"/>
       <c r="U76" s="12"/>
       <c r="V76" s="12"/>
-      <c r="W76" s="12"/>
-      <c r="X76" s="12"/>
-      <c r="Y76" s="12"/>
-      <c r="Z76" s="12"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="11"/>
@@ -22669,10 +22690,6 @@
       <c r="T77" s="12"/>
       <c r="U77" s="12"/>
       <c r="V77" s="12"/>
-      <c r="W77" s="12"/>
-      <c r="X77" s="12"/>
-      <c r="Y77" s="12"/>
-      <c r="Z77" s="12"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="11"/>
@@ -22697,10 +22714,6 @@
       <c r="T78" s="12"/>
       <c r="U78" s="12"/>
       <c r="V78" s="12"/>
-      <c r="W78" s="12"/>
-      <c r="X78" s="12"/>
-      <c r="Y78" s="12"/>
-      <c r="Z78" s="12"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="11"/>
@@ -22725,10 +22738,6 @@
       <c r="T79" s="12"/>
       <c r="U79" s="12"/>
       <c r="V79" s="12"/>
-      <c r="W79" s="12"/>
-      <c r="X79" s="12"/>
-      <c r="Y79" s="12"/>
-      <c r="Z79" s="12"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="11"/>
@@ -22753,10 +22762,6 @@
       <c r="T80" s="12"/>
       <c r="U80" s="12"/>
       <c r="V80" s="12"/>
-      <c r="W80" s="12"/>
-      <c r="X80" s="12"/>
-      <c r="Y80" s="12"/>
-      <c r="Z80" s="12"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="11"/>
@@ -22781,10 +22786,6 @@
       <c r="T81" s="12"/>
       <c r="U81" s="12"/>
       <c r="V81" s="12"/>
-      <c r="W81" s="12"/>
-      <c r="X81" s="12"/>
-      <c r="Y81" s="12"/>
-      <c r="Z81" s="12"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="11"/>
@@ -22809,10 +22810,6 @@
       <c r="T82" s="12"/>
       <c r="U82" s="12"/>
       <c r="V82" s="12"/>
-      <c r="W82" s="12"/>
-      <c r="X82" s="12"/>
-      <c r="Y82" s="12"/>
-      <c r="Z82" s="12"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="11"/>
@@ -22837,10 +22834,6 @@
       <c r="T83" s="12"/>
       <c r="U83" s="12"/>
       <c r="V83" s="12"/>
-      <c r="W83" s="12"/>
-      <c r="X83" s="12"/>
-      <c r="Y83" s="12"/>
-      <c r="Z83" s="12"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="11"/>
@@ -22865,10 +22858,6 @@
       <c r="T84" s="12"/>
       <c r="U84" s="12"/>
       <c r="V84" s="12"/>
-      <c r="W84" s="12"/>
-      <c r="X84" s="12"/>
-      <c r="Y84" s="12"/>
-      <c r="Z84" s="12"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="11"/>
@@ -22893,10 +22882,6 @@
       <c r="T85" s="12"/>
       <c r="U85" s="12"/>
       <c r="V85" s="12"/>
-      <c r="W85" s="12"/>
-      <c r="X85" s="12"/>
-      <c r="Y85" s="12"/>
-      <c r="Z85" s="12"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="11"/>
@@ -22921,10 +22906,6 @@
       <c r="T86" s="12"/>
       <c r="U86" s="12"/>
       <c r="V86" s="12"/>
-      <c r="W86" s="12"/>
-      <c r="X86" s="12"/>
-      <c r="Y86" s="12"/>
-      <c r="Z86" s="12"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="11"/>
@@ -22949,10 +22930,6 @@
       <c r="T87" s="12"/>
       <c r="U87" s="12"/>
       <c r="V87" s="12"/>
-      <c r="W87" s="12"/>
-      <c r="X87" s="12"/>
-      <c r="Y87" s="12"/>
-      <c r="Z87" s="12"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="11"/>
@@ -22977,10 +22954,6 @@
       <c r="T88" s="12"/>
       <c r="U88" s="12"/>
       <c r="V88" s="12"/>
-      <c r="W88" s="12"/>
-      <c r="X88" s="12"/>
-      <c r="Y88" s="12"/>
-      <c r="Z88" s="12"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="11"/>
@@ -23005,10 +22978,6 @@
       <c r="T89" s="12"/>
       <c r="U89" s="12"/>
       <c r="V89" s="12"/>
-      <c r="W89" s="12"/>
-      <c r="X89" s="12"/>
-      <c r="Y89" s="12"/>
-      <c r="Z89" s="12"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="11"/>
@@ -23033,10 +23002,6 @@
       <c r="T90" s="12"/>
       <c r="U90" s="12"/>
       <c r="V90" s="12"/>
-      <c r="W90" s="12"/>
-      <c r="X90" s="12"/>
-      <c r="Y90" s="12"/>
-      <c r="Z90" s="12"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="11"/>
@@ -23061,10 +23026,6 @@
       <c r="T91" s="12"/>
       <c r="U91" s="12"/>
       <c r="V91" s="12"/>
-      <c r="W91" s="12"/>
-      <c r="X91" s="12"/>
-      <c r="Y91" s="12"/>
-      <c r="Z91" s="12"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="11"/>
@@ -23089,10 +23050,6 @@
       <c r="T92" s="12"/>
       <c r="U92" s="12"/>
       <c r="V92" s="12"/>
-      <c r="W92" s="12"/>
-      <c r="X92" s="12"/>
-      <c r="Y92" s="12"/>
-      <c r="Z92" s="12"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="11"/>
@@ -23117,10 +23074,6 @@
       <c r="T93" s="12"/>
       <c r="U93" s="12"/>
       <c r="V93" s="12"/>
-      <c r="W93" s="12"/>
-      <c r="X93" s="12"/>
-      <c r="Y93" s="12"/>
-      <c r="Z93" s="12"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="11"/>
@@ -23145,10 +23098,6 @@
       <c r="T94" s="12"/>
       <c r="U94" s="12"/>
       <c r="V94" s="12"/>
-      <c r="W94" s="12"/>
-      <c r="X94" s="12"/>
-      <c r="Y94" s="12"/>
-      <c r="Z94" s="12"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="11"/>
@@ -23173,10 +23122,6 @@
       <c r="T95" s="12"/>
       <c r="U95" s="12"/>
       <c r="V95" s="12"/>
-      <c r="W95" s="12"/>
-      <c r="X95" s="12"/>
-      <c r="Y95" s="12"/>
-      <c r="Z95" s="12"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="11"/>
@@ -23201,10 +23146,6 @@
       <c r="T96" s="12"/>
       <c r="U96" s="12"/>
       <c r="V96" s="12"/>
-      <c r="W96" s="12"/>
-      <c r="X96" s="12"/>
-      <c r="Y96" s="12"/>
-      <c r="Z96" s="12"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="11"/>
@@ -23229,10 +23170,6 @@
       <c r="T97" s="12"/>
       <c r="U97" s="12"/>
       <c r="V97" s="12"/>
-      <c r="W97" s="12"/>
-      <c r="X97" s="12"/>
-      <c r="Y97" s="12"/>
-      <c r="Z97" s="12"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="11"/>
@@ -23257,10 +23194,6 @@
       <c r="T98" s="12"/>
       <c r="U98" s="12"/>
       <c r="V98" s="12"/>
-      <c r="W98" s="12"/>
-      <c r="X98" s="12"/>
-      <c r="Y98" s="12"/>
-      <c r="Z98" s="12"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="11"/>
@@ -23285,10 +23218,6 @@
       <c r="T99" s="12"/>
       <c r="U99" s="12"/>
       <c r="V99" s="12"/>
-      <c r="W99" s="12"/>
-      <c r="X99" s="12"/>
-      <c r="Y99" s="12"/>
-      <c r="Z99" s="12"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="11"/>
@@ -23313,10 +23242,6 @@
       <c r="T100" s="12"/>
       <c r="U100" s="12"/>
       <c r="V100" s="12"/>
-      <c r="W100" s="12"/>
-      <c r="X100" s="12"/>
-      <c r="Y100" s="12"/>
-      <c r="Z100" s="12"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="11"/>
@@ -23341,10 +23266,6 @@
       <c r="T101" s="12"/>
       <c r="U101" s="12"/>
       <c r="V101" s="12"/>
-      <c r="W101" s="12"/>
-      <c r="X101" s="12"/>
-      <c r="Y101" s="12"/>
-      <c r="Z101" s="12"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="11"/>
@@ -23369,10 +23290,6 @@
       <c r="T102" s="12"/>
       <c r="U102" s="12"/>
       <c r="V102" s="12"/>
-      <c r="W102" s="12"/>
-      <c r="X102" s="12"/>
-      <c r="Y102" s="12"/>
-      <c r="Z102" s="12"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="11"/>
@@ -23397,10 +23314,6 @@
       <c r="T103" s="12"/>
       <c r="U103" s="12"/>
       <c r="V103" s="12"/>
-      <c r="W103" s="12"/>
-      <c r="X103" s="12"/>
-      <c r="Y103" s="12"/>
-      <c r="Z103" s="12"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="11"/>
@@ -23425,10 +23338,6 @@
       <c r="T104" s="12"/>
       <c r="U104" s="12"/>
       <c r="V104" s="12"/>
-      <c r="W104" s="12"/>
-      <c r="X104" s="12"/>
-      <c r="Y104" s="12"/>
-      <c r="Z104" s="12"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="11"/>
@@ -23453,10 +23362,6 @@
       <c r="T105" s="12"/>
       <c r="U105" s="12"/>
       <c r="V105" s="12"/>
-      <c r="W105" s="12"/>
-      <c r="X105" s="12"/>
-      <c r="Y105" s="12"/>
-      <c r="Z105" s="12"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="11"/>
@@ -23481,10 +23386,6 @@
       <c r="T106" s="12"/>
       <c r="U106" s="12"/>
       <c r="V106" s="12"/>
-      <c r="W106" s="12"/>
-      <c r="X106" s="12"/>
-      <c r="Y106" s="12"/>
-      <c r="Z106" s="12"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="11"/>
@@ -23509,10 +23410,6 @@
       <c r="T107" s="12"/>
       <c r="U107" s="12"/>
       <c r="V107" s="12"/>
-      <c r="W107" s="12"/>
-      <c r="X107" s="12"/>
-      <c r="Y107" s="12"/>
-      <c r="Z107" s="12"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="11"/>
@@ -23537,10 +23434,6 @@
       <c r="T108" s="12"/>
       <c r="U108" s="12"/>
       <c r="V108" s="12"/>
-      <c r="W108" s="12"/>
-      <c r="X108" s="12"/>
-      <c r="Y108" s="12"/>
-      <c r="Z108" s="12"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="11"/>
@@ -23565,10 +23458,6 @@
       <c r="T109" s="12"/>
       <c r="U109" s="12"/>
       <c r="V109" s="12"/>
-      <c r="W109" s="12"/>
-      <c r="X109" s="12"/>
-      <c r="Y109" s="12"/>
-      <c r="Z109" s="12"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="11"/>
@@ -23593,10 +23482,6 @@
       <c r="T110" s="12"/>
       <c r="U110" s="12"/>
       <c r="V110" s="12"/>
-      <c r="W110" s="12"/>
-      <c r="X110" s="12"/>
-      <c r="Y110" s="12"/>
-      <c r="Z110" s="12"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="11"/>
@@ -23621,10 +23506,6 @@
       <c r="T111" s="12"/>
       <c r="U111" s="12"/>
       <c r="V111" s="12"/>
-      <c r="W111" s="12"/>
-      <c r="X111" s="12"/>
-      <c r="Y111" s="12"/>
-      <c r="Z111" s="12"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="11"/>
@@ -23649,10 +23530,6 @@
       <c r="T112" s="12"/>
       <c r="U112" s="12"/>
       <c r="V112" s="12"/>
-      <c r="W112" s="12"/>
-      <c r="X112" s="12"/>
-      <c r="Y112" s="12"/>
-      <c r="Z112" s="12"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="11"/>
@@ -23677,10 +23554,6 @@
       <c r="T113" s="12"/>
       <c r="U113" s="12"/>
       <c r="V113" s="12"/>
-      <c r="W113" s="12"/>
-      <c r="X113" s="12"/>
-      <c r="Y113" s="12"/>
-      <c r="Z113" s="12"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="11"/>
@@ -23705,10 +23578,6 @@
       <c r="T114" s="12"/>
       <c r="U114" s="12"/>
       <c r="V114" s="12"/>
-      <c r="W114" s="12"/>
-      <c r="X114" s="12"/>
-      <c r="Y114" s="12"/>
-      <c r="Z114" s="12"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="11"/>
@@ -23733,10 +23602,6 @@
       <c r="T115" s="12"/>
       <c r="U115" s="12"/>
       <c r="V115" s="12"/>
-      <c r="W115" s="12"/>
-      <c r="X115" s="12"/>
-      <c r="Y115" s="12"/>
-      <c r="Z115" s="12"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="11"/>
@@ -23761,10 +23626,6 @@
       <c r="T116" s="12"/>
       <c r="U116" s="12"/>
       <c r="V116" s="12"/>
-      <c r="W116" s="12"/>
-      <c r="X116" s="12"/>
-      <c r="Y116" s="12"/>
-      <c r="Z116" s="12"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="11"/>
@@ -23789,10 +23650,6 @@
       <c r="T117" s="12"/>
       <c r="U117" s="12"/>
       <c r="V117" s="12"/>
-      <c r="W117" s="12"/>
-      <c r="X117" s="12"/>
-      <c r="Y117" s="12"/>
-      <c r="Z117" s="12"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="11"/>
@@ -23817,10 +23674,6 @@
       <c r="T118" s="12"/>
       <c r="U118" s="12"/>
       <c r="V118" s="12"/>
-      <c r="W118" s="12"/>
-      <c r="X118" s="12"/>
-      <c r="Y118" s="12"/>
-      <c r="Z118" s="12"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="11"/>
@@ -23845,10 +23698,6 @@
       <c r="T119" s="12"/>
       <c r="U119" s="12"/>
       <c r="V119" s="12"/>
-      <c r="W119" s="12"/>
-      <c r="X119" s="12"/>
-      <c r="Y119" s="12"/>
-      <c r="Z119" s="12"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="11"/>
@@ -23873,10 +23722,6 @@
       <c r="T120" s="12"/>
       <c r="U120" s="12"/>
       <c r="V120" s="12"/>
-      <c r="W120" s="12"/>
-      <c r="X120" s="12"/>
-      <c r="Y120" s="12"/>
-      <c r="Z120" s="12"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="11"/>
@@ -23901,10 +23746,6 @@
       <c r="T121" s="12"/>
       <c r="U121" s="12"/>
       <c r="V121" s="12"/>
-      <c r="W121" s="12"/>
-      <c r="X121" s="12"/>
-      <c r="Y121" s="12"/>
-      <c r="Z121" s="12"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="11"/>
@@ -23929,10 +23770,6 @@
       <c r="T122" s="12"/>
       <c r="U122" s="12"/>
       <c r="V122" s="12"/>
-      <c r="W122" s="12"/>
-      <c r="X122" s="12"/>
-      <c r="Y122" s="12"/>
-      <c r="Z122" s="12"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="11"/>
@@ -23957,10 +23794,6 @@
       <c r="T123" s="12"/>
       <c r="U123" s="12"/>
       <c r="V123" s="12"/>
-      <c r="W123" s="12"/>
-      <c r="X123" s="12"/>
-      <c r="Y123" s="12"/>
-      <c r="Z123" s="12"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="11"/>
@@ -23985,10 +23818,6 @@
       <c r="T124" s="12"/>
       <c r="U124" s="12"/>
       <c r="V124" s="12"/>
-      <c r="W124" s="12"/>
-      <c r="X124" s="12"/>
-      <c r="Y124" s="12"/>
-      <c r="Z124" s="12"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="11"/>
@@ -24013,10 +23842,6 @@
       <c r="T125" s="12"/>
       <c r="U125" s="12"/>
       <c r="V125" s="12"/>
-      <c r="W125" s="12"/>
-      <c r="X125" s="12"/>
-      <c r="Y125" s="12"/>
-      <c r="Z125" s="12"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="11"/>
@@ -24041,10 +23866,6 @@
       <c r="T126" s="12"/>
       <c r="U126" s="12"/>
       <c r="V126" s="12"/>
-      <c r="W126" s="12"/>
-      <c r="X126" s="12"/>
-      <c r="Y126" s="12"/>
-      <c r="Z126" s="12"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="11"/>
@@ -24069,10 +23890,6 @@
       <c r="T127" s="12"/>
       <c r="U127" s="12"/>
       <c r="V127" s="12"/>
-      <c r="W127" s="12"/>
-      <c r="X127" s="12"/>
-      <c r="Y127" s="12"/>
-      <c r="Z127" s="12"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="11"/>
@@ -24097,10 +23914,6 @@
       <c r="T128" s="12"/>
       <c r="U128" s="12"/>
       <c r="V128" s="12"/>
-      <c r="W128" s="12"/>
-      <c r="X128" s="12"/>
-      <c r="Y128" s="12"/>
-      <c r="Z128" s="12"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="11"/>
@@ -24125,10 +23938,6 @@
       <c r="T129" s="12"/>
       <c r="U129" s="12"/>
       <c r="V129" s="12"/>
-      <c r="W129" s="12"/>
-      <c r="X129" s="12"/>
-      <c r="Y129" s="12"/>
-      <c r="Z129" s="12"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="11"/>
@@ -24153,10 +23962,6 @@
       <c r="T130" s="12"/>
       <c r="U130" s="12"/>
       <c r="V130" s="12"/>
-      <c r="W130" s="12"/>
-      <c r="X130" s="12"/>
-      <c r="Y130" s="12"/>
-      <c r="Z130" s="12"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="11"/>
@@ -24181,10 +23986,6 @@
       <c r="T131" s="12"/>
       <c r="U131" s="12"/>
       <c r="V131" s="12"/>
-      <c r="W131" s="12"/>
-      <c r="X131" s="12"/>
-      <c r="Y131" s="12"/>
-      <c r="Z131" s="12"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="11"/>
@@ -24209,10 +24010,6 @@
       <c r="T132" s="12"/>
       <c r="U132" s="12"/>
       <c r="V132" s="12"/>
-      <c r="W132" s="12"/>
-      <c r="X132" s="12"/>
-      <c r="Y132" s="12"/>
-      <c r="Z132" s="12"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="11"/>
@@ -24237,10 +24034,6 @@
       <c r="T133" s="12"/>
       <c r="U133" s="12"/>
       <c r="V133" s="12"/>
-      <c r="W133" s="12"/>
-      <c r="X133" s="12"/>
-      <c r="Y133" s="12"/>
-      <c r="Z133" s="12"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="11"/>
@@ -24265,10 +24058,6 @@
       <c r="T134" s="12"/>
       <c r="U134" s="12"/>
       <c r="V134" s="12"/>
-      <c r="W134" s="12"/>
-      <c r="X134" s="12"/>
-      <c r="Y134" s="12"/>
-      <c r="Z134" s="12"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="11"/>
@@ -24293,10 +24082,6 @@
       <c r="T135" s="12"/>
       <c r="U135" s="12"/>
       <c r="V135" s="12"/>
-      <c r="W135" s="12"/>
-      <c r="X135" s="12"/>
-      <c r="Y135" s="12"/>
-      <c r="Z135" s="12"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="11"/>
@@ -24321,10 +24106,6 @@
       <c r="T136" s="12"/>
       <c r="U136" s="12"/>
       <c r="V136" s="12"/>
-      <c r="W136" s="12"/>
-      <c r="X136" s="12"/>
-      <c r="Y136" s="12"/>
-      <c r="Z136" s="12"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="11"/>
@@ -24349,10 +24130,6 @@
       <c r="T137" s="12"/>
       <c r="U137" s="12"/>
       <c r="V137" s="12"/>
-      <c r="W137" s="12"/>
-      <c r="X137" s="12"/>
-      <c r="Y137" s="12"/>
-      <c r="Z137" s="12"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="11"/>
@@ -24377,10 +24154,6 @@
       <c r="T138" s="12"/>
       <c r="U138" s="12"/>
       <c r="V138" s="12"/>
-      <c r="W138" s="12"/>
-      <c r="X138" s="12"/>
-      <c r="Y138" s="12"/>
-      <c r="Z138" s="12"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="11"/>
@@ -24405,10 +24178,6 @@
       <c r="T139" s="12"/>
       <c r="U139" s="12"/>
       <c r="V139" s="12"/>
-      <c r="W139" s="12"/>
-      <c r="X139" s="12"/>
-      <c r="Y139" s="12"/>
-      <c r="Z139" s="12"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="11"/>
@@ -24433,10 +24202,6 @@
       <c r="T140" s="12"/>
       <c r="U140" s="12"/>
       <c r="V140" s="12"/>
-      <c r="W140" s="12"/>
-      <c r="X140" s="12"/>
-      <c r="Y140" s="12"/>
-      <c r="Z140" s="12"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="11"/>
@@ -24461,10 +24226,6 @@
       <c r="T141" s="12"/>
       <c r="U141" s="12"/>
       <c r="V141" s="12"/>
-      <c r="W141" s="12"/>
-      <c r="X141" s="12"/>
-      <c r="Y141" s="12"/>
-      <c r="Z141" s="12"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="11"/>
@@ -24489,10 +24250,6 @@
       <c r="T142" s="12"/>
       <c r="U142" s="12"/>
       <c r="V142" s="12"/>
-      <c r="W142" s="12"/>
-      <c r="X142" s="12"/>
-      <c r="Y142" s="12"/>
-      <c r="Z142" s="12"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="11"/>
@@ -24517,10 +24274,6 @@
       <c r="T143" s="12"/>
       <c r="U143" s="12"/>
       <c r="V143" s="12"/>
-      <c r="W143" s="12"/>
-      <c r="X143" s="12"/>
-      <c r="Y143" s="12"/>
-      <c r="Z143" s="12"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="11"/>
@@ -24545,10 +24298,6 @@
       <c r="T144" s="12"/>
       <c r="U144" s="12"/>
       <c r="V144" s="12"/>
-      <c r="W144" s="12"/>
-      <c r="X144" s="12"/>
-      <c r="Y144" s="12"/>
-      <c r="Z144" s="12"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="11"/>
@@ -24573,10 +24322,6 @@
       <c r="T145" s="12"/>
       <c r="U145" s="12"/>
       <c r="V145" s="12"/>
-      <c r="W145" s="12"/>
-      <c r="X145" s="12"/>
-      <c r="Y145" s="12"/>
-      <c r="Z145" s="12"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="11"/>
@@ -24601,10 +24346,6 @@
       <c r="T146" s="12"/>
       <c r="U146" s="12"/>
       <c r="V146" s="12"/>
-      <c r="W146" s="12"/>
-      <c r="X146" s="12"/>
-      <c r="Y146" s="12"/>
-      <c r="Z146" s="12"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="11"/>
@@ -24629,10 +24370,6 @@
       <c r="T147" s="12"/>
       <c r="U147" s="12"/>
       <c r="V147" s="12"/>
-      <c r="W147" s="12"/>
-      <c r="X147" s="12"/>
-      <c r="Y147" s="12"/>
-      <c r="Z147" s="12"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="11"/>
@@ -24657,10 +24394,6 @@
       <c r="T148" s="12"/>
       <c r="U148" s="12"/>
       <c r="V148" s="12"/>
-      <c r="W148" s="12"/>
-      <c r="X148" s="12"/>
-      <c r="Y148" s="12"/>
-      <c r="Z148" s="12"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="11"/>
@@ -24685,10 +24418,6 @@
       <c r="T149" s="12"/>
       <c r="U149" s="12"/>
       <c r="V149" s="12"/>
-      <c r="W149" s="12"/>
-      <c r="X149" s="12"/>
-      <c r="Y149" s="12"/>
-      <c r="Z149" s="12"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="11"/>
@@ -24713,10 +24442,6 @@
       <c r="T150" s="12"/>
       <c r="U150" s="12"/>
       <c r="V150" s="12"/>
-      <c r="W150" s="12"/>
-      <c r="X150" s="12"/>
-      <c r="Y150" s="12"/>
-      <c r="Z150" s="12"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="11"/>
@@ -24741,10 +24466,6 @@
       <c r="T151" s="12"/>
       <c r="U151" s="12"/>
       <c r="V151" s="12"/>
-      <c r="W151" s="12"/>
-      <c r="X151" s="12"/>
-      <c r="Y151" s="12"/>
-      <c r="Z151" s="12"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="11"/>
@@ -24769,10 +24490,6 @@
       <c r="T152" s="12"/>
       <c r="U152" s="12"/>
       <c r="V152" s="12"/>
-      <c r="W152" s="12"/>
-      <c r="X152" s="12"/>
-      <c r="Y152" s="12"/>
-      <c r="Z152" s="12"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="11"/>
@@ -24797,10 +24514,6 @@
       <c r="T153" s="12"/>
       <c r="U153" s="12"/>
       <c r="V153" s="12"/>
-      <c r="W153" s="12"/>
-      <c r="X153" s="12"/>
-      <c r="Y153" s="12"/>
-      <c r="Z153" s="12"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="11"/>
@@ -24825,10 +24538,6 @@
       <c r="T154" s="12"/>
       <c r="U154" s="12"/>
       <c r="V154" s="12"/>
-      <c r="W154" s="12"/>
-      <c r="X154" s="12"/>
-      <c r="Y154" s="12"/>
-      <c r="Z154" s="12"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="11"/>
@@ -24853,10 +24562,6 @@
       <c r="T155" s="12"/>
       <c r="U155" s="12"/>
       <c r="V155" s="12"/>
-      <c r="W155" s="12"/>
-      <c r="X155" s="12"/>
-      <c r="Y155" s="12"/>
-      <c r="Z155" s="12"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="11"/>
@@ -24881,10 +24586,6 @@
       <c r="T156" s="12"/>
       <c r="U156" s="12"/>
       <c r="V156" s="12"/>
-      <c r="W156" s="12"/>
-      <c r="X156" s="12"/>
-      <c r="Y156" s="12"/>
-      <c r="Z156" s="12"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="11"/>
@@ -24909,10 +24610,6 @@
       <c r="T157" s="12"/>
       <c r="U157" s="12"/>
       <c r="V157" s="12"/>
-      <c r="W157" s="12"/>
-      <c r="X157" s="12"/>
-      <c r="Y157" s="12"/>
-      <c r="Z157" s="12"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="11"/>
@@ -24937,10 +24634,6 @@
       <c r="T158" s="12"/>
       <c r="U158" s="12"/>
       <c r="V158" s="12"/>
-      <c r="W158" s="12"/>
-      <c r="X158" s="12"/>
-      <c r="Y158" s="12"/>
-      <c r="Z158" s="12"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="11"/>
@@ -24965,10 +24658,6 @@
       <c r="T159" s="12"/>
       <c r="U159" s="12"/>
       <c r="V159" s="12"/>
-      <c r="W159" s="12"/>
-      <c r="X159" s="12"/>
-      <c r="Y159" s="12"/>
-      <c r="Z159" s="12"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="11"/>
@@ -24993,10 +24682,6 @@
       <c r="T160" s="12"/>
       <c r="U160" s="12"/>
       <c r="V160" s="12"/>
-      <c r="W160" s="12"/>
-      <c r="X160" s="12"/>
-      <c r="Y160" s="12"/>
-      <c r="Z160" s="12"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="11"/>
@@ -25021,10 +24706,6 @@
       <c r="T161" s="12"/>
       <c r="U161" s="12"/>
       <c r="V161" s="12"/>
-      <c r="W161" s="12"/>
-      <c r="X161" s="12"/>
-      <c r="Y161" s="12"/>
-      <c r="Z161" s="12"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="11"/>
@@ -25049,10 +24730,6 @@
       <c r="T162" s="12"/>
       <c r="U162" s="12"/>
       <c r="V162" s="12"/>
-      <c r="W162" s="12"/>
-      <c r="X162" s="12"/>
-      <c r="Y162" s="12"/>
-      <c r="Z162" s="12"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="11"/>
@@ -25077,10 +24754,6 @@
       <c r="T163" s="12"/>
       <c r="U163" s="12"/>
       <c r="V163" s="12"/>
-      <c r="W163" s="12"/>
-      <c r="X163" s="12"/>
-      <c r="Y163" s="12"/>
-      <c r="Z163" s="12"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="11"/>
@@ -25105,10 +24778,6 @@
       <c r="T164" s="12"/>
       <c r="U164" s="12"/>
       <c r="V164" s="12"/>
-      <c r="W164" s="12"/>
-      <c r="X164" s="12"/>
-      <c r="Y164" s="12"/>
-      <c r="Z164" s="12"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="11"/>
@@ -25133,10 +24802,6 @@
       <c r="T165" s="12"/>
       <c r="U165" s="12"/>
       <c r="V165" s="12"/>
-      <c r="W165" s="12"/>
-      <c r="X165" s="12"/>
-      <c r="Y165" s="12"/>
-      <c r="Z165" s="12"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="11"/>
@@ -25161,10 +24826,6 @@
       <c r="T166" s="12"/>
       <c r="U166" s="12"/>
       <c r="V166" s="12"/>
-      <c r="W166" s="12"/>
-      <c r="X166" s="12"/>
-      <c r="Y166" s="12"/>
-      <c r="Z166" s="12"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="11"/>
@@ -25189,10 +24850,6 @@
       <c r="T167" s="12"/>
       <c r="U167" s="12"/>
       <c r="V167" s="12"/>
-      <c r="W167" s="12"/>
-      <c r="X167" s="12"/>
-      <c r="Y167" s="12"/>
-      <c r="Z167" s="12"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="11"/>
@@ -25217,10 +24874,6 @@
       <c r="T168" s="12"/>
       <c r="U168" s="12"/>
       <c r="V168" s="12"/>
-      <c r="W168" s="12"/>
-      <c r="X168" s="12"/>
-      <c r="Y168" s="12"/>
-      <c r="Z168" s="12"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="11"/>
@@ -25245,10 +24898,6 @@
       <c r="T169" s="12"/>
       <c r="U169" s="12"/>
       <c r="V169" s="12"/>
-      <c r="W169" s="12"/>
-      <c r="X169" s="12"/>
-      <c r="Y169" s="12"/>
-      <c r="Z169" s="12"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="11"/>
@@ -25273,10 +24922,6 @@
       <c r="T170" s="12"/>
       <c r="U170" s="12"/>
       <c r="V170" s="12"/>
-      <c r="W170" s="12"/>
-      <c r="X170" s="12"/>
-      <c r="Y170" s="12"/>
-      <c r="Z170" s="12"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="11"/>
@@ -25301,10 +24946,6 @@
       <c r="T171" s="12"/>
       <c r="U171" s="12"/>
       <c r="V171" s="12"/>
-      <c r="W171" s="12"/>
-      <c r="X171" s="12"/>
-      <c r="Y171" s="12"/>
-      <c r="Z171" s="12"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="11"/>
@@ -25329,10 +24970,6 @@
       <c r="T172" s="12"/>
       <c r="U172" s="12"/>
       <c r="V172" s="12"/>
-      <c r="W172" s="12"/>
-      <c r="X172" s="12"/>
-      <c r="Y172" s="12"/>
-      <c r="Z172" s="12"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="11"/>
@@ -25357,10 +24994,6 @@
       <c r="T173" s="12"/>
       <c r="U173" s="12"/>
       <c r="V173" s="12"/>
-      <c r="W173" s="12"/>
-      <c r="X173" s="12"/>
-      <c r="Y173" s="12"/>
-      <c r="Z173" s="12"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="11"/>
@@ -25385,10 +25018,6 @@
       <c r="T174" s="12"/>
       <c r="U174" s="12"/>
       <c r="V174" s="12"/>
-      <c r="W174" s="12"/>
-      <c r="X174" s="12"/>
-      <c r="Y174" s="12"/>
-      <c r="Z174" s="12"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="11"/>
@@ -25413,10 +25042,6 @@
       <c r="T175" s="12"/>
       <c r="U175" s="12"/>
       <c r="V175" s="12"/>
-      <c r="W175" s="12"/>
-      <c r="X175" s="12"/>
-      <c r="Y175" s="12"/>
-      <c r="Z175" s="12"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="11"/>
@@ -25441,10 +25066,6 @@
       <c r="T176" s="12"/>
       <c r="U176" s="12"/>
       <c r="V176" s="12"/>
-      <c r="W176" s="12"/>
-      <c r="X176" s="12"/>
-      <c r="Y176" s="12"/>
-      <c r="Z176" s="12"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="11"/>
@@ -25469,10 +25090,6 @@
       <c r="T177" s="12"/>
       <c r="U177" s="12"/>
       <c r="V177" s="12"/>
-      <c r="W177" s="12"/>
-      <c r="X177" s="12"/>
-      <c r="Y177" s="12"/>
-      <c r="Z177" s="12"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="11"/>
@@ -25497,10 +25114,6 @@
       <c r="T178" s="12"/>
       <c r="U178" s="12"/>
       <c r="V178" s="12"/>
-      <c r="W178" s="12"/>
-      <c r="X178" s="12"/>
-      <c r="Y178" s="12"/>
-      <c r="Z178" s="12"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="11"/>
@@ -25525,10 +25138,6 @@
       <c r="T179" s="12"/>
       <c r="U179" s="12"/>
       <c r="V179" s="12"/>
-      <c r="W179" s="12"/>
-      <c r="X179" s="12"/>
-      <c r="Y179" s="12"/>
-      <c r="Z179" s="12"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="11"/>
@@ -25553,10 +25162,6 @@
       <c r="T180" s="12"/>
       <c r="U180" s="12"/>
       <c r="V180" s="12"/>
-      <c r="W180" s="12"/>
-      <c r="X180" s="12"/>
-      <c r="Y180" s="12"/>
-      <c r="Z180" s="12"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="11"/>
@@ -25581,10 +25186,6 @@
       <c r="T181" s="12"/>
       <c r="U181" s="12"/>
       <c r="V181" s="12"/>
-      <c r="W181" s="12"/>
-      <c r="X181" s="12"/>
-      <c r="Y181" s="12"/>
-      <c r="Z181" s="12"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="11"/>
@@ -25609,10 +25210,6 @@
       <c r="T182" s="12"/>
       <c r="U182" s="12"/>
       <c r="V182" s="12"/>
-      <c r="W182" s="12"/>
-      <c r="X182" s="12"/>
-      <c r="Y182" s="12"/>
-      <c r="Z182" s="12"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="11"/>
@@ -25637,10 +25234,6 @@
       <c r="T183" s="12"/>
       <c r="U183" s="12"/>
       <c r="V183" s="12"/>
-      <c r="W183" s="12"/>
-      <c r="X183" s="12"/>
-      <c r="Y183" s="12"/>
-      <c r="Z183" s="12"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="11"/>
@@ -25665,10 +25258,6 @@
       <c r="T184" s="12"/>
       <c r="U184" s="12"/>
       <c r="V184" s="12"/>
-      <c r="W184" s="12"/>
-      <c r="X184" s="12"/>
-      <c r="Y184" s="12"/>
-      <c r="Z184" s="12"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="11"/>
@@ -25693,10 +25282,6 @@
       <c r="T185" s="12"/>
       <c r="U185" s="12"/>
       <c r="V185" s="12"/>
-      <c r="W185" s="12"/>
-      <c r="X185" s="12"/>
-      <c r="Y185" s="12"/>
-      <c r="Z185" s="12"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="11"/>
@@ -25721,10 +25306,6 @@
       <c r="T186" s="12"/>
       <c r="U186" s="12"/>
       <c r="V186" s="12"/>
-      <c r="W186" s="12"/>
-      <c r="X186" s="12"/>
-      <c r="Y186" s="12"/>
-      <c r="Z186" s="12"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="11"/>
@@ -25749,10 +25330,6 @@
       <c r="T187" s="12"/>
       <c r="U187" s="12"/>
       <c r="V187" s="12"/>
-      <c r="W187" s="12"/>
-      <c r="X187" s="12"/>
-      <c r="Y187" s="12"/>
-      <c r="Z187" s="12"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="11"/>
@@ -25777,10 +25354,6 @@
       <c r="T188" s="12"/>
       <c r="U188" s="12"/>
       <c r="V188" s="12"/>
-      <c r="W188" s="12"/>
-      <c r="X188" s="12"/>
-      <c r="Y188" s="12"/>
-      <c r="Z188" s="12"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="11"/>
@@ -25805,10 +25378,6 @@
       <c r="T189" s="12"/>
       <c r="U189" s="12"/>
       <c r="V189" s="12"/>
-      <c r="W189" s="12"/>
-      <c r="X189" s="12"/>
-      <c r="Y189" s="12"/>
-      <c r="Z189" s="12"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="11"/>
@@ -25833,10 +25402,6 @@
       <c r="T190" s="12"/>
       <c r="U190" s="12"/>
       <c r="V190" s="12"/>
-      <c r="W190" s="12"/>
-      <c r="X190" s="12"/>
-      <c r="Y190" s="12"/>
-      <c r="Z190" s="12"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="11"/>
@@ -25861,10 +25426,6 @@
       <c r="T191" s="12"/>
       <c r="U191" s="12"/>
       <c r="V191" s="12"/>
-      <c r="W191" s="12"/>
-      <c r="X191" s="12"/>
-      <c r="Y191" s="12"/>
-      <c r="Z191" s="12"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="11"/>
@@ -25889,10 +25450,6 @@
       <c r="T192" s="12"/>
       <c r="U192" s="12"/>
       <c r="V192" s="12"/>
-      <c r="W192" s="12"/>
-      <c r="X192" s="12"/>
-      <c r="Y192" s="12"/>
-      <c r="Z192" s="12"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="11"/>
@@ -25917,10 +25474,6 @@
       <c r="T193" s="12"/>
       <c r="U193" s="12"/>
       <c r="V193" s="12"/>
-      <c r="W193" s="12"/>
-      <c r="X193" s="12"/>
-      <c r="Y193" s="12"/>
-      <c r="Z193" s="12"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="11"/>
@@ -25945,10 +25498,6 @@
       <c r="T194" s="12"/>
       <c r="U194" s="12"/>
       <c r="V194" s="12"/>
-      <c r="W194" s="12"/>
-      <c r="X194" s="12"/>
-      <c r="Y194" s="12"/>
-      <c r="Z194" s="12"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="11"/>
@@ -25973,10 +25522,6 @@
       <c r="T195" s="12"/>
       <c r="U195" s="12"/>
       <c r="V195" s="12"/>
-      <c r="W195" s="12"/>
-      <c r="X195" s="12"/>
-      <c r="Y195" s="12"/>
-      <c r="Z195" s="12"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="11"/>
@@ -26001,10 +25546,6 @@
       <c r="T196" s="12"/>
       <c r="U196" s="12"/>
       <c r="V196" s="12"/>
-      <c r="W196" s="12"/>
-      <c r="X196" s="12"/>
-      <c r="Y196" s="12"/>
-      <c r="Z196" s="12"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="11"/>
@@ -26029,10 +25570,6 @@
       <c r="T197" s="12"/>
       <c r="U197" s="12"/>
       <c r="V197" s="12"/>
-      <c r="W197" s="12"/>
-      <c r="X197" s="12"/>
-      <c r="Y197" s="12"/>
-      <c r="Z197" s="12"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="11"/>
@@ -26057,10 +25594,6 @@
       <c r="T198" s="12"/>
       <c r="U198" s="12"/>
       <c r="V198" s="12"/>
-      <c r="W198" s="12"/>
-      <c r="X198" s="12"/>
-      <c r="Y198" s="12"/>
-      <c r="Z198" s="12"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="11"/>
@@ -26085,10 +25618,6 @@
       <c r="T199" s="12"/>
       <c r="U199" s="12"/>
       <c r="V199" s="12"/>
-      <c r="W199" s="12"/>
-      <c r="X199" s="12"/>
-      <c r="Y199" s="12"/>
-      <c r="Z199" s="12"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="11"/>
@@ -26113,10 +25642,6 @@
       <c r="T200" s="12"/>
       <c r="U200" s="12"/>
       <c r="V200" s="12"/>
-      <c r="W200" s="12"/>
-      <c r="X200" s="12"/>
-      <c r="Y200" s="12"/>
-      <c r="Z200" s="12"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="11"/>
@@ -26141,10 +25666,6 @@
       <c r="T201" s="12"/>
       <c r="U201" s="12"/>
       <c r="V201" s="12"/>
-      <c r="W201" s="12"/>
-      <c r="X201" s="12"/>
-      <c r="Y201" s="12"/>
-      <c r="Z201" s="12"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="11"/>
@@ -26169,10 +25690,6 @@
       <c r="T202" s="12"/>
       <c r="U202" s="12"/>
       <c r="V202" s="12"/>
-      <c r="W202" s="12"/>
-      <c r="X202" s="12"/>
-      <c r="Y202" s="12"/>
-      <c r="Z202" s="12"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="11"/>
@@ -26197,10 +25714,6 @@
       <c r="T203" s="12"/>
       <c r="U203" s="12"/>
       <c r="V203" s="12"/>
-      <c r="W203" s="12"/>
-      <c r="X203" s="12"/>
-      <c r="Y203" s="12"/>
-      <c r="Z203" s="12"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="11"/>
@@ -26225,10 +25738,6 @@
       <c r="T204" s="12"/>
       <c r="U204" s="12"/>
       <c r="V204" s="12"/>
-      <c r="W204" s="12"/>
-      <c r="X204" s="12"/>
-      <c r="Y204" s="12"/>
-      <c r="Z204" s="12"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="11"/>
@@ -26253,10 +25762,6 @@
       <c r="T205" s="12"/>
       <c r="U205" s="12"/>
       <c r="V205" s="12"/>
-      <c r="W205" s="12"/>
-      <c r="X205" s="12"/>
-      <c r="Y205" s="12"/>
-      <c r="Z205" s="12"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="11"/>
@@ -26281,10 +25786,6 @@
       <c r="T206" s="12"/>
       <c r="U206" s="12"/>
       <c r="V206" s="12"/>
-      <c r="W206" s="12"/>
-      <c r="X206" s="12"/>
-      <c r="Y206" s="12"/>
-      <c r="Z206" s="12"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="11"/>
@@ -26309,10 +25810,6 @@
       <c r="T207" s="12"/>
       <c r="U207" s="12"/>
       <c r="V207" s="12"/>
-      <c r="W207" s="12"/>
-      <c r="X207" s="12"/>
-      <c r="Y207" s="12"/>
-      <c r="Z207" s="12"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="11"/>
@@ -26337,10 +25834,6 @@
       <c r="T208" s="12"/>
       <c r="U208" s="12"/>
       <c r="V208" s="12"/>
-      <c r="W208" s="12"/>
-      <c r="X208" s="12"/>
-      <c r="Y208" s="12"/>
-      <c r="Z208" s="12"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="11"/>
@@ -26365,10 +25858,6 @@
       <c r="T209" s="12"/>
       <c r="U209" s="12"/>
       <c r="V209" s="12"/>
-      <c r="W209" s="12"/>
-      <c r="X209" s="12"/>
-      <c r="Y209" s="12"/>
-      <c r="Z209" s="12"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="11"/>
@@ -26393,10 +25882,6 @@
       <c r="T210" s="12"/>
       <c r="U210" s="12"/>
       <c r="V210" s="12"/>
-      <c r="W210" s="12"/>
-      <c r="X210" s="12"/>
-      <c r="Y210" s="12"/>
-      <c r="Z210" s="12"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="11"/>
@@ -26421,10 +25906,6 @@
       <c r="T211" s="12"/>
       <c r="U211" s="12"/>
       <c r="V211" s="12"/>
-      <c r="W211" s="12"/>
-      <c r="X211" s="12"/>
-      <c r="Y211" s="12"/>
-      <c r="Z211" s="12"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="11"/>
@@ -26449,10 +25930,6 @@
       <c r="T212" s="12"/>
       <c r="U212" s="12"/>
       <c r="V212" s="12"/>
-      <c r="W212" s="12"/>
-      <c r="X212" s="12"/>
-      <c r="Y212" s="12"/>
-      <c r="Z212" s="12"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="11"/>
@@ -26477,10 +25954,6 @@
       <c r="T213" s="12"/>
       <c r="U213" s="12"/>
       <c r="V213" s="12"/>
-      <c r="W213" s="12"/>
-      <c r="X213" s="12"/>
-      <c r="Y213" s="12"/>
-      <c r="Z213" s="12"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="11"/>
@@ -26505,10 +25978,6 @@
       <c r="T214" s="12"/>
       <c r="U214" s="12"/>
       <c r="V214" s="12"/>
-      <c r="W214" s="12"/>
-      <c r="X214" s="12"/>
-      <c r="Y214" s="12"/>
-      <c r="Z214" s="12"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="11"/>
@@ -26533,10 +26002,6 @@
       <c r="T215" s="12"/>
       <c r="U215" s="12"/>
       <c r="V215" s="12"/>
-      <c r="W215" s="12"/>
-      <c r="X215" s="12"/>
-      <c r="Y215" s="12"/>
-      <c r="Z215" s="12"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="11"/>
@@ -26561,10 +26026,6 @@
       <c r="T216" s="12"/>
       <c r="U216" s="12"/>
       <c r="V216" s="12"/>
-      <c r="W216" s="12"/>
-      <c r="X216" s="12"/>
-      <c r="Y216" s="12"/>
-      <c r="Z216" s="12"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="11"/>
@@ -26589,10 +26050,6 @@
       <c r="T217" s="12"/>
       <c r="U217" s="12"/>
       <c r="V217" s="12"/>
-      <c r="W217" s="12"/>
-      <c r="X217" s="12"/>
-      <c r="Y217" s="12"/>
-      <c r="Z217" s="12"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="11"/>
@@ -26617,10 +26074,6 @@
       <c r="T218" s="12"/>
       <c r="U218" s="12"/>
       <c r="V218" s="12"/>
-      <c r="W218" s="12"/>
-      <c r="X218" s="12"/>
-      <c r="Y218" s="12"/>
-      <c r="Z218" s="12"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="11"/>
@@ -26645,10 +26098,6 @@
       <c r="T219" s="12"/>
       <c r="U219" s="12"/>
       <c r="V219" s="12"/>
-      <c r="W219" s="12"/>
-      <c r="X219" s="12"/>
-      <c r="Y219" s="12"/>
-      <c r="Z219" s="12"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="11"/>
@@ -26673,10 +26122,6 @@
       <c r="T220" s="12"/>
       <c r="U220" s="12"/>
       <c r="V220" s="12"/>
-      <c r="W220" s="12"/>
-      <c r="X220" s="12"/>
-      <c r="Y220" s="12"/>
-      <c r="Z220" s="12"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="11"/>
@@ -26701,10 +26146,6 @@
       <c r="T221" s="12"/>
       <c r="U221" s="12"/>
       <c r="V221" s="12"/>
-      <c r="W221" s="12"/>
-      <c r="X221" s="12"/>
-      <c r="Y221" s="12"/>
-      <c r="Z221" s="12"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="11"/>
@@ -26729,10 +26170,6 @@
       <c r="T222" s="12"/>
       <c r="U222" s="12"/>
       <c r="V222" s="12"/>
-      <c r="W222" s="12"/>
-      <c r="X222" s="12"/>
-      <c r="Y222" s="12"/>
-      <c r="Z222" s="12"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="11"/>
@@ -26757,10 +26194,6 @@
       <c r="T223" s="12"/>
       <c r="U223" s="12"/>
       <c r="V223" s="12"/>
-      <c r="W223" s="12"/>
-      <c r="X223" s="12"/>
-      <c r="Y223" s="12"/>
-      <c r="Z223" s="12"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="11"/>
@@ -26785,10 +26218,6 @@
       <c r="T224" s="12"/>
       <c r="U224" s="12"/>
       <c r="V224" s="12"/>
-      <c r="W224" s="12"/>
-      <c r="X224" s="12"/>
-      <c r="Y224" s="12"/>
-      <c r="Z224" s="12"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="11"/>
@@ -26813,10 +26242,6 @@
       <c r="T225" s="12"/>
       <c r="U225" s="12"/>
       <c r="V225" s="12"/>
-      <c r="W225" s="12"/>
-      <c r="X225" s="12"/>
-      <c r="Y225" s="12"/>
-      <c r="Z225" s="12"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="11"/>
@@ -26841,10 +26266,6 @@
       <c r="T226" s="12"/>
       <c r="U226" s="12"/>
       <c r="V226" s="12"/>
-      <c r="W226" s="12"/>
-      <c r="X226" s="12"/>
-      <c r="Y226" s="12"/>
-      <c r="Z226" s="12"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="11"/>
@@ -26869,10 +26290,6 @@
       <c r="T227" s="12"/>
       <c r="U227" s="12"/>
       <c r="V227" s="12"/>
-      <c r="W227" s="12"/>
-      <c r="X227" s="12"/>
-      <c r="Y227" s="12"/>
-      <c r="Z227" s="12"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="11"/>
@@ -26897,10 +26314,6 @@
       <c r="T228" s="12"/>
       <c r="U228" s="12"/>
       <c r="V228" s="12"/>
-      <c r="W228" s="12"/>
-      <c r="X228" s="12"/>
-      <c r="Y228" s="12"/>
-      <c r="Z228" s="12"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="11"/>
@@ -26925,10 +26338,6 @@
       <c r="T229" s="12"/>
       <c r="U229" s="12"/>
       <c r="V229" s="12"/>
-      <c r="W229" s="12"/>
-      <c r="X229" s="12"/>
-      <c r="Y229" s="12"/>
-      <c r="Z229" s="12"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="11"/>
@@ -26953,10 +26362,6 @@
       <c r="T230" s="12"/>
       <c r="U230" s="12"/>
       <c r="V230" s="12"/>
-      <c r="W230" s="12"/>
-      <c r="X230" s="12"/>
-      <c r="Y230" s="12"/>
-      <c r="Z230" s="12"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="11"/>
@@ -26981,10 +26386,6 @@
       <c r="T231" s="12"/>
       <c r="U231" s="12"/>
       <c r="V231" s="12"/>
-      <c r="W231" s="12"/>
-      <c r="X231" s="12"/>
-      <c r="Y231" s="12"/>
-      <c r="Z231" s="12"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="11"/>
@@ -27009,10 +26410,6 @@
       <c r="T232" s="12"/>
       <c r="U232" s="12"/>
       <c r="V232" s="12"/>
-      <c r="W232" s="12"/>
-      <c r="X232" s="12"/>
-      <c r="Y232" s="12"/>
-      <c r="Z232" s="12"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="11"/>
@@ -27037,10 +26434,6 @@
       <c r="T233" s="12"/>
       <c r="U233" s="12"/>
       <c r="V233" s="12"/>
-      <c r="W233" s="12"/>
-      <c r="X233" s="12"/>
-      <c r="Y233" s="12"/>
-      <c r="Z233" s="12"/>
     </row>
     <row r="234" ht="15.75" customHeight="1"/>
     <row r="235" ht="15.75" customHeight="1"/>
@@ -27824,6 +27217,875 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="199">
+        <v>7.0</v>
+      </c>
+      <c r="B1" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="201" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="201" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="201" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="201" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="201" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="201" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="201" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="201" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="201" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="201" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="201" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="202" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD1" s="203" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE1" s="204" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="205" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="208"/>
+      <c r="AD2" s="209"/>
+      <c r="AE2" s="210"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="211">
+        <f t="array" ref="A3:A33">IF(ROW(A2:A32)-1 &lt;= DAY(EOMONTH(DATE(YEAR(TODAY()), A1, 1), 0)),
+                 DATE(YEAR(TODAY()), A1, ROW(A2:A32)-1),
+                 "")</f>
+        <v>45839</v>
+      </c>
+      <c r="B3" s="212" t="str">
+        <f t="shared" ref="B3:B33" si="1">IF(A3 = "", "", TEXT(A3, "ddd"))</f>
+        <v>火</v>
+      </c>
+      <c r="C3" s="213"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214"/>
+      <c r="I3" s="214"/>
+      <c r="J3" s="214"/>
+      <c r="K3" s="214"/>
+      <c r="L3" s="214"/>
+      <c r="M3" s="214"/>
+      <c r="N3" s="215"/>
+      <c r="AD3" s="216"/>
+      <c r="AE3" s="217"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="218">
+        <v>45840.0</v>
+      </c>
+      <c r="B4" s="219" t="str">
+        <f t="shared" si="1"/>
+        <v>水</v>
+      </c>
+      <c r="C4" s="220"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="221"/>
+      <c r="K4" s="221"/>
+      <c r="L4" s="221"/>
+      <c r="M4" s="221"/>
+      <c r="N4" s="222"/>
+      <c r="AD4" s="223"/>
+      <c r="AE4" s="224"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="211">
+        <v>45841.0</v>
+      </c>
+      <c r="B5" s="212" t="str">
+        <f t="shared" si="1"/>
+        <v>木</v>
+      </c>
+      <c r="C5" s="225"/>
+      <c r="D5" s="226"/>
+      <c r="E5" s="226"/>
+      <c r="F5" s="226"/>
+      <c r="G5" s="226"/>
+      <c r="H5" s="226"/>
+      <c r="I5" s="226"/>
+      <c r="J5" s="226"/>
+      <c r="K5" s="226"/>
+      <c r="L5" s="226"/>
+      <c r="M5" s="226"/>
+      <c r="N5" s="227"/>
+      <c r="AD5" s="228"/>
+      <c r="AE5" s="229"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="218">
+        <v>45842.0</v>
+      </c>
+      <c r="B6" s="219" t="str">
+        <f t="shared" si="1"/>
+        <v>金</v>
+      </c>
+      <c r="C6" s="230"/>
+      <c r="D6" s="231"/>
+      <c r="E6" s="231"/>
+      <c r="F6" s="231"/>
+      <c r="G6" s="231"/>
+      <c r="H6" s="231"/>
+      <c r="I6" s="231"/>
+      <c r="J6" s="231"/>
+      <c r="K6" s="231"/>
+      <c r="L6" s="231"/>
+      <c r="M6" s="231"/>
+      <c r="N6" s="232"/>
+      <c r="AD6" s="233"/>
+      <c r="AE6" s="234"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="211">
+        <v>45843.0</v>
+      </c>
+      <c r="B7" s="212" t="str">
+        <f t="shared" si="1"/>
+        <v>土</v>
+      </c>
+      <c r="C7" s="235"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="236"/>
+      <c r="G7" s="236"/>
+      <c r="H7" s="236"/>
+      <c r="I7" s="236"/>
+      <c r="J7" s="236"/>
+      <c r="K7" s="236"/>
+      <c r="L7" s="236"/>
+      <c r="M7" s="236"/>
+      <c r="N7" s="237"/>
+      <c r="AD7" s="238"/>
+      <c r="AE7" s="239"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="218">
+        <v>45844.0</v>
+      </c>
+      <c r="B8" s="219" t="str">
+        <f t="shared" si="1"/>
+        <v>日</v>
+      </c>
+      <c r="C8" s="240"/>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
+      <c r="G8" s="241"/>
+      <c r="H8" s="241"/>
+      <c r="I8" s="241"/>
+      <c r="J8" s="241"/>
+      <c r="K8" s="241"/>
+      <c r="L8" s="241"/>
+      <c r="M8" s="241"/>
+      <c r="N8" s="242"/>
+      <c r="AD8" s="243"/>
+      <c r="AE8" s="244"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="211">
+        <v>45845.0</v>
+      </c>
+      <c r="B9" s="212" t="str">
+        <f t="shared" si="1"/>
+        <v>月</v>
+      </c>
+      <c r="C9" s="235"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
+      <c r="G9" s="236"/>
+      <c r="H9" s="236"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="236"/>
+      <c r="K9" s="236"/>
+      <c r="L9" s="236"/>
+      <c r="M9" s="236"/>
+      <c r="N9" s="237"/>
+      <c r="AD9" s="238"/>
+      <c r="AE9" s="239"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="218">
+        <v>45846.0</v>
+      </c>
+      <c r="B10" s="219" t="str">
+        <f t="shared" si="1"/>
+        <v>火</v>
+      </c>
+      <c r="C10" s="240"/>
+      <c r="D10" s="241"/>
+      <c r="E10" s="241"/>
+      <c r="F10" s="241"/>
+      <c r="G10" s="241"/>
+      <c r="H10" s="241"/>
+      <c r="I10" s="241"/>
+      <c r="J10" s="241"/>
+      <c r="K10" s="241"/>
+      <c r="L10" s="241"/>
+      <c r="M10" s="241"/>
+      <c r="N10" s="242"/>
+      <c r="AD10" s="243"/>
+      <c r="AE10" s="244"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="211">
+        <v>45847.0</v>
+      </c>
+      <c r="B11" s="212" t="str">
+        <f t="shared" si="1"/>
+        <v>水</v>
+      </c>
+      <c r="C11" s="235"/>
+      <c r="D11" s="236"/>
+      <c r="E11" s="236"/>
+      <c r="F11" s="236"/>
+      <c r="G11" s="236"/>
+      <c r="H11" s="236"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="236"/>
+      <c r="K11" s="236"/>
+      <c r="L11" s="236"/>
+      <c r="M11" s="236"/>
+      <c r="N11" s="237"/>
+      <c r="AD11" s="238"/>
+      <c r="AE11" s="239"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="218">
+        <v>45848.0</v>
+      </c>
+      <c r="B12" s="219" t="str">
+        <f t="shared" si="1"/>
+        <v>木</v>
+      </c>
+      <c r="C12" s="240"/>
+      <c r="D12" s="241"/>
+      <c r="E12" s="241"/>
+      <c r="F12" s="241"/>
+      <c r="G12" s="241"/>
+      <c r="H12" s="241"/>
+      <c r="I12" s="241"/>
+      <c r="J12" s="241"/>
+      <c r="K12" s="241"/>
+      <c r="L12" s="241"/>
+      <c r="M12" s="241"/>
+      <c r="N12" s="242"/>
+      <c r="AD12" s="243"/>
+      <c r="AE12" s="244"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="211">
+        <v>45849.0</v>
+      </c>
+      <c r="B13" s="212" t="str">
+        <f t="shared" si="1"/>
+        <v>金</v>
+      </c>
+      <c r="C13" s="235"/>
+      <c r="D13" s="236"/>
+      <c r="E13" s="236"/>
+      <c r="F13" s="236"/>
+      <c r="G13" s="236"/>
+      <c r="H13" s="236"/>
+      <c r="I13" s="236"/>
+      <c r="J13" s="236"/>
+      <c r="K13" s="236"/>
+      <c r="L13" s="236"/>
+      <c r="M13" s="236"/>
+      <c r="N13" s="237"/>
+      <c r="AD13" s="238"/>
+      <c r="AE13" s="239"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="218">
+        <v>45850.0</v>
+      </c>
+      <c r="B14" s="219" t="str">
+        <f t="shared" si="1"/>
+        <v>土</v>
+      </c>
+      <c r="C14" s="240"/>
+      <c r="D14" s="241"/>
+      <c r="E14" s="241"/>
+      <c r="F14" s="241"/>
+      <c r="G14" s="241"/>
+      <c r="H14" s="241"/>
+      <c r="I14" s="241"/>
+      <c r="J14" s="241"/>
+      <c r="K14" s="241"/>
+      <c r="L14" s="241"/>
+      <c r="M14" s="241"/>
+      <c r="N14" s="242"/>
+      <c r="AD14" s="243"/>
+      <c r="AE14" s="244"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="211">
+        <v>45851.0</v>
+      </c>
+      <c r="B15" s="212" t="str">
+        <f t="shared" si="1"/>
+        <v>日</v>
+      </c>
+      <c r="C15" s="235"/>
+      <c r="D15" s="236"/>
+      <c r="E15" s="236"/>
+      <c r="F15" s="236"/>
+      <c r="G15" s="236"/>
+      <c r="H15" s="236"/>
+      <c r="I15" s="236"/>
+      <c r="J15" s="236"/>
+      <c r="K15" s="236"/>
+      <c r="L15" s="236"/>
+      <c r="M15" s="236"/>
+      <c r="N15" s="237"/>
+      <c r="AD15" s="238"/>
+      <c r="AE15" s="239"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="218">
+        <v>45852.0</v>
+      </c>
+      <c r="B16" s="219" t="str">
+        <f t="shared" si="1"/>
+        <v>月</v>
+      </c>
+      <c r="C16" s="240"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="241"/>
+      <c r="F16" s="241"/>
+      <c r="G16" s="241"/>
+      <c r="H16" s="241"/>
+      <c r="I16" s="241"/>
+      <c r="J16" s="241"/>
+      <c r="K16" s="241"/>
+      <c r="L16" s="241"/>
+      <c r="M16" s="241"/>
+      <c r="N16" s="242"/>
+      <c r="AD16" s="243"/>
+      <c r="AE16" s="244"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="211">
+        <v>45853.0</v>
+      </c>
+      <c r="B17" s="212" t="str">
+        <f t="shared" si="1"/>
+        <v>火</v>
+      </c>
+      <c r="C17" s="235"/>
+      <c r="D17" s="236"/>
+      <c r="E17" s="236"/>
+      <c r="F17" s="236"/>
+      <c r="G17" s="236"/>
+      <c r="H17" s="236"/>
+      <c r="I17" s="236"/>
+      <c r="J17" s="236"/>
+      <c r="K17" s="236"/>
+      <c r="L17" s="236"/>
+      <c r="M17" s="236"/>
+      <c r="N17" s="237"/>
+      <c r="AD17" s="238"/>
+      <c r="AE17" s="239"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="218">
+        <v>45854.0</v>
+      </c>
+      <c r="B18" s="219" t="str">
+        <f t="shared" si="1"/>
+        <v>水</v>
+      </c>
+      <c r="C18" s="240"/>
+      <c r="D18" s="241"/>
+      <c r="E18" s="241"/>
+      <c r="F18" s="241"/>
+      <c r="G18" s="241"/>
+      <c r="H18" s="241"/>
+      <c r="I18" s="241"/>
+      <c r="J18" s="241"/>
+      <c r="K18" s="241"/>
+      <c r="L18" s="241"/>
+      <c r="M18" s="241"/>
+      <c r="N18" s="242"/>
+      <c r="AD18" s="243"/>
+      <c r="AE18" s="244"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="211">
+        <v>45855.0</v>
+      </c>
+      <c r="B19" s="212" t="str">
+        <f t="shared" si="1"/>
+        <v>木</v>
+      </c>
+      <c r="C19" s="235"/>
+      <c r="D19" s="236"/>
+      <c r="E19" s="236"/>
+      <c r="F19" s="236"/>
+      <c r="G19" s="236"/>
+      <c r="H19" s="236"/>
+      <c r="I19" s="236"/>
+      <c r="J19" s="236"/>
+      <c r="K19" s="236"/>
+      <c r="L19" s="236"/>
+      <c r="M19" s="236"/>
+      <c r="N19" s="237"/>
+      <c r="AD19" s="238"/>
+      <c r="AE19" s="239"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="218">
+        <v>45856.0</v>
+      </c>
+      <c r="B20" s="219" t="str">
+        <f t="shared" si="1"/>
+        <v>金</v>
+      </c>
+      <c r="C20" s="240"/>
+      <c r="D20" s="241"/>
+      <c r="E20" s="241"/>
+      <c r="F20" s="241"/>
+      <c r="G20" s="241"/>
+      <c r="H20" s="241"/>
+      <c r="I20" s="241"/>
+      <c r="J20" s="241"/>
+      <c r="K20" s="241"/>
+      <c r="L20" s="241"/>
+      <c r="M20" s="241"/>
+      <c r="N20" s="242"/>
+      <c r="AD20" s="243"/>
+      <c r="AE20" s="244"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="211">
+        <v>45857.0</v>
+      </c>
+      <c r="B21" s="212" t="str">
+        <f t="shared" si="1"/>
+        <v>土</v>
+      </c>
+      <c r="C21" s="235"/>
+      <c r="D21" s="236"/>
+      <c r="E21" s="236"/>
+      <c r="F21" s="236"/>
+      <c r="G21" s="236"/>
+      <c r="H21" s="236"/>
+      <c r="I21" s="236"/>
+      <c r="J21" s="236"/>
+      <c r="K21" s="236"/>
+      <c r="L21" s="236"/>
+      <c r="M21" s="236"/>
+      <c r="N21" s="237"/>
+      <c r="AD21" s="238"/>
+      <c r="AE21" s="239"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="218">
+        <v>45858.0</v>
+      </c>
+      <c r="B22" s="219" t="str">
+        <f t="shared" si="1"/>
+        <v>日</v>
+      </c>
+      <c r="C22" s="240"/>
+      <c r="D22" s="241"/>
+      <c r="E22" s="241"/>
+      <c r="F22" s="241"/>
+      <c r="G22" s="241"/>
+      <c r="H22" s="241"/>
+      <c r="I22" s="241"/>
+      <c r="J22" s="241"/>
+      <c r="K22" s="241"/>
+      <c r="L22" s="241"/>
+      <c r="M22" s="241"/>
+      <c r="N22" s="242"/>
+      <c r="AD22" s="243"/>
+      <c r="AE22" s="244"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="211">
+        <v>45859.0</v>
+      </c>
+      <c r="B23" s="212" t="str">
+        <f t="shared" si="1"/>
+        <v>月</v>
+      </c>
+      <c r="C23" s="235"/>
+      <c r="D23" s="236"/>
+      <c r="E23" s="236"/>
+      <c r="F23" s="236"/>
+      <c r="G23" s="236"/>
+      <c r="H23" s="236"/>
+      <c r="I23" s="236"/>
+      <c r="J23" s="236"/>
+      <c r="K23" s="236"/>
+      <c r="L23" s="236"/>
+      <c r="M23" s="236"/>
+      <c r="N23" s="237"/>
+      <c r="AD23" s="238"/>
+      <c r="AE23" s="239"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="218">
+        <v>45860.0</v>
+      </c>
+      <c r="B24" s="219" t="str">
+        <f t="shared" si="1"/>
+        <v>火</v>
+      </c>
+      <c r="C24" s="240"/>
+      <c r="D24" s="241"/>
+      <c r="E24" s="241"/>
+      <c r="F24" s="241"/>
+      <c r="G24" s="241"/>
+      <c r="H24" s="241"/>
+      <c r="I24" s="241"/>
+      <c r="J24" s="241"/>
+      <c r="K24" s="241"/>
+      <c r="L24" s="241"/>
+      <c r="M24" s="241"/>
+      <c r="N24" s="242"/>
+      <c r="AD24" s="243"/>
+      <c r="AE24" s="244"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="211">
+        <v>45861.0</v>
+      </c>
+      <c r="B25" s="212" t="str">
+        <f t="shared" si="1"/>
+        <v>水</v>
+      </c>
+      <c r="C25" s="235"/>
+      <c r="D25" s="236"/>
+      <c r="E25" s="236"/>
+      <c r="F25" s="236"/>
+      <c r="G25" s="236"/>
+      <c r="H25" s="236"/>
+      <c r="I25" s="236"/>
+      <c r="J25" s="236"/>
+      <c r="K25" s="236"/>
+      <c r="L25" s="236"/>
+      <c r="M25" s="236"/>
+      <c r="N25" s="237"/>
+      <c r="AD25" s="238"/>
+      <c r="AE25" s="239"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="218">
+        <v>45862.0</v>
+      </c>
+      <c r="B26" s="219" t="str">
+        <f t="shared" si="1"/>
+        <v>木</v>
+      </c>
+      <c r="C26" s="240"/>
+      <c r="D26" s="241"/>
+      <c r="E26" s="241"/>
+      <c r="F26" s="241"/>
+      <c r="G26" s="241"/>
+      <c r="H26" s="241"/>
+      <c r="I26" s="241"/>
+      <c r="J26" s="241"/>
+      <c r="K26" s="241"/>
+      <c r="L26" s="241"/>
+      <c r="M26" s="241"/>
+      <c r="N26" s="242"/>
+      <c r="AD26" s="243"/>
+      <c r="AE26" s="244"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="211">
+        <v>45863.0</v>
+      </c>
+      <c r="B27" s="212" t="str">
+        <f t="shared" si="1"/>
+        <v>金</v>
+      </c>
+      <c r="C27" s="235"/>
+      <c r="D27" s="236"/>
+      <c r="E27" s="236"/>
+      <c r="F27" s="236"/>
+      <c r="G27" s="236"/>
+      <c r="H27" s="236"/>
+      <c r="I27" s="236"/>
+      <c r="J27" s="236"/>
+      <c r="K27" s="236"/>
+      <c r="L27" s="236"/>
+      <c r="M27" s="236"/>
+      <c r="N27" s="237"/>
+      <c r="AD27" s="238"/>
+      <c r="AE27" s="239"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="218">
+        <v>45864.0</v>
+      </c>
+      <c r="B28" s="219" t="str">
+        <f t="shared" si="1"/>
+        <v>土</v>
+      </c>
+      <c r="C28" s="240"/>
+      <c r="D28" s="241"/>
+      <c r="E28" s="241"/>
+      <c r="F28" s="241"/>
+      <c r="G28" s="241"/>
+      <c r="H28" s="241"/>
+      <c r="I28" s="241"/>
+      <c r="J28" s="241"/>
+      <c r="K28" s="241"/>
+      <c r="L28" s="241"/>
+      <c r="M28" s="241"/>
+      <c r="N28" s="242"/>
+      <c r="AD28" s="243"/>
+      <c r="AE28" s="244"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="211">
+        <v>45865.0</v>
+      </c>
+      <c r="B29" s="212" t="str">
+        <f t="shared" si="1"/>
+        <v>日</v>
+      </c>
+      <c r="C29" s="235"/>
+      <c r="D29" s="236"/>
+      <c r="E29" s="236"/>
+      <c r="F29" s="236"/>
+      <c r="G29" s="236"/>
+      <c r="H29" s="236"/>
+      <c r="I29" s="236"/>
+      <c r="J29" s="236"/>
+      <c r="K29" s="236"/>
+      <c r="L29" s="236"/>
+      <c r="M29" s="236"/>
+      <c r="N29" s="237"/>
+      <c r="AD29" s="238"/>
+      <c r="AE29" s="239"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="218">
+        <v>45866.0</v>
+      </c>
+      <c r="B30" s="219" t="str">
+        <f t="shared" si="1"/>
+        <v>月</v>
+      </c>
+      <c r="C30" s="240"/>
+      <c r="D30" s="241"/>
+      <c r="E30" s="241"/>
+      <c r="F30" s="241"/>
+      <c r="G30" s="241"/>
+      <c r="H30" s="241"/>
+      <c r="I30" s="241"/>
+      <c r="J30" s="241"/>
+      <c r="K30" s="241"/>
+      <c r="L30" s="241"/>
+      <c r="M30" s="241"/>
+      <c r="N30" s="242"/>
+      <c r="AD30" s="243"/>
+      <c r="AE30" s="244"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="211">
+        <v>45867.0</v>
+      </c>
+      <c r="B31" s="212" t="str">
+        <f t="shared" si="1"/>
+        <v>火</v>
+      </c>
+      <c r="C31" s="235"/>
+      <c r="D31" s="236"/>
+      <c r="E31" s="236"/>
+      <c r="F31" s="236"/>
+      <c r="G31" s="236"/>
+      <c r="H31" s="236"/>
+      <c r="I31" s="236"/>
+      <c r="J31" s="236"/>
+      <c r="K31" s="236"/>
+      <c r="L31" s="236"/>
+      <c r="M31" s="236"/>
+      <c r="N31" s="237"/>
+      <c r="AD31" s="238"/>
+      <c r="AE31" s="239"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="218">
+        <v>45868.0</v>
+      </c>
+      <c r="B32" s="219" t="str">
+        <f t="shared" si="1"/>
+        <v>水</v>
+      </c>
+      <c r="C32" s="240"/>
+      <c r="D32" s="241"/>
+      <c r="E32" s="241"/>
+      <c r="F32" s="241"/>
+      <c r="G32" s="241"/>
+      <c r="H32" s="241"/>
+      <c r="I32" s="241"/>
+      <c r="J32" s="241"/>
+      <c r="K32" s="241"/>
+      <c r="L32" s="241"/>
+      <c r="M32" s="241"/>
+      <c r="N32" s="242"/>
+      <c r="AD32" s="243"/>
+      <c r="AE32" s="244"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="211">
+        <v>45869.0</v>
+      </c>
+      <c r="B33" s="212" t="str">
+        <f t="shared" si="1"/>
+        <v>木</v>
+      </c>
+      <c r="C33" s="245"/>
+      <c r="D33" s="246"/>
+      <c r="E33" s="246"/>
+      <c r="F33" s="246"/>
+      <c r="G33" s="246"/>
+      <c r="H33" s="246"/>
+      <c r="I33" s="246"/>
+      <c r="J33" s="246"/>
+      <c r="K33" s="246"/>
+      <c r="L33" s="246"/>
+      <c r="M33" s="246"/>
+      <c r="N33" s="247"/>
+      <c r="AD33" s="248"/>
+      <c r="AE33" s="249"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="250" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="251"/>
+      <c r="C34" s="252">
+        <f t="shared" ref="C34:N34" si="2">SUM(C2:C33)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="253">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="253">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="253">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="253">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="253">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="253">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="253">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="253">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="253">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="253">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="254">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="255">
+        <f t="shared" ref="AD34:AE34" si="3">SUM(AD2:AD33)</f>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="256">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
@@ -27842,265 +28104,265 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="257" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="258" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="258" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="258" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="258" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="258" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="258" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="200" t="s">
+      <c r="H1" s="258" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="200" t="s">
+      <c r="I1" s="258" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="200" t="s">
+      <c r="J1" s="258" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="200" t="s">
+      <c r="K1" s="258" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="200" t="s">
+      <c r="L1" s="258" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="200" t="s">
+      <c r="M1" s="259" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="200" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="200" t="s">
-        <v>106</v>
-      </c>
-      <c r="J1" s="200" t="s">
+      <c r="N1" s="260"/>
+    </row>
+    <row r="2" ht="21.75" customHeight="1">
+      <c r="A2" s="261" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="200" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" s="200" t="s">
+      <c r="B2" s="262"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="262"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="262"/>
+      <c r="L2" s="262"/>
+      <c r="M2" s="263"/>
+      <c r="N2" s="264"/>
+    </row>
+    <row r="3" ht="21.75" customHeight="1">
+      <c r="A3" s="261" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="201" t="s">
+      <c r="B3" s="265"/>
+      <c r="C3" s="265"/>
+      <c r="D3" s="265"/>
+      <c r="E3" s="265"/>
+      <c r="F3" s="265"/>
+      <c r="G3" s="265"/>
+      <c r="H3" s="265"/>
+      <c r="I3" s="265"/>
+      <c r="J3" s="265"/>
+      <c r="K3" s="265"/>
+      <c r="L3" s="265"/>
+      <c r="M3" s="263"/>
+      <c r="N3" s="264"/>
+    </row>
+    <row r="4" ht="21.75" customHeight="1">
+      <c r="A4" s="266"/>
+      <c r="B4" s="265"/>
+      <c r="C4" s="265"/>
+      <c r="D4" s="265"/>
+      <c r="E4" s="265"/>
+      <c r="F4" s="265"/>
+      <c r="G4" s="265"/>
+      <c r="H4" s="265"/>
+      <c r="I4" s="265"/>
+      <c r="J4" s="265"/>
+      <c r="K4" s="265"/>
+      <c r="L4" s="265"/>
+      <c r="M4" s="263"/>
+      <c r="N4" s="264"/>
+    </row>
+    <row r="5" ht="21.75" customHeight="1">
+      <c r="A5" s="267"/>
+      <c r="B5" s="268"/>
+      <c r="C5" s="268"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="268"/>
+      <c r="G5" s="268"/>
+      <c r="H5" s="268"/>
+      <c r="I5" s="268"/>
+      <c r="J5" s="268"/>
+      <c r="K5" s="268"/>
+      <c r="L5" s="268"/>
+      <c r="M5" s="269"/>
+      <c r="N5" s="264"/>
+    </row>
+    <row r="6" ht="21.75" customHeight="1">
+      <c r="A6" s="270" t="s">
         <v>110</v>
       </c>
-      <c r="N1" s="202"/>
-    </row>
-    <row r="2" ht="21.75" customHeight="1">
-      <c r="A2" s="203" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="204"/>
-      <c r="L2" s="204"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="206"/>
-    </row>
-    <row r="3" ht="21.75" customHeight="1">
-      <c r="A3" s="203" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="206"/>
-    </row>
-    <row r="4" ht="21.75" customHeight="1">
-      <c r="A4" s="208"/>
-      <c r="B4" s="207"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="205"/>
-      <c r="N4" s="206"/>
-    </row>
-    <row r="5" ht="21.75" customHeight="1">
-      <c r="A5" s="209"/>
-      <c r="B5" s="210"/>
-      <c r="C5" s="210"/>
-      <c r="D5" s="210"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="210"/>
-      <c r="K5" s="210"/>
-      <c r="L5" s="210"/>
-      <c r="M5" s="211"/>
-      <c r="N5" s="206"/>
-    </row>
-    <row r="6" ht="21.75" customHeight="1">
-      <c r="A6" s="212" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="213">
+      <c r="B6" s="271">
         <f t="shared" ref="B6:M6" si="1">SUM(B2:B5)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="213">
+      <c r="C6" s="271">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="213">
+      <c r="D6" s="271">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E6" s="213">
+      <c r="E6" s="271">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F6" s="213">
+      <c r="F6" s="271">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G6" s="213">
+      <c r="G6" s="271">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="213">
+      <c r="H6" s="271">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="213">
+      <c r="I6" s="271">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="213">
+      <c r="J6" s="271">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K6" s="213">
+      <c r="K6" s="271">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L6" s="213">
+      <c r="L6" s="271">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M6" s="213">
+      <c r="M6" s="271">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N6" s="206"/>
+      <c r="N6" s="264"/>
     </row>
     <row r="7" ht="21.75" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="214"/>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="214"/>
-      <c r="I7" s="214"/>
-      <c r="J7" s="214"/>
-      <c r="K7" s="214"/>
-      <c r="L7" s="214"/>
-      <c r="M7" s="214"/>
-      <c r="N7" s="206"/>
+      <c r="B7" s="272"/>
+      <c r="C7" s="272"/>
+      <c r="D7" s="272"/>
+      <c r="E7" s="272"/>
+      <c r="F7" s="272"/>
+      <c r="G7" s="272"/>
+      <c r="H7" s="272"/>
+      <c r="I7" s="272"/>
+      <c r="J7" s="272"/>
+      <c r="K7" s="272"/>
+      <c r="L7" s="272"/>
+      <c r="M7" s="272"/>
+      <c r="N7" s="264"/>
     </row>
     <row r="8" ht="21.75" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="215">
+        <v>111</v>
+      </c>
+      <c r="B8" s="273">
         <f>SUM(B6:M6)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="214"/>
+      <c r="C8" s="272"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="214"/>
-      <c r="G8" s="214"/>
-      <c r="H8" s="214"/>
-      <c r="I8" s="214"/>
-      <c r="J8" s="214"/>
-      <c r="K8" s="214"/>
-      <c r="L8" s="214"/>
-      <c r="M8" s="214"/>
-      <c r="N8" s="206"/>
+      <c r="E8" s="272"/>
+      <c r="F8" s="272"/>
+      <c r="G8" s="272"/>
+      <c r="H8" s="272"/>
+      <c r="I8" s="272"/>
+      <c r="J8" s="272"/>
+      <c r="K8" s="272"/>
+      <c r="L8" s="272"/>
+      <c r="M8" s="272"/>
+      <c r="N8" s="264"/>
     </row>
     <row r="9" ht="21.75" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="214" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="214" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="214"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="214"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="214"/>
-      <c r="I9" s="214"/>
-      <c r="J9" s="214"/>
-      <c r="K9" s="214"/>
-      <c r="L9" s="214"/>
-      <c r="M9" s="214"/>
-      <c r="N9" s="206"/>
+      <c r="B9" s="272" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="272" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="272"/>
+      <c r="E9" s="272"/>
+      <c r="F9" s="272"/>
+      <c r="G9" s="272"/>
+      <c r="H9" s="272"/>
+      <c r="I9" s="272"/>
+      <c r="J9" s="272"/>
+      <c r="K9" s="272"/>
+      <c r="L9" s="272"/>
+      <c r="M9" s="272"/>
+      <c r="N9" s="264"/>
     </row>
     <row r="10" ht="21.75" customHeight="1">
       <c r="A10" s="12"/>
-      <c r="B10" s="214" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="214" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="214"/>
-      <c r="E10" s="214"/>
-      <c r="F10" s="214"/>
-      <c r="G10" s="214"/>
-      <c r="H10" s="214"/>
-      <c r="I10" s="214"/>
-      <c r="J10" s="214"/>
-      <c r="K10" s="214"/>
-      <c r="L10" s="214"/>
-      <c r="M10" s="214"/>
-      <c r="N10" s="206"/>
+      <c r="B10" s="272" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="272" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="272"/>
+      <c r="E10" s="272"/>
+      <c r="F10" s="272"/>
+      <c r="G10" s="272"/>
+      <c r="H10" s="272"/>
+      <c r="I10" s="272"/>
+      <c r="J10" s="272"/>
+      <c r="K10" s="272"/>
+      <c r="L10" s="272"/>
+      <c r="M10" s="272"/>
+      <c r="N10" s="264"/>
     </row>
     <row r="11" ht="21.75" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="214" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="214" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="214"/>
-      <c r="E11" s="214"/>
-      <c r="F11" s="214"/>
-      <c r="G11" s="214"/>
-      <c r="H11" s="214"/>
-      <c r="I11" s="214"/>
-      <c r="J11" s="214"/>
-      <c r="K11" s="214"/>
-      <c r="L11" s="214"/>
-      <c r="M11" s="214"/>
-      <c r="N11" s="206"/>
+      <c r="B11" s="272" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="272" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="272"/>
+      <c r="E11" s="272"/>
+      <c r="F11" s="272"/>
+      <c r="G11" s="272"/>
+      <c r="H11" s="272"/>
+      <c r="I11" s="272"/>
+      <c r="J11" s="272"/>
+      <c r="K11" s="272"/>
+      <c r="L11" s="272"/>
+      <c r="M11" s="272"/>
+      <c r="N11" s="264"/>
     </row>
   </sheetData>
   <printOptions/>

--- a/app/public/omiya_template.xlsx
+++ b/app/public/omiya_template.xlsx
@@ -470,7 +470,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,12 +555,6 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor rgb="FFED7D31"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="121">
     <border/>
@@ -2013,7 +2007,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="274">
+  <cellXfs count="267">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2371,12 +2365,12 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="171" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="68" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="68" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="12" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="12" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="69" fillId="12" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="70" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="70" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="12" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -2476,13 +2470,22 @@
     <xf borderId="21" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="68" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="68" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="76" fillId="8" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="77" fillId="8" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="76" fillId="4" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="77" fillId="4" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="78" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="82" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2500,10 +2503,13 @@
     <xf borderId="95" fillId="7" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="96" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="96" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="33" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2563,38 +2569,38 @@
     <xf borderId="102" fillId="7" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="68" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="68" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="12" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="96" fillId="12" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="96" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="18" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="18" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="69" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="69" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="103" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="4" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="4" fontId="13" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="4" fontId="13" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="104" fillId="4" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="104" fillId="4" fontId="13" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="33" fillId="4" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="33" fillId="4" fontId="13" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="105" fillId="4" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="105" fillId="4" fontId="13" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="33" fillId="8" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -2603,19 +2609,19 @@
     <xf borderId="104" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="106" fillId="8" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="106" fillId="8" fontId="13" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="97" fillId="8" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="97" fillId="8" fontId="13" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="99" fillId="8" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="99" fillId="8" fontId="13" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="107" fillId="8" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="107" fillId="8" fontId="13" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="28" fillId="8" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="28" fillId="8" fontId="13" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="33" fillId="4" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -2624,100 +2630,67 @@
     <xf borderId="104" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="108" fillId="4" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="108" fillId="4" fontId="13" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="84" fillId="4" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="84" fillId="4" fontId="13" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="85" fillId="4" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="85" fillId="4" fontId="13" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="83" fillId="4" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="83" fillId="4" fontId="13" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="38" fillId="4" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="38" fillId="4" fontId="13" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="108" fillId="8" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="108" fillId="8" fontId="13" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="84" fillId="8" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="84" fillId="8" fontId="13" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="85" fillId="8" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="85" fillId="8" fontId="13" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="83" fillId="8" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="83" fillId="8" fontId="13" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="38" fillId="8" fontId="13" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="38" fillId="8" fontId="13" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="108" fillId="4" fontId="13" numFmtId="172" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="84" fillId="4" fontId="13" numFmtId="172" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="85" fillId="4" fontId="13" numFmtId="172" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="83" fillId="4" fontId="13" numFmtId="172" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="38" fillId="4" fontId="13" numFmtId="172" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="108" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="108" fillId="4" fontId="13" numFmtId="170" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="84" fillId="4" fontId="13" numFmtId="170" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="85" fillId="4" fontId="13" numFmtId="170" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="83" fillId="4" fontId="13" numFmtId="170" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="38" fillId="4" fontId="13" numFmtId="170" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="109" fillId="8" fontId="13" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="84" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="110" fillId="8" fontId="13" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="85" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="111" fillId="8" fontId="13" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="83" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="112" fillId="8" fontId="13" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="38" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="52" fillId="8" fontId="13" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="108" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="84" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="85" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="83" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="38" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="109" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="110" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="111" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="112" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="52" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="63" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="63" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="113" fillId="4" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="114" fillId="4" fontId="12" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="113" fillId="7" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="114" fillId="7" fontId="12" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="115" fillId="4" fontId="12" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="115" fillId="7" fontId="12" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="116" fillId="4" fontId="12" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="114" fillId="7" fontId="12" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="116" fillId="7" fontId="12" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="117" fillId="7" fontId="12" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -15868,7 +15841,7 @@
     <row r="1" ht="21.0" customHeight="1">
       <c r="A1" s="132">
         <f>NOW()</f>
-        <v>45859.37547</v>
+        <v>45859.41491</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -18641,17 +18614,17 @@
       <c r="AP38" s="144"/>
       <c r="AQ38" s="145"/>
       <c r="AR38" s="146"/>
-      <c r="AS38" s="171" t="str">
-        <f t="shared" ref="AS38:AU38" si="37">SUM(C38,F38,I38,L38,O38,R38,U38,X38,AA38,AD38,AG38,AJ38,AM38,AP38,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT38" s="172" t="str">
+      <c r="AS38" s="171">
+        <f t="shared" ref="AS38:AU38" si="37">SUM(C38,F38,I38,L38,O38,R38,U38,X38,AA38,AD38,AG38,AJ38,AM38,AP38)</f>
+        <v>0</v>
+      </c>
+      <c r="AT38" s="172">
         <f t="shared" si="37"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU38" s="146" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU38" s="146">
         <f t="shared" si="37"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV38" s="12"/>
       <c r="AW38" s="12"/>
@@ -18702,17 +18675,17 @@
       <c r="AP39" s="150"/>
       <c r="AQ39" s="52"/>
       <c r="AR39" s="151"/>
-      <c r="AS39" s="150" t="str">
-        <f t="shared" ref="AS39:AU39" si="38">SUM(C39,F39,I39,L39,O39,R39,U39,X39,AA39,AD39,AG39,AJ39,AM39,AP39,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT39" s="52" t="str">
+      <c r="AS39" s="173">
+        <f t="shared" ref="AS39:AU39" si="38">SUM(C39,F39,I39,L39,O39,R39,U39,X39,AA39,AD39,AG39,AJ39,AM39,AP39)</f>
+        <v>0</v>
+      </c>
+      <c r="AT39" s="174">
         <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU39" s="151" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="175">
         <f t="shared" si="38"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV39" s="12"/>
       <c r="AW39" s="12"/>
@@ -18763,17 +18736,17 @@
       <c r="AP40" s="155"/>
       <c r="AQ40" s="69"/>
       <c r="AR40" s="156"/>
-      <c r="AS40" s="155" t="str">
-        <f t="shared" ref="AS40:AU40" si="39">SUM(C40,F40,I40,L40,O40,R40,U40,X40,AA40,AD40,AG40,AJ40,AM40,AP40,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT40" s="69" t="str">
+      <c r="AS40" s="171">
+        <f t="shared" ref="AS40:AU40" si="39">SUM(C40,F40,I40,L40,O40,R40,U40,X40,AA40,AD40,AG40,AJ40,AM40,AP40)</f>
+        <v>0</v>
+      </c>
+      <c r="AT40" s="172">
         <f t="shared" si="39"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU40" s="156" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU40" s="146">
         <f t="shared" si="39"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV40" s="12"/>
       <c r="AW40" s="12"/>
@@ -18824,17 +18797,17 @@
       <c r="AP41" s="150"/>
       <c r="AQ41" s="52"/>
       <c r="AR41" s="151"/>
-      <c r="AS41" s="150" t="str">
-        <f t="shared" ref="AS41:AU41" si="40">SUM(C41,F41,I41,L41,O41,R41,U41,X41,AA41,AD41,AG41,AJ41,AM41,AP41,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT41" s="52" t="str">
+      <c r="AS41" s="173">
+        <f t="shared" ref="AS41:AU41" si="40">SUM(C41,F41,I41,L41,O41,R41,U41,X41,AA41,AD41,AG41,AJ41,AM41,AP41)</f>
+        <v>0</v>
+      </c>
+      <c r="AT41" s="174">
         <f t="shared" si="40"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU41" s="151" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="175">
         <f t="shared" si="40"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV41" s="12"/>
       <c r="AW41" s="12"/>
@@ -18885,17 +18858,17 @@
       <c r="AP42" s="155"/>
       <c r="AQ42" s="69"/>
       <c r="AR42" s="156"/>
-      <c r="AS42" s="155" t="str">
-        <f t="shared" ref="AS42:AU42" si="41">SUM(C42,F42,I42,L42,O42,R42,U42,X42,AA42,AD42,AG42,AJ42,AM42,AP42,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT42" s="69" t="str">
+      <c r="AS42" s="171">
+        <f t="shared" ref="AS42:AU42" si="41">SUM(C42,F42,I42,L42,O42,R42,U42,X42,AA42,AD42,AG42,AJ42,AM42,AP42)</f>
+        <v>0</v>
+      </c>
+      <c r="AT42" s="172">
         <f t="shared" si="41"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU42" s="156" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU42" s="146">
         <f t="shared" si="41"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV42" s="12"/>
       <c r="AW42" s="12"/>
@@ -18946,17 +18919,17 @@
       <c r="AP43" s="150"/>
       <c r="AQ43" s="52"/>
       <c r="AR43" s="151"/>
-      <c r="AS43" s="150" t="str">
-        <f t="shared" ref="AS43:AU43" si="42">SUM(C43,F43,I43,L43,O43,R43,U43,X43,AA43,AD43,AG43,AJ43,AM43,AP43,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT43" s="52" t="str">
+      <c r="AS43" s="173">
+        <f t="shared" ref="AS43:AU43" si="42">SUM(C43,F43,I43,L43,O43,R43,U43,X43,AA43,AD43,AG43,AJ43,AM43,AP43)</f>
+        <v>0</v>
+      </c>
+      <c r="AT43" s="174">
         <f t="shared" si="42"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU43" s="151" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU43" s="175">
         <f t="shared" si="42"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV43" s="12"/>
       <c r="AW43" s="12"/>
@@ -19007,17 +18980,17 @@
       <c r="AP44" s="155"/>
       <c r="AQ44" s="69"/>
       <c r="AR44" s="156"/>
-      <c r="AS44" s="155" t="str">
-        <f t="shared" ref="AS44:AU44" si="43">SUM(C44,F44,I44,L44,O44,R44,U44,X44,AA44,AD44,AG44,AJ44,AM44,AP44,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT44" s="69" t="str">
+      <c r="AS44" s="171">
+        <f t="shared" ref="AS44:AU44" si="43">SUM(C44,F44,I44,L44,O44,R44,U44,X44,AA44,AD44,AG44,AJ44,AM44,AP44)</f>
+        <v>0</v>
+      </c>
+      <c r="AT44" s="172">
         <f t="shared" si="43"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU44" s="156" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU44" s="146">
         <f t="shared" si="43"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV44" s="12"/>
       <c r="AW44" s="12"/>
@@ -19068,17 +19041,17 @@
       <c r="AP45" s="150"/>
       <c r="AQ45" s="52"/>
       <c r="AR45" s="151"/>
-      <c r="AS45" s="150" t="str">
-        <f t="shared" ref="AS45:AU45" si="44">SUM(C45,F45,I45,L45,O45,R45,U45,X45,AA45,AD45,AG45,AJ45,AM45,AP45,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT45" s="52" t="str">
+      <c r="AS45" s="173">
+        <f t="shared" ref="AS45:AU45" si="44">SUM(C45,F45,I45,L45,O45,R45,U45,X45,AA45,AD45,AG45,AJ45,AM45,AP45)</f>
+        <v>0</v>
+      </c>
+      <c r="AT45" s="174">
         <f t="shared" si="44"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU45" s="151" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU45" s="175">
         <f t="shared" si="44"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="12"/>
       <c r="AW45" s="12"/>
@@ -19129,17 +19102,17 @@
       <c r="AP46" s="155"/>
       <c r="AQ46" s="69"/>
       <c r="AR46" s="156"/>
-      <c r="AS46" s="155" t="str">
-        <f t="shared" ref="AS46:AU46" si="45">SUM(C46,F46,I46,L46,O46,R46,U46,X46,AA46,AD46,AG46,AJ46,AM46,AP46,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT46" s="69" t="str">
+      <c r="AS46" s="171">
+        <f t="shared" ref="AS46:AU46" si="45">SUM(C46,F46,I46,L46,O46,R46,U46,X46,AA46,AD46,AG46,AJ46,AM46,AP46)</f>
+        <v>0</v>
+      </c>
+      <c r="AT46" s="172">
         <f t="shared" si="45"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU46" s="156" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU46" s="146">
         <f t="shared" si="45"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV46" s="12"/>
       <c r="AW46" s="12"/>
@@ -19190,17 +19163,17 @@
       <c r="AP47" s="150"/>
       <c r="AQ47" s="52"/>
       <c r="AR47" s="151"/>
-      <c r="AS47" s="150" t="str">
-        <f t="shared" ref="AS47:AU47" si="46">SUM(C47,F47,I47,L47,O47,R47,U47,X47,AA47,AD47,AG47,AJ47,AM47,AP47,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT47" s="52" t="str">
+      <c r="AS47" s="173">
+        <f t="shared" ref="AS47:AU47" si="46">SUM(C47,F47,I47,L47,O47,R47,U47,X47,AA47,AD47,AG47,AJ47,AM47,AP47)</f>
+        <v>0</v>
+      </c>
+      <c r="AT47" s="174">
         <f t="shared" si="46"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU47" s="151" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU47" s="175">
         <f t="shared" si="46"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV47" s="12"/>
       <c r="AW47" s="12"/>
@@ -19251,17 +19224,17 @@
       <c r="AP48" s="155"/>
       <c r="AQ48" s="69"/>
       <c r="AR48" s="156"/>
-      <c r="AS48" s="155" t="str">
-        <f t="shared" ref="AS48:AU48" si="47">SUM(C48,F48,I48,L48,O48,R48,U48,X48,AA48,AD48,AG48,AJ48,AM48,AP48,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT48" s="69" t="str">
+      <c r="AS48" s="171">
+        <f t="shared" ref="AS48:AU48" si="47">SUM(C48,F48,I48,L48,O48,R48,U48,X48,AA48,AD48,AG48,AJ48,AM48,AP48)</f>
+        <v>0</v>
+      </c>
+      <c r="AT48" s="172">
         <f t="shared" si="47"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU48" s="156" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU48" s="146">
         <f t="shared" si="47"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="12"/>
       <c r="AW48" s="12"/>
@@ -19312,17 +19285,17 @@
       <c r="AP49" s="150"/>
       <c r="AQ49" s="52"/>
       <c r="AR49" s="151"/>
-      <c r="AS49" s="150" t="str">
-        <f t="shared" ref="AS49:AU49" si="48">SUM(C49,F49,I49,L49,O49,R49,U49,X49,AA49,AD49,AG49,AJ49,AM49,AP49,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT49" s="52" t="str">
+      <c r="AS49" s="173">
+        <f t="shared" ref="AS49:AU49" si="48">SUM(C49,F49,I49,L49,O49,R49,U49,X49,AA49,AD49,AG49,AJ49,AM49,AP49)</f>
+        <v>0</v>
+      </c>
+      <c r="AT49" s="174">
         <f t="shared" si="48"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU49" s="151" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU49" s="175">
         <f t="shared" si="48"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="12"/>
       <c r="AW49" s="12"/>
@@ -19373,17 +19346,17 @@
       <c r="AP50" s="155"/>
       <c r="AQ50" s="69"/>
       <c r="AR50" s="156"/>
-      <c r="AS50" s="155" t="str">
-        <f t="shared" ref="AS50:AU50" si="49">SUM(C50,F50,I50,L50,O50,R50,U50,X50,AA50,AD50,AG50,AJ50,AM50,AP50,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT50" s="69" t="str">
+      <c r="AS50" s="171">
+        <f t="shared" ref="AS50:AU50" si="49">SUM(C50,F50,I50,L50,O50,R50,U50,X50,AA50,AD50,AG50,AJ50,AM50,AP50)</f>
+        <v>0</v>
+      </c>
+      <c r="AT50" s="172">
         <f t="shared" si="49"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU50" s="156" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU50" s="146">
         <f t="shared" si="49"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV50" s="12"/>
       <c r="AW50" s="12"/>
@@ -19434,17 +19407,17 @@
       <c r="AP51" s="150"/>
       <c r="AQ51" s="52"/>
       <c r="AR51" s="151"/>
-      <c r="AS51" s="150" t="str">
-        <f t="shared" ref="AS51:AU51" si="50">SUM(C51,F51,I51,L51,O51,R51,U51,X51,AA51,AD51,AG51,AJ51,AM51,AP51,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT51" s="52" t="str">
+      <c r="AS51" s="173">
+        <f t="shared" ref="AS51:AU51" si="50">SUM(C51,F51,I51,L51,O51,R51,U51,X51,AA51,AD51,AG51,AJ51,AM51,AP51)</f>
+        <v>0</v>
+      </c>
+      <c r="AT51" s="174">
         <f t="shared" si="50"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU51" s="151" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU51" s="175">
         <f t="shared" si="50"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV51" s="12"/>
       <c r="AW51" s="12"/>
@@ -19495,17 +19468,17 @@
       <c r="AP52" s="155"/>
       <c r="AQ52" s="69"/>
       <c r="AR52" s="156"/>
-      <c r="AS52" s="155" t="str">
-        <f t="shared" ref="AS52:AU52" si="51">SUM(C52,F52,I52,L52,O52,R52,U52,X52,AA52,AD52,AG52,AJ52,AM52,AP52,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT52" s="69" t="str">
+      <c r="AS52" s="171">
+        <f t="shared" ref="AS52:AU52" si="51">SUM(C52,F52,I52,L52,O52,R52,U52,X52,AA52,AD52,AG52,AJ52,AM52,AP52)</f>
+        <v>0</v>
+      </c>
+      <c r="AT52" s="172">
         <f t="shared" si="51"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU52" s="156" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU52" s="146">
         <f t="shared" si="51"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV52" s="12"/>
       <c r="AW52" s="12"/>
@@ -19556,17 +19529,17 @@
       <c r="AP53" s="150"/>
       <c r="AQ53" s="52"/>
       <c r="AR53" s="151"/>
-      <c r="AS53" s="150" t="str">
-        <f t="shared" ref="AS53:AU53" si="52">SUM(C53,F53,I53,L53,O53,R53,U53,X53,AA53,AD53,AG53,AJ53,AM53,AP53,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT53" s="52" t="str">
+      <c r="AS53" s="173">
+        <f t="shared" ref="AS53:AU53" si="52">SUM(C53,F53,I53,L53,O53,R53,U53,X53,AA53,AD53,AG53,AJ53,AM53,AP53)</f>
+        <v>0</v>
+      </c>
+      <c r="AT53" s="174">
         <f t="shared" si="52"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU53" s="151" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU53" s="175">
         <f t="shared" si="52"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV53" s="12"/>
       <c r="AW53" s="12"/>
@@ -19617,17 +19590,17 @@
       <c r="AP54" s="155"/>
       <c r="AQ54" s="69"/>
       <c r="AR54" s="156"/>
-      <c r="AS54" s="155" t="str">
-        <f t="shared" ref="AS54:AU54" si="53">SUM(C54,F54,I54,L54,O54,R54,U54,X54,AA54,AD54,AG54,AJ54,AM54,AP54,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT54" s="69" t="str">
+      <c r="AS54" s="171">
+        <f t="shared" ref="AS54:AU54" si="53">SUM(C54,F54,I54,L54,O54,R54,U54,X54,AA54,AD54,AG54,AJ54,AM54,AP54)</f>
+        <v>0</v>
+      </c>
+      <c r="AT54" s="172">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU54" s="156" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU54" s="146">
         <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV54" s="12"/>
       <c r="AW54" s="12"/>
@@ -19638,57 +19611,57 @@
       <c r="B55" s="12"/>
       <c r="C55" s="150"/>
       <c r="D55" s="52"/>
-      <c r="E55" s="173"/>
+      <c r="E55" s="176"/>
       <c r="F55" s="150"/>
       <c r="G55" s="52"/>
-      <c r="H55" s="173"/>
+      <c r="H55" s="176"/>
       <c r="I55" s="150"/>
       <c r="J55" s="52"/>
-      <c r="K55" s="173"/>
+      <c r="K55" s="176"/>
       <c r="L55" s="150"/>
       <c r="M55" s="52"/>
-      <c r="N55" s="173"/>
+      <c r="N55" s="176"/>
       <c r="O55" s="150"/>
       <c r="P55" s="52"/>
-      <c r="Q55" s="173"/>
+      <c r="Q55" s="176"/>
       <c r="R55" s="150"/>
       <c r="S55" s="52"/>
-      <c r="T55" s="173"/>
+      <c r="T55" s="176"/>
       <c r="U55" s="150"/>
       <c r="V55" s="52"/>
-      <c r="W55" s="173"/>
+      <c r="W55" s="176"/>
       <c r="X55" s="150"/>
       <c r="Y55" s="52"/>
-      <c r="Z55" s="173"/>
+      <c r="Z55" s="176"/>
       <c r="AA55" s="150"/>
       <c r="AB55" s="52"/>
-      <c r="AC55" s="173"/>
+      <c r="AC55" s="176"/>
       <c r="AD55" s="150"/>
       <c r="AE55" s="52"/>
-      <c r="AF55" s="173"/>
+      <c r="AF55" s="176"/>
       <c r="AG55" s="150"/>
       <c r="AH55" s="52"/>
-      <c r="AI55" s="173"/>
+      <c r="AI55" s="176"/>
       <c r="AJ55" s="150"/>
       <c r="AK55" s="52"/>
-      <c r="AL55" s="173"/>
+      <c r="AL55" s="176"/>
       <c r="AM55" s="150"/>
       <c r="AN55" s="52"/>
-      <c r="AO55" s="173"/>
+      <c r="AO55" s="176"/>
       <c r="AP55" s="150"/>
       <c r="AQ55" s="52"/>
-      <c r="AR55" s="173"/>
-      <c r="AS55" s="150" t="str">
-        <f t="shared" ref="AS55:AU55" si="54">SUM(C55,F55,I55,L55,O55,R55,U55,X55,AA55,AD55,AG55,AJ55,AM55,AP55,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT55" s="52" t="str">
+      <c r="AR55" s="176"/>
+      <c r="AS55" s="173">
+        <f t="shared" ref="AS55:AU55" si="54">SUM(C55,F55,I55,L55,O55,R55,U55,X55,AA55,AD55,AG55,AJ55,AM55,AP55)</f>
+        <v>0</v>
+      </c>
+      <c r="AT55" s="174">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU55" s="151" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU55" s="175">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV55" s="12"/>
       <c r="AW55" s="12"/>
@@ -19739,17 +19712,17 @@
       <c r="AP56" s="155"/>
       <c r="AQ56" s="69"/>
       <c r="AR56" s="156"/>
-      <c r="AS56" s="155" t="str">
-        <f t="shared" ref="AS56:AU56" si="55">SUM(C56,F56,I56,L56,O56,R56,U56,X56,AA56,AD56,AG56,AJ56,AM56,AP56,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT56" s="69" t="str">
+      <c r="AS56" s="171">
+        <f t="shared" ref="AS56:AU56" si="55">SUM(C56,F56,I56,L56,O56,R56,U56,X56,AA56,AD56,AG56,AJ56,AM56,AP56)</f>
+        <v>0</v>
+      </c>
+      <c r="AT56" s="172">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU56" s="156" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU56" s="146">
         <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV56" s="12"/>
       <c r="AW56" s="12"/>
@@ -19800,17 +19773,17 @@
       <c r="AP57" s="150"/>
       <c r="AQ57" s="52"/>
       <c r="AR57" s="151"/>
-      <c r="AS57" s="150" t="str">
-        <f t="shared" ref="AS57:AU57" si="56">SUM(C57,F57,I57,L57,O57,R57,U57,X57,AA57,AD57,AG57,AJ57,AM57,AP57,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT57" s="52" t="str">
+      <c r="AS57" s="173">
+        <f t="shared" ref="AS57:AU57" si="56">SUM(C57,F57,I57,L57,O57,R57,U57,X57,AA57,AD57,AG57,AJ57,AM57,AP57)</f>
+        <v>0</v>
+      </c>
+      <c r="AT57" s="174">
         <f t="shared" si="56"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU57" s="151" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU57" s="175">
         <f t="shared" si="56"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV57" s="12"/>
       <c r="AW57" s="12"/>
@@ -19861,17 +19834,17 @@
       <c r="AP58" s="155"/>
       <c r="AQ58" s="69"/>
       <c r="AR58" s="156"/>
-      <c r="AS58" s="155" t="str">
-        <f t="shared" ref="AS58:AU58" si="57">SUM(C58,F58,I58,L58,O58,R58,U58,X58,AA58,AD58,AG58,AJ58,AM58,AP58,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT58" s="69" t="str">
+      <c r="AS58" s="171">
+        <f t="shared" ref="AS58:AU58" si="57">SUM(C58,F58,I58,L58,O58,R58,U58,X58,AA58,AD58,AG58,AJ58,AM58,AP58)</f>
+        <v>0</v>
+      </c>
+      <c r="AT58" s="172">
         <f t="shared" si="57"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU58" s="156" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU58" s="146">
         <f t="shared" si="57"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV58" s="12"/>
       <c r="AW58" s="12"/>
@@ -19922,17 +19895,17 @@
       <c r="AP59" s="150"/>
       <c r="AQ59" s="52"/>
       <c r="AR59" s="151"/>
-      <c r="AS59" s="150" t="str">
-        <f t="shared" ref="AS59:AU59" si="58">SUM(C59,F59,I59,L59,O59,R59,U59,X59,AA59,AD59,AG59,AJ59,AM59,AP59,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT59" s="52" t="str">
+      <c r="AS59" s="173">
+        <f t="shared" ref="AS59:AU59" si="58">SUM(C59,F59,I59,L59,O59,R59,U59,X59,AA59,AD59,AG59,AJ59,AM59,AP59)</f>
+        <v>0</v>
+      </c>
+      <c r="AT59" s="174">
         <f t="shared" si="58"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU59" s="151" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU59" s="175">
         <f t="shared" si="58"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV59" s="12"/>
       <c r="AW59" s="12"/>
@@ -19983,17 +19956,17 @@
       <c r="AP60" s="155"/>
       <c r="AQ60" s="69"/>
       <c r="AR60" s="156"/>
-      <c r="AS60" s="155" t="str">
-        <f t="shared" ref="AS60:AU60" si="59">SUM(C60,F60,I60,L60,O60,R60,U60,X60,AA60,AD60,AG60,AJ60,AM60,AP60,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT60" s="69" t="str">
+      <c r="AS60" s="171">
+        <f t="shared" ref="AS60:AU60" si="59">SUM(C60,F60,I60,L60,O60,R60,U60,X60,AA60,AD60,AG60,AJ60,AM60,AP60)</f>
+        <v>0</v>
+      </c>
+      <c r="AT60" s="172">
         <f t="shared" si="59"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU60" s="156" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU60" s="146">
         <f t="shared" si="59"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV60" s="12"/>
       <c r="AW60" s="12"/>
@@ -20044,17 +20017,17 @@
       <c r="AP61" s="150"/>
       <c r="AQ61" s="52"/>
       <c r="AR61" s="151"/>
-      <c r="AS61" s="150" t="str">
-        <f t="shared" ref="AS61:AU61" si="60">SUM(C61,F61,I61,L61,O61,R61,U61,X61,AA61,AD61,AG61,AJ61,AM61,AP61,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT61" s="52" t="str">
+      <c r="AS61" s="173">
+        <f t="shared" ref="AS61:AU61" si="60">SUM(C61,F61,I61,L61,O61,R61,U61,X61,AA61,AD61,AG61,AJ61,AM61,AP61)</f>
+        <v>0</v>
+      </c>
+      <c r="AT61" s="174">
         <f t="shared" si="60"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU61" s="151" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU61" s="175">
         <f t="shared" si="60"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV61" s="12"/>
       <c r="AW61" s="12"/>
@@ -20105,17 +20078,17 @@
       <c r="AP62" s="155"/>
       <c r="AQ62" s="69"/>
       <c r="AR62" s="156"/>
-      <c r="AS62" s="155" t="str">
-        <f t="shared" ref="AS62:AU62" si="61">SUM(C62,F62,I62,L62,O62,R62,U62,X62,AA62,AD62,AG62,AJ62,AM62,AP62,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT62" s="69" t="str">
+      <c r="AS62" s="171">
+        <f t="shared" ref="AS62:AU62" si="61">SUM(C62,F62,I62,L62,O62,R62,U62,X62,AA62,AD62,AG62,AJ62,AM62,AP62)</f>
+        <v>0</v>
+      </c>
+      <c r="AT62" s="172">
         <f t="shared" si="61"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU62" s="156" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU62" s="146">
         <f t="shared" si="61"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV62" s="12"/>
       <c r="AW62" s="12"/>
@@ -20166,17 +20139,17 @@
       <c r="AP63" s="150"/>
       <c r="AQ63" s="52"/>
       <c r="AR63" s="151"/>
-      <c r="AS63" s="150" t="str">
-        <f t="shared" ref="AS63:AU63" si="62">SUM(C63,F63,I63,L63,O63,R63,U63,X63,AA63,AD63,AG63,AJ63,AM63,AP63,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT63" s="52" t="str">
+      <c r="AS63" s="173">
+        <f t="shared" ref="AS63:AU63" si="62">SUM(C63,F63,I63,L63,O63,R63,U63,X63,AA63,AD63,AG63,AJ63,AM63,AP63)</f>
+        <v>0</v>
+      </c>
+      <c r="AT63" s="174">
         <f t="shared" si="62"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU63" s="151" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU63" s="175">
         <f t="shared" si="62"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV63" s="12"/>
       <c r="AW63" s="12"/>
@@ -20227,17 +20200,17 @@
       <c r="AP64" s="155"/>
       <c r="AQ64" s="69"/>
       <c r="AR64" s="156"/>
-      <c r="AS64" s="155" t="str">
-        <f t="shared" ref="AS64:AU64" si="63">SUM(C64,F64,I64,L64,O64,R64,U64,X64,AA64,AD64,AG64,AJ64,AM64,AP64,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT64" s="69" t="str">
+      <c r="AS64" s="171">
+        <f t="shared" ref="AS64:AU64" si="63">SUM(C64,F64,I64,L64,O64,R64,U64,X64,AA64,AD64,AG64,AJ64,AM64,AP64)</f>
+        <v>0</v>
+      </c>
+      <c r="AT64" s="172">
         <f t="shared" si="63"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU64" s="156" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU64" s="146">
         <f t="shared" si="63"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV64" s="12"/>
       <c r="AW64" s="12"/>
@@ -20288,17 +20261,17 @@
       <c r="AP65" s="150"/>
       <c r="AQ65" s="52"/>
       <c r="AR65" s="151"/>
-      <c r="AS65" s="150" t="str">
-        <f t="shared" ref="AS65:AU65" si="64">SUM(C65,F65,I65,L65,O65,R65,U65,X65,AA65,AD65,AG65,AJ65,AM65,AP65,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT65" s="52" t="str">
+      <c r="AS65" s="173">
+        <f t="shared" ref="AS65:AU65" si="64">SUM(C65,F65,I65,L65,O65,R65,U65,X65,AA65,AD65,AG65,AJ65,AM65,AP65)</f>
+        <v>0</v>
+      </c>
+      <c r="AT65" s="174">
         <f t="shared" si="64"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU65" s="151" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU65" s="175">
         <f t="shared" si="64"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV65" s="12"/>
       <c r="AW65" s="12"/>
@@ -20349,17 +20322,17 @@
       <c r="AP66" s="155"/>
       <c r="AQ66" s="69"/>
       <c r="AR66" s="156"/>
-      <c r="AS66" s="155" t="str">
-        <f t="shared" ref="AS66:AU66" si="65">SUM(C66,F66,I66,L66,O66,R66,U66,X66,AA66,AD66,AG66,AJ66,AM66,AP66,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT66" s="69" t="str">
+      <c r="AS66" s="171">
+        <f t="shared" ref="AS66:AU66" si="65">SUM(C66,F66,I66,L66,O66,R66,U66,X66,AA66,AD66,AG66,AJ66,AM66,AP66)</f>
+        <v>0</v>
+      </c>
+      <c r="AT66" s="172">
         <f t="shared" si="65"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU66" s="156" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU66" s="146">
         <f t="shared" si="65"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV66" s="12"/>
       <c r="AW66" s="12"/>
@@ -20368,59 +20341,59 @@
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="120"/>
       <c r="B67" s="12"/>
-      <c r="C67" s="174"/>
-      <c r="D67" s="175"/>
-      <c r="E67" s="176"/>
-      <c r="F67" s="174"/>
-      <c r="G67" s="175"/>
-      <c r="H67" s="176"/>
-      <c r="I67" s="174"/>
-      <c r="J67" s="175"/>
-      <c r="K67" s="176"/>
-      <c r="L67" s="174"/>
-      <c r="M67" s="175"/>
-      <c r="N67" s="176"/>
-      <c r="O67" s="174"/>
-      <c r="P67" s="175"/>
-      <c r="Q67" s="176"/>
-      <c r="R67" s="174"/>
-      <c r="S67" s="175"/>
-      <c r="T67" s="176"/>
-      <c r="U67" s="174"/>
-      <c r="V67" s="175"/>
-      <c r="W67" s="176"/>
-      <c r="X67" s="174"/>
-      <c r="Y67" s="175"/>
-      <c r="Z67" s="176"/>
-      <c r="AA67" s="174"/>
-      <c r="AB67" s="175"/>
-      <c r="AC67" s="176"/>
-      <c r="AD67" s="174"/>
-      <c r="AE67" s="175"/>
-      <c r="AF67" s="176"/>
-      <c r="AG67" s="174"/>
-      <c r="AH67" s="175"/>
-      <c r="AI67" s="176"/>
-      <c r="AJ67" s="174"/>
-      <c r="AK67" s="175"/>
-      <c r="AL67" s="176"/>
-      <c r="AM67" s="174"/>
-      <c r="AN67" s="175"/>
-      <c r="AO67" s="176"/>
-      <c r="AP67" s="174"/>
-      <c r="AQ67" s="175"/>
-      <c r="AR67" s="176"/>
-      <c r="AS67" s="174" t="str">
-        <f t="shared" ref="AS67:AU67" si="66">SUM(C67,F67,I67,L67,O67,R67,U67,X67,AA67,AD67,AG67,AJ67,AM67,AP67,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AT67" s="175" t="str">
+      <c r="C67" s="177"/>
+      <c r="D67" s="178"/>
+      <c r="E67" s="179"/>
+      <c r="F67" s="177"/>
+      <c r="G67" s="178"/>
+      <c r="H67" s="179"/>
+      <c r="I67" s="177"/>
+      <c r="J67" s="178"/>
+      <c r="K67" s="179"/>
+      <c r="L67" s="177"/>
+      <c r="M67" s="178"/>
+      <c r="N67" s="179"/>
+      <c r="O67" s="177"/>
+      <c r="P67" s="178"/>
+      <c r="Q67" s="179"/>
+      <c r="R67" s="177"/>
+      <c r="S67" s="178"/>
+      <c r="T67" s="179"/>
+      <c r="U67" s="177"/>
+      <c r="V67" s="178"/>
+      <c r="W67" s="179"/>
+      <c r="X67" s="177"/>
+      <c r="Y67" s="178"/>
+      <c r="Z67" s="179"/>
+      <c r="AA67" s="177"/>
+      <c r="AB67" s="178"/>
+      <c r="AC67" s="179"/>
+      <c r="AD67" s="177"/>
+      <c r="AE67" s="178"/>
+      <c r="AF67" s="179"/>
+      <c r="AG67" s="177"/>
+      <c r="AH67" s="178"/>
+      <c r="AI67" s="179"/>
+      <c r="AJ67" s="177"/>
+      <c r="AK67" s="178"/>
+      <c r="AL67" s="179"/>
+      <c r="AM67" s="177"/>
+      <c r="AN67" s="178"/>
+      <c r="AO67" s="179"/>
+      <c r="AP67" s="177"/>
+      <c r="AQ67" s="178"/>
+      <c r="AR67" s="179"/>
+      <c r="AS67" s="173">
+        <f t="shared" ref="AS67:AU67" si="66">SUM(C67,F67,I67,L67,O67,R67,U67,X67,AA67,AD67,AG67,AJ67,AM67,AP67)</f>
+        <v>0</v>
+      </c>
+      <c r="AT67" s="174">
         <f t="shared" si="66"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU67" s="176" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU67" s="175">
         <f t="shared" si="66"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV67" s="12"/>
       <c r="AW67" s="12"/>
@@ -20597,17 +20570,17 @@
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="AS68" s="166" t="str">
+      <c r="AS68" s="166">
         <f t="shared" si="67"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AT68" s="167" t="str">
+        <v>0</v>
+      </c>
+      <c r="AT68" s="167">
         <f t="shared" si="67"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU68" s="177" t="str">
+        <v>0</v>
+      </c>
+      <c r="AU68" s="180">
         <f t="shared" si="67"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="AV68" s="169">
         <v>0.0</v>
@@ -20728,37 +20701,37 @@
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="181" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="182" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="182" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="182" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="182" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="182" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="182" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="182" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="179" t="s">
+      <c r="K1" s="183" t="s">
         <v>61</v>
       </c>
       <c r="L1" s="12"/>
@@ -20774,19 +20747,19 @@
       <c r="V1" s="12"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="184" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="183"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="187"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
@@ -20800,19 +20773,19 @@
       <c r="V2" s="12"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="188" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="186"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="190"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
@@ -20826,23 +20799,23 @@
       <c r="V3" s="12"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="184" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="187"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="188"/>
-      <c r="J4" s="188"/>
-      <c r="K4" s="189"/>
-      <c r="L4" s="190"/>
-      <c r="M4" s="190"/>
-      <c r="N4" s="190"/>
-      <c r="O4" s="190"/>
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="192"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="193"/>
+      <c r="L4" s="194"/>
+      <c r="M4" s="194"/>
+      <c r="N4" s="194"/>
+      <c r="O4" s="194"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
@@ -20852,19 +20825,19 @@
       <c r="V4" s="12"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="188" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="185"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="185"/>
-      <c r="I5" s="185"/>
-      <c r="J5" s="185"/>
-      <c r="K5" s="186"/>
+      <c r="B5" s="189"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="189"/>
+      <c r="H5" s="189"/>
+      <c r="I5" s="189"/>
+      <c r="J5" s="189"/>
+      <c r="K5" s="190"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
@@ -20878,19 +20851,19 @@
       <c r="V5" s="12"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="180" t="s">
+      <c r="A6" s="184" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="191"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="191"/>
+      <c r="K6" s="195"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -20904,19 +20877,19 @@
       <c r="V6" s="12"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="184" t="s">
+      <c r="A7" s="188" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="185"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="185"/>
-      <c r="E7" s="185"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="185"/>
-      <c r="H7" s="185"/>
-      <c r="I7" s="185"/>
-      <c r="J7" s="185"/>
-      <c r="K7" s="186"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="190"/>
       <c r="L7" s="12"/>
       <c r="M7" s="82"/>
       <c r="N7" s="12"/>
@@ -20930,21 +20903,21 @@
       <c r="V7" s="12"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="180" t="s">
+      <c r="A8" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="187"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="188"/>
-      <c r="J8" s="188"/>
-      <c r="K8" s="189"/>
-      <c r="L8" s="192"/>
-      <c r="M8" s="192"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="192"/>
+      <c r="J8" s="192"/>
+      <c r="K8" s="193"/>
+      <c r="L8" s="196"/>
+      <c r="M8" s="196"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
@@ -20956,19 +20929,19 @@
       <c r="V8" s="12"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="188" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="185"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="185"/>
-      <c r="K9" s="186"/>
+      <c r="B9" s="189"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="189"/>
+      <c r="K9" s="190"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
@@ -20982,19 +20955,19 @@
       <c r="V9" s="12"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="180" t="s">
+      <c r="A10" s="184" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="187"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="187"/>
-      <c r="J10" s="187"/>
-      <c r="K10" s="191"/>
+      <c r="B10" s="191"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="191"/>
+      <c r="E10" s="191"/>
+      <c r="F10" s="191"/>
+      <c r="G10" s="191"/>
+      <c r="H10" s="191"/>
+      <c r="I10" s="191"/>
+      <c r="J10" s="191"/>
+      <c r="K10" s="195"/>
       <c r="L10" s="12"/>
       <c r="M10" s="82"/>
       <c r="N10" s="12"/>
@@ -21008,19 +20981,19 @@
       <c r="V10" s="12"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="184" t="s">
+      <c r="A11" s="188" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="185"/>
-      <c r="C11" s="185"/>
-      <c r="D11" s="185"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="185"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="185"/>
-      <c r="I11" s="185"/>
-      <c r="J11" s="185"/>
-      <c r="K11" s="186"/>
+      <c r="B11" s="189"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="189"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="190"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
@@ -21034,19 +21007,19 @@
       <c r="V11" s="12"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="180" t="s">
+      <c r="A12" s="184" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="187"/>
-      <c r="C12" s="187"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="187"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="187"/>
-      <c r="J12" s="187"/>
-      <c r="K12" s="191"/>
+      <c r="B12" s="191"/>
+      <c r="C12" s="191"/>
+      <c r="D12" s="191"/>
+      <c r="E12" s="191"/>
+      <c r="F12" s="191"/>
+      <c r="G12" s="191"/>
+      <c r="H12" s="191"/>
+      <c r="I12" s="191"/>
+      <c r="J12" s="191"/>
+      <c r="K12" s="195"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
@@ -21060,19 +21033,19 @@
       <c r="V12" s="12"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="184" t="s">
+      <c r="A13" s="188" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="185"/>
-      <c r="C13" s="185"/>
-      <c r="D13" s="185"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="185"/>
-      <c r="G13" s="185"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="185"/>
-      <c r="J13" s="185"/>
-      <c r="K13" s="186"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="189"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="190"/>
       <c r="L13" s="12"/>
       <c r="M13" s="82"/>
       <c r="N13" s="12"/>
@@ -21086,19 +21059,19 @@
       <c r="V13" s="12"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="180" t="s">
+      <c r="A14" s="184" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="187"/>
-      <c r="F14" s="187"/>
-      <c r="G14" s="187"/>
-      <c r="H14" s="187"/>
-      <c r="I14" s="187"/>
-      <c r="J14" s="187"/>
-      <c r="K14" s="191"/>
+      <c r="B14" s="191"/>
+      <c r="C14" s="191"/>
+      <c r="D14" s="191"/>
+      <c r="E14" s="191"/>
+      <c r="F14" s="191"/>
+      <c r="G14" s="191"/>
+      <c r="H14" s="191"/>
+      <c r="I14" s="191"/>
+      <c r="J14" s="191"/>
+      <c r="K14" s="195"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
@@ -21112,19 +21085,19 @@
       <c r="V14" s="12"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="184" t="s">
+      <c r="A15" s="188" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="185"/>
-      <c r="C15" s="185"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="185"/>
-      <c r="K15" s="186"/>
+      <c r="B15" s="189"/>
+      <c r="C15" s="189"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="190"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
@@ -21138,19 +21111,19 @@
       <c r="V15" s="12"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="180" t="s">
+      <c r="A16" s="184" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="187"/>
-      <c r="C16" s="187"/>
-      <c r="D16" s="187"/>
-      <c r="E16" s="187"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="187"/>
-      <c r="K16" s="191"/>
+      <c r="B16" s="191"/>
+      <c r="C16" s="191"/>
+      <c r="D16" s="191"/>
+      <c r="E16" s="191"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="191"/>
+      <c r="H16" s="191"/>
+      <c r="I16" s="191"/>
+      <c r="J16" s="191"/>
+      <c r="K16" s="195"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
@@ -21164,19 +21137,19 @@
       <c r="V16" s="12"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="184" t="s">
+      <c r="A17" s="188" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="185"/>
-      <c r="C17" s="185"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="185"/>
-      <c r="K17" s="186"/>
+      <c r="B17" s="189"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="189"/>
+      <c r="E17" s="189"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="189"/>
+      <c r="K17" s="190"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
@@ -21190,19 +21163,19 @@
       <c r="V17" s="12"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="180" t="s">
+      <c r="A18" s="184" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="187"/>
-      <c r="C18" s="187"/>
-      <c r="D18" s="187"/>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="187"/>
-      <c r="K18" s="191"/>
+      <c r="B18" s="191"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="191"/>
+      <c r="E18" s="191"/>
+      <c r="F18" s="191"/>
+      <c r="G18" s="191"/>
+      <c r="H18" s="191"/>
+      <c r="I18" s="191"/>
+      <c r="J18" s="191"/>
+      <c r="K18" s="195"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
@@ -21216,19 +21189,19 @@
       <c r="V18" s="12"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="184" t="s">
+      <c r="A19" s="188" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="185"/>
-      <c r="C19" s="185"/>
-      <c r="D19" s="185"/>
-      <c r="E19" s="185"/>
-      <c r="F19" s="185"/>
-      <c r="G19" s="185"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="185"/>
-      <c r="J19" s="185"/>
-      <c r="K19" s="186"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="189"/>
+      <c r="D19" s="189"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="189"/>
+      <c r="G19" s="189"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="189"/>
+      <c r="J19" s="189"/>
+      <c r="K19" s="190"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
@@ -21242,19 +21215,19 @@
       <c r="V19" s="12"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="180" t="s">
+      <c r="A20" s="184" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="187"/>
-      <c r="C20" s="187"/>
-      <c r="D20" s="187"/>
-      <c r="E20" s="187"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="187"/>
-      <c r="H20" s="187"/>
-      <c r="I20" s="187"/>
-      <c r="J20" s="187"/>
-      <c r="K20" s="191"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="191"/>
+      <c r="E20" s="191"/>
+      <c r="F20" s="191"/>
+      <c r="G20" s="191"/>
+      <c r="H20" s="191"/>
+      <c r="I20" s="191"/>
+      <c r="J20" s="191"/>
+      <c r="K20" s="195"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
@@ -21268,19 +21241,19 @@
       <c r="V20" s="12"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="184" t="s">
+      <c r="A21" s="188" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="185"/>
-      <c r="C21" s="185"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="185"/>
-      <c r="H21" s="185"/>
-      <c r="I21" s="185"/>
-      <c r="J21" s="185"/>
-      <c r="K21" s="186"/>
+      <c r="B21" s="189"/>
+      <c r="C21" s="189"/>
+      <c r="D21" s="189"/>
+      <c r="E21" s="189"/>
+      <c r="F21" s="189"/>
+      <c r="G21" s="189"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="189"/>
+      <c r="J21" s="189"/>
+      <c r="K21" s="190"/>
       <c r="L21" s="12"/>
       <c r="M21" s="82"/>
       <c r="N21" s="12"/>
@@ -21294,19 +21267,19 @@
       <c r="V21" s="12"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="180" t="s">
+      <c r="A22" s="184" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="187"/>
-      <c r="C22" s="187"/>
-      <c r="D22" s="187"/>
-      <c r="E22" s="187"/>
-      <c r="F22" s="187"/>
-      <c r="G22" s="187"/>
-      <c r="H22" s="187"/>
-      <c r="I22" s="187"/>
-      <c r="J22" s="187"/>
-      <c r="K22" s="191"/>
+      <c r="B22" s="191"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="191"/>
+      <c r="E22" s="191"/>
+      <c r="F22" s="191"/>
+      <c r="G22" s="191"/>
+      <c r="H22" s="191"/>
+      <c r="I22" s="191"/>
+      <c r="J22" s="191"/>
+      <c r="K22" s="195"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
@@ -21320,19 +21293,19 @@
       <c r="V22" s="12"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="184" t="s">
+      <c r="A23" s="188" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="185"/>
-      <c r="C23" s="185"/>
-      <c r="D23" s="185"/>
-      <c r="E23" s="185"/>
-      <c r="F23" s="185"/>
-      <c r="G23" s="185"/>
-      <c r="H23" s="185"/>
-      <c r="I23" s="185"/>
-      <c r="J23" s="185"/>
-      <c r="K23" s="186"/>
+      <c r="B23" s="189"/>
+      <c r="C23" s="189"/>
+      <c r="D23" s="189"/>
+      <c r="E23" s="189"/>
+      <c r="F23" s="189"/>
+      <c r="G23" s="189"/>
+      <c r="H23" s="189"/>
+      <c r="I23" s="189"/>
+      <c r="J23" s="189"/>
+      <c r="K23" s="190"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
@@ -21346,19 +21319,19 @@
       <c r="V23" s="12"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="180" t="s">
+      <c r="A24" s="184" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="187"/>
-      <c r="C24" s="187"/>
-      <c r="D24" s="187"/>
-      <c r="E24" s="187"/>
-      <c r="F24" s="187"/>
-      <c r="G24" s="187"/>
-      <c r="H24" s="187"/>
-      <c r="I24" s="187"/>
-      <c r="J24" s="187"/>
-      <c r="K24" s="191"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="191"/>
+      <c r="D24" s="191"/>
+      <c r="E24" s="191"/>
+      <c r="F24" s="191"/>
+      <c r="G24" s="191"/>
+      <c r="H24" s="191"/>
+      <c r="I24" s="191"/>
+      <c r="J24" s="191"/>
+      <c r="K24" s="195"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
@@ -21372,19 +21345,19 @@
       <c r="V24" s="12"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="184" t="s">
+      <c r="A25" s="188" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="185"/>
-      <c r="C25" s="185"/>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="185"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="185"/>
-      <c r="J25" s="185"/>
-      <c r="K25" s="186"/>
+      <c r="B25" s="189"/>
+      <c r="C25" s="189"/>
+      <c r="D25" s="189"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="189"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="189"/>
+      <c r="I25" s="189"/>
+      <c r="J25" s="189"/>
+      <c r="K25" s="190"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
@@ -21398,19 +21371,19 @@
       <c r="V25" s="12"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="180" t="s">
+      <c r="A26" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="187"/>
-      <c r="C26" s="187"/>
-      <c r="D26" s="187"/>
-      <c r="E26" s="187"/>
-      <c r="F26" s="187"/>
-      <c r="G26" s="187"/>
-      <c r="H26" s="187"/>
-      <c r="I26" s="187"/>
-      <c r="J26" s="187"/>
-      <c r="K26" s="191"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="191"/>
+      <c r="E26" s="191"/>
+      <c r="F26" s="191"/>
+      <c r="G26" s="191"/>
+      <c r="H26" s="191"/>
+      <c r="I26" s="191"/>
+      <c r="J26" s="191"/>
+      <c r="K26" s="195"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
@@ -21424,19 +21397,19 @@
       <c r="V26" s="12"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="184" t="s">
+      <c r="A27" s="188" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="185"/>
-      <c r="C27" s="185"/>
-      <c r="D27" s="185"/>
-      <c r="E27" s="185"/>
-      <c r="F27" s="185"/>
-      <c r="G27" s="185"/>
-      <c r="H27" s="185"/>
-      <c r="I27" s="185"/>
-      <c r="J27" s="185"/>
-      <c r="K27" s="186"/>
+      <c r="B27" s="189"/>
+      <c r="C27" s="189"/>
+      <c r="D27" s="189"/>
+      <c r="E27" s="189"/>
+      <c r="F27" s="189"/>
+      <c r="G27" s="189"/>
+      <c r="H27" s="189"/>
+      <c r="I27" s="189"/>
+      <c r="J27" s="189"/>
+      <c r="K27" s="190"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
@@ -21450,19 +21423,19 @@
       <c r="V27" s="12"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="180" t="s">
+      <c r="A28" s="184" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="187"/>
-      <c r="C28" s="187"/>
-      <c r="D28" s="187"/>
-      <c r="E28" s="187"/>
-      <c r="F28" s="187"/>
-      <c r="G28" s="187"/>
-      <c r="H28" s="187"/>
-      <c r="I28" s="187"/>
-      <c r="J28" s="187"/>
-      <c r="K28" s="191"/>
+      <c r="B28" s="191"/>
+      <c r="C28" s="191"/>
+      <c r="D28" s="191"/>
+      <c r="E28" s="191"/>
+      <c r="F28" s="191"/>
+      <c r="G28" s="191"/>
+      <c r="H28" s="191"/>
+      <c r="I28" s="191"/>
+      <c r="J28" s="191"/>
+      <c r="K28" s="195"/>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
@@ -21476,19 +21449,19 @@
       <c r="V28" s="12"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="184" t="s">
+      <c r="A29" s="188" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="185"/>
-      <c r="C29" s="185"/>
-      <c r="D29" s="185"/>
-      <c r="E29" s="185"/>
-      <c r="F29" s="185"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="185"/>
-      <c r="J29" s="185"/>
-      <c r="K29" s="186"/>
+      <c r="B29" s="189"/>
+      <c r="C29" s="189"/>
+      <c r="D29" s="189"/>
+      <c r="E29" s="189"/>
+      <c r="F29" s="189"/>
+      <c r="G29" s="189"/>
+      <c r="H29" s="189"/>
+      <c r="I29" s="189"/>
+      <c r="J29" s="189"/>
+      <c r="K29" s="190"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
@@ -21502,19 +21475,19 @@
       <c r="V29" s="12"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="180" t="s">
+      <c r="A30" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="187"/>
-      <c r="C30" s="187"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="187"/>
-      <c r="F30" s="187"/>
-      <c r="G30" s="187"/>
-      <c r="H30" s="187"/>
-      <c r="I30" s="187"/>
-      <c r="J30" s="187"/>
-      <c r="K30" s="191"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="191"/>
+      <c r="F30" s="191"/>
+      <c r="G30" s="191"/>
+      <c r="H30" s="191"/>
+      <c r="I30" s="191"/>
+      <c r="J30" s="191"/>
+      <c r="K30" s="195"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
@@ -21528,19 +21501,19 @@
       <c r="V30" s="12"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="184" t="s">
+      <c r="A31" s="188" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="185"/>
-      <c r="C31" s="185"/>
-      <c r="D31" s="185"/>
-      <c r="E31" s="185"/>
-      <c r="F31" s="185"/>
-      <c r="G31" s="185"/>
-      <c r="H31" s="185"/>
-      <c r="I31" s="185"/>
-      <c r="J31" s="185"/>
-      <c r="K31" s="186"/>
+      <c r="B31" s="189"/>
+      <c r="C31" s="189"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="189"/>
+      <c r="G31" s="189"/>
+      <c r="H31" s="189"/>
+      <c r="I31" s="189"/>
+      <c r="J31" s="189"/>
+      <c r="K31" s="190"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
@@ -21554,19 +21527,19 @@
       <c r="V31" s="12"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="193" t="s">
+      <c r="A32" s="197" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="194"/>
-      <c r="C32" s="194"/>
-      <c r="D32" s="194"/>
-      <c r="E32" s="194"/>
-      <c r="F32" s="194"/>
-      <c r="G32" s="194"/>
-      <c r="H32" s="194"/>
-      <c r="I32" s="194"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="195"/>
+      <c r="B32" s="198"/>
+      <c r="C32" s="198"/>
+      <c r="D32" s="198"/>
+      <c r="E32" s="198"/>
+      <c r="F32" s="198"/>
+      <c r="G32" s="198"/>
+      <c r="H32" s="198"/>
+      <c r="I32" s="198"/>
+      <c r="J32" s="198"/>
+      <c r="K32" s="199"/>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
@@ -21580,46 +21553,46 @@
       <c r="V32" s="12"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="196" t="s">
+      <c r="A33" s="200" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="197">
+      <c r="B33" s="201">
         <f t="shared" ref="B33:C33" si="1">SUM(B2:B32)</f>
         <v>0</v>
       </c>
-      <c r="C33" s="197">
+      <c r="C33" s="201">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="201">
         <f>SUM(D3:D32)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="197">
+      <c r="E33" s="201">
         <f t="shared" ref="E33:K33" si="2">SUM(E2:E32)</f>
         <v>0</v>
       </c>
-      <c r="F33" s="197">
+      <c r="F33" s="201">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G33" s="197">
+      <c r="G33" s="201">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H33" s="197">
+      <c r="H33" s="201">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I33" s="197">
+      <c r="I33" s="201">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J33" s="197">
+      <c r="J33" s="201">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K33" s="198">
+      <c r="K33" s="202">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -27224,849 +27197,849 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="199">
+      <c r="A1" s="203">
         <v>7.0</v>
       </c>
-      <c r="B1" s="200" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="201" t="s">
+      <c r="B1" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="205" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="201" t="s">
+      <c r="D1" s="205" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="201" t="s">
+      <c r="E1" s="205" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="201" t="s">
+      <c r="F1" s="205" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="201" t="s">
+      <c r="G1" s="205" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="201" t="s">
+      <c r="H1" s="205" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="201" t="s">
+      <c r="I1" s="205" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="201" t="s">
+      <c r="J1" s="205" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="201" t="s">
+      <c r="K1" s="205" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="201" t="s">
+      <c r="L1" s="205" t="s">
         <v>102</v>
       </c>
-      <c r="M1" s="201" t="s">
+      <c r="M1" s="205" t="s">
         <v>103</v>
       </c>
-      <c r="N1" s="202" t="s">
+      <c r="N1" s="206" t="s">
         <v>104</v>
       </c>
-      <c r="AD1" s="203" t="s">
+      <c r="AD1" s="207" t="s">
         <v>105</v>
       </c>
-      <c r="AE1" s="204" t="s">
+      <c r="AE1" s="208" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="209" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="22"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="208"/>
-      <c r="AD2" s="209"/>
-      <c r="AE2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="212"/>
+      <c r="AD2" s="213"/>
+      <c r="AE2" s="214"/>
     </row>
     <row r="3">
-      <c r="A3" s="211">
+      <c r="A3" s="215">
         <f t="array" ref="A3:A33">IF(ROW(A2:A32)-1 &lt;= DAY(EOMONTH(DATE(YEAR(TODAY()), A1, 1), 0)),
                  DATE(YEAR(TODAY()), A1, ROW(A2:A32)-1),
                  "")</f>
         <v>45839</v>
       </c>
-      <c r="B3" s="212" t="str">
+      <c r="B3" s="216" t="str">
         <f t="shared" ref="B3:B33" si="1">IF(A3 = "", "", TEXT(A3, "ddd"))</f>
         <v>火</v>
       </c>
-      <c r="C3" s="213"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="214"/>
-      <c r="G3" s="214"/>
-      <c r="H3" s="214"/>
-      <c r="I3" s="214"/>
-      <c r="J3" s="214"/>
-      <c r="K3" s="214"/>
-      <c r="L3" s="214"/>
-      <c r="M3" s="214"/>
-      <c r="N3" s="215"/>
-      <c r="AD3" s="216"/>
-      <c r="AE3" s="217"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
+      <c r="N3" s="219"/>
+      <c r="AD3" s="220"/>
+      <c r="AE3" s="221"/>
     </row>
     <row r="4">
-      <c r="A4" s="218">
+      <c r="A4" s="222">
         <v>45840.0</v>
       </c>
-      <c r="B4" s="219" t="str">
+      <c r="B4" s="223" t="str">
         <f t="shared" si="1"/>
         <v>水</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="221"/>
-      <c r="L4" s="221"/>
-      <c r="M4" s="221"/>
-      <c r="N4" s="222"/>
-      <c r="AD4" s="223"/>
-      <c r="AE4" s="224"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="225"/>
+      <c r="E4" s="225"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="225"/>
+      <c r="H4" s="225"/>
+      <c r="I4" s="225"/>
+      <c r="J4" s="225"/>
+      <c r="K4" s="225"/>
+      <c r="L4" s="225"/>
+      <c r="M4" s="225"/>
+      <c r="N4" s="226"/>
+      <c r="AD4" s="227"/>
+      <c r="AE4" s="228"/>
     </row>
     <row r="5">
-      <c r="A5" s="211">
+      <c r="A5" s="215">
         <v>45841.0</v>
       </c>
-      <c r="B5" s="212" t="str">
+      <c r="B5" s="216" t="str">
         <f t="shared" si="1"/>
         <v>木</v>
       </c>
-      <c r="C5" s="225"/>
-      <c r="D5" s="226"/>
-      <c r="E5" s="226"/>
-      <c r="F5" s="226"/>
-      <c r="G5" s="226"/>
-      <c r="H5" s="226"/>
-      <c r="I5" s="226"/>
-      <c r="J5" s="226"/>
-      <c r="K5" s="226"/>
-      <c r="L5" s="226"/>
-      <c r="M5" s="226"/>
-      <c r="N5" s="227"/>
-      <c r="AD5" s="228"/>
-      <c r="AE5" s="229"/>
+      <c r="C5" s="229"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="230"/>
+      <c r="F5" s="230"/>
+      <c r="G5" s="230"/>
+      <c r="H5" s="230"/>
+      <c r="I5" s="230"/>
+      <c r="J5" s="230"/>
+      <c r="K5" s="230"/>
+      <c r="L5" s="230"/>
+      <c r="M5" s="230"/>
+      <c r="N5" s="231"/>
+      <c r="AD5" s="232"/>
+      <c r="AE5" s="233"/>
     </row>
     <row r="6">
-      <c r="A6" s="218">
+      <c r="A6" s="222">
         <v>45842.0</v>
       </c>
-      <c r="B6" s="219" t="str">
+      <c r="B6" s="223" t="str">
         <f t="shared" si="1"/>
         <v>金</v>
       </c>
-      <c r="C6" s="230"/>
-      <c r="D6" s="231"/>
-      <c r="E6" s="231"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="231"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="231"/>
-      <c r="J6" s="231"/>
-      <c r="K6" s="231"/>
-      <c r="L6" s="231"/>
-      <c r="M6" s="231"/>
-      <c r="N6" s="232"/>
-      <c r="AD6" s="233"/>
-      <c r="AE6" s="234"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="235"/>
+      <c r="F6" s="235"/>
+      <c r="G6" s="235"/>
+      <c r="H6" s="235"/>
+      <c r="I6" s="235"/>
+      <c r="J6" s="235"/>
+      <c r="K6" s="235"/>
+      <c r="L6" s="235"/>
+      <c r="M6" s="235"/>
+      <c r="N6" s="236"/>
+      <c r="AD6" s="237"/>
+      <c r="AE6" s="238"/>
     </row>
     <row r="7">
-      <c r="A7" s="211">
+      <c r="A7" s="215">
         <v>45843.0</v>
       </c>
-      <c r="B7" s="212" t="str">
+      <c r="B7" s="216" t="str">
         <f t="shared" si="1"/>
         <v>土</v>
       </c>
-      <c r="C7" s="235"/>
-      <c r="D7" s="236"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="236"/>
-      <c r="G7" s="236"/>
-      <c r="H7" s="236"/>
-      <c r="I7" s="236"/>
-      <c r="J7" s="236"/>
-      <c r="K7" s="236"/>
-      <c r="L7" s="236"/>
-      <c r="M7" s="236"/>
-      <c r="N7" s="237"/>
-      <c r="AD7" s="238"/>
-      <c r="AE7" s="239"/>
+      <c r="C7" s="229"/>
+      <c r="D7" s="230"/>
+      <c r="E7" s="230"/>
+      <c r="F7" s="230"/>
+      <c r="G7" s="230"/>
+      <c r="H7" s="230"/>
+      <c r="I7" s="230"/>
+      <c r="J7" s="230"/>
+      <c r="K7" s="230"/>
+      <c r="L7" s="230"/>
+      <c r="M7" s="230"/>
+      <c r="N7" s="231"/>
+      <c r="AD7" s="232"/>
+      <c r="AE7" s="233"/>
     </row>
     <row r="8">
-      <c r="A8" s="218">
+      <c r="A8" s="222">
         <v>45844.0</v>
       </c>
-      <c r="B8" s="219" t="str">
+      <c r="B8" s="223" t="str">
         <f t="shared" si="1"/>
         <v>日</v>
       </c>
-      <c r="C8" s="240"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="241"/>
-      <c r="G8" s="241"/>
-      <c r="H8" s="241"/>
-      <c r="I8" s="241"/>
-      <c r="J8" s="241"/>
-      <c r="K8" s="241"/>
-      <c r="L8" s="241"/>
-      <c r="M8" s="241"/>
-      <c r="N8" s="242"/>
-      <c r="AD8" s="243"/>
-      <c r="AE8" s="244"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="225"/>
+      <c r="F8" s="225"/>
+      <c r="G8" s="225"/>
+      <c r="H8" s="225"/>
+      <c r="I8" s="225"/>
+      <c r="J8" s="225"/>
+      <c r="K8" s="225"/>
+      <c r="L8" s="225"/>
+      <c r="M8" s="225"/>
+      <c r="N8" s="226"/>
+      <c r="AD8" s="227"/>
+      <c r="AE8" s="228"/>
     </row>
     <row r="9">
-      <c r="A9" s="211">
+      <c r="A9" s="215">
         <v>45845.0</v>
       </c>
-      <c r="B9" s="212" t="str">
+      <c r="B9" s="216" t="str">
         <f t="shared" si="1"/>
         <v>月</v>
       </c>
-      <c r="C9" s="235"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="236"/>
-      <c r="F9" s="236"/>
-      <c r="G9" s="236"/>
-      <c r="H9" s="236"/>
-      <c r="I9" s="236"/>
-      <c r="J9" s="236"/>
-      <c r="K9" s="236"/>
-      <c r="L9" s="236"/>
-      <c r="M9" s="236"/>
-      <c r="N9" s="237"/>
-      <c r="AD9" s="238"/>
-      <c r="AE9" s="239"/>
+      <c r="C9" s="229"/>
+      <c r="D9" s="230"/>
+      <c r="E9" s="230"/>
+      <c r="F9" s="230"/>
+      <c r="G9" s="230"/>
+      <c r="H9" s="230"/>
+      <c r="I9" s="230"/>
+      <c r="J9" s="230"/>
+      <c r="K9" s="230"/>
+      <c r="L9" s="230"/>
+      <c r="M9" s="230"/>
+      <c r="N9" s="231"/>
+      <c r="AD9" s="232"/>
+      <c r="AE9" s="233"/>
     </row>
     <row r="10">
-      <c r="A10" s="218">
+      <c r="A10" s="222">
         <v>45846.0</v>
       </c>
-      <c r="B10" s="219" t="str">
+      <c r="B10" s="223" t="str">
         <f t="shared" si="1"/>
         <v>火</v>
       </c>
-      <c r="C10" s="240"/>
-      <c r="D10" s="241"/>
-      <c r="E10" s="241"/>
-      <c r="F10" s="241"/>
-      <c r="G10" s="241"/>
-      <c r="H10" s="241"/>
-      <c r="I10" s="241"/>
-      <c r="J10" s="241"/>
-      <c r="K10" s="241"/>
-      <c r="L10" s="241"/>
-      <c r="M10" s="241"/>
-      <c r="N10" s="242"/>
-      <c r="AD10" s="243"/>
-      <c r="AE10" s="244"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="225"/>
+      <c r="E10" s="225"/>
+      <c r="F10" s="225"/>
+      <c r="G10" s="225"/>
+      <c r="H10" s="225"/>
+      <c r="I10" s="225"/>
+      <c r="J10" s="225"/>
+      <c r="K10" s="225"/>
+      <c r="L10" s="225"/>
+      <c r="M10" s="225"/>
+      <c r="N10" s="226"/>
+      <c r="AD10" s="227"/>
+      <c r="AE10" s="228"/>
     </row>
     <row r="11">
-      <c r="A11" s="211">
+      <c r="A11" s="215">
         <v>45847.0</v>
       </c>
-      <c r="B11" s="212" t="str">
+      <c r="B11" s="216" t="str">
         <f t="shared" si="1"/>
         <v>水</v>
       </c>
-      <c r="C11" s="235"/>
-      <c r="D11" s="236"/>
-      <c r="E11" s="236"/>
-      <c r="F11" s="236"/>
-      <c r="G11" s="236"/>
-      <c r="H11" s="236"/>
-      <c r="I11" s="236"/>
-      <c r="J11" s="236"/>
-      <c r="K11" s="236"/>
-      <c r="L11" s="236"/>
-      <c r="M11" s="236"/>
-      <c r="N11" s="237"/>
-      <c r="AD11" s="238"/>
-      <c r="AE11" s="239"/>
+      <c r="C11" s="229"/>
+      <c r="D11" s="230"/>
+      <c r="E11" s="230"/>
+      <c r="F11" s="230"/>
+      <c r="G11" s="230"/>
+      <c r="H11" s="230"/>
+      <c r="I11" s="230"/>
+      <c r="J11" s="230"/>
+      <c r="K11" s="230"/>
+      <c r="L11" s="230"/>
+      <c r="M11" s="230"/>
+      <c r="N11" s="231"/>
+      <c r="AD11" s="232"/>
+      <c r="AE11" s="233"/>
     </row>
     <row r="12">
-      <c r="A12" s="218">
+      <c r="A12" s="222">
         <v>45848.0</v>
       </c>
-      <c r="B12" s="219" t="str">
+      <c r="B12" s="223" t="str">
         <f t="shared" si="1"/>
         <v>木</v>
       </c>
-      <c r="C12" s="240"/>
-      <c r="D12" s="241"/>
-      <c r="E12" s="241"/>
-      <c r="F12" s="241"/>
-      <c r="G12" s="241"/>
-      <c r="H12" s="241"/>
-      <c r="I12" s="241"/>
-      <c r="J12" s="241"/>
-      <c r="K12" s="241"/>
-      <c r="L12" s="241"/>
-      <c r="M12" s="241"/>
-      <c r="N12" s="242"/>
-      <c r="AD12" s="243"/>
-      <c r="AE12" s="244"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="225"/>
+      <c r="E12" s="225"/>
+      <c r="F12" s="225"/>
+      <c r="G12" s="225"/>
+      <c r="H12" s="225"/>
+      <c r="I12" s="225"/>
+      <c r="J12" s="225"/>
+      <c r="K12" s="225"/>
+      <c r="L12" s="225"/>
+      <c r="M12" s="225"/>
+      <c r="N12" s="226"/>
+      <c r="AD12" s="227"/>
+      <c r="AE12" s="228"/>
     </row>
     <row r="13">
-      <c r="A13" s="211">
+      <c r="A13" s="215">
         <v>45849.0</v>
       </c>
-      <c r="B13" s="212" t="str">
+      <c r="B13" s="216" t="str">
         <f t="shared" si="1"/>
         <v>金</v>
       </c>
-      <c r="C13" s="235"/>
-      <c r="D13" s="236"/>
-      <c r="E13" s="236"/>
-      <c r="F13" s="236"/>
-      <c r="G13" s="236"/>
-      <c r="H13" s="236"/>
-      <c r="I13" s="236"/>
-      <c r="J13" s="236"/>
-      <c r="K13" s="236"/>
-      <c r="L13" s="236"/>
-      <c r="M13" s="236"/>
-      <c r="N13" s="237"/>
-      <c r="AD13" s="238"/>
-      <c r="AE13" s="239"/>
+      <c r="C13" s="229"/>
+      <c r="D13" s="230"/>
+      <c r="E13" s="230"/>
+      <c r="F13" s="230"/>
+      <c r="G13" s="230"/>
+      <c r="H13" s="230"/>
+      <c r="I13" s="230"/>
+      <c r="J13" s="230"/>
+      <c r="K13" s="230"/>
+      <c r="L13" s="230"/>
+      <c r="M13" s="230"/>
+      <c r="N13" s="231"/>
+      <c r="AD13" s="232"/>
+      <c r="AE13" s="233"/>
     </row>
     <row r="14">
-      <c r="A14" s="218">
+      <c r="A14" s="222">
         <v>45850.0</v>
       </c>
-      <c r="B14" s="219" t="str">
+      <c r="B14" s="223" t="str">
         <f t="shared" si="1"/>
         <v>土</v>
       </c>
-      <c r="C14" s="240"/>
-      <c r="D14" s="241"/>
-      <c r="E14" s="241"/>
-      <c r="F14" s="241"/>
-      <c r="G14" s="241"/>
-      <c r="H14" s="241"/>
-      <c r="I14" s="241"/>
-      <c r="J14" s="241"/>
-      <c r="K14" s="241"/>
-      <c r="L14" s="241"/>
-      <c r="M14" s="241"/>
-      <c r="N14" s="242"/>
-      <c r="AD14" s="243"/>
-      <c r="AE14" s="244"/>
+      <c r="C14" s="224"/>
+      <c r="D14" s="225"/>
+      <c r="E14" s="225"/>
+      <c r="F14" s="225"/>
+      <c r="G14" s="225"/>
+      <c r="H14" s="225"/>
+      <c r="I14" s="225"/>
+      <c r="J14" s="225"/>
+      <c r="K14" s="225"/>
+      <c r="L14" s="225"/>
+      <c r="M14" s="225"/>
+      <c r="N14" s="226"/>
+      <c r="AD14" s="227"/>
+      <c r="AE14" s="228"/>
     </row>
     <row r="15">
-      <c r="A15" s="211">
+      <c r="A15" s="215">
         <v>45851.0</v>
       </c>
-      <c r="B15" s="212" t="str">
+      <c r="B15" s="216" t="str">
         <f t="shared" si="1"/>
         <v>日</v>
       </c>
-      <c r="C15" s="235"/>
-      <c r="D15" s="236"/>
-      <c r="E15" s="236"/>
-      <c r="F15" s="236"/>
-      <c r="G15" s="236"/>
-      <c r="H15" s="236"/>
-      <c r="I15" s="236"/>
-      <c r="J15" s="236"/>
-      <c r="K15" s="236"/>
-      <c r="L15" s="236"/>
-      <c r="M15" s="236"/>
-      <c r="N15" s="237"/>
-      <c r="AD15" s="238"/>
-      <c r="AE15" s="239"/>
+      <c r="C15" s="229"/>
+      <c r="D15" s="230"/>
+      <c r="E15" s="230"/>
+      <c r="F15" s="230"/>
+      <c r="G15" s="230"/>
+      <c r="H15" s="230"/>
+      <c r="I15" s="230"/>
+      <c r="J15" s="230"/>
+      <c r="K15" s="230"/>
+      <c r="L15" s="230"/>
+      <c r="M15" s="230"/>
+      <c r="N15" s="231"/>
+      <c r="AD15" s="232"/>
+      <c r="AE15" s="233"/>
     </row>
     <row r="16">
-      <c r="A16" s="218">
+      <c r="A16" s="222">
         <v>45852.0</v>
       </c>
-      <c r="B16" s="219" t="str">
+      <c r="B16" s="223" t="str">
         <f t="shared" si="1"/>
         <v>月</v>
       </c>
-      <c r="C16" s="240"/>
-      <c r="D16" s="241"/>
-      <c r="E16" s="241"/>
-      <c r="F16" s="241"/>
-      <c r="G16" s="241"/>
-      <c r="H16" s="241"/>
-      <c r="I16" s="241"/>
-      <c r="J16" s="241"/>
-      <c r="K16" s="241"/>
-      <c r="L16" s="241"/>
-      <c r="M16" s="241"/>
-      <c r="N16" s="242"/>
-      <c r="AD16" s="243"/>
-      <c r="AE16" s="244"/>
+      <c r="C16" s="224"/>
+      <c r="D16" s="225"/>
+      <c r="E16" s="225"/>
+      <c r="F16" s="225"/>
+      <c r="G16" s="225"/>
+      <c r="H16" s="225"/>
+      <c r="I16" s="225"/>
+      <c r="J16" s="225"/>
+      <c r="K16" s="225"/>
+      <c r="L16" s="225"/>
+      <c r="M16" s="225"/>
+      <c r="N16" s="226"/>
+      <c r="AD16" s="227"/>
+      <c r="AE16" s="228"/>
     </row>
     <row r="17">
-      <c r="A17" s="211">
+      <c r="A17" s="215">
         <v>45853.0</v>
       </c>
-      <c r="B17" s="212" t="str">
+      <c r="B17" s="216" t="str">
         <f t="shared" si="1"/>
         <v>火</v>
       </c>
-      <c r="C17" s="235"/>
-      <c r="D17" s="236"/>
-      <c r="E17" s="236"/>
-      <c r="F17" s="236"/>
-      <c r="G17" s="236"/>
-      <c r="H17" s="236"/>
-      <c r="I17" s="236"/>
-      <c r="J17" s="236"/>
-      <c r="K17" s="236"/>
-      <c r="L17" s="236"/>
-      <c r="M17" s="236"/>
-      <c r="N17" s="237"/>
-      <c r="AD17" s="238"/>
-      <c r="AE17" s="239"/>
+      <c r="C17" s="229"/>
+      <c r="D17" s="230"/>
+      <c r="E17" s="230"/>
+      <c r="F17" s="230"/>
+      <c r="G17" s="230"/>
+      <c r="H17" s="230"/>
+      <c r="I17" s="230"/>
+      <c r="J17" s="230"/>
+      <c r="K17" s="230"/>
+      <c r="L17" s="230"/>
+      <c r="M17" s="230"/>
+      <c r="N17" s="231"/>
+      <c r="AD17" s="232"/>
+      <c r="AE17" s="233"/>
     </row>
     <row r="18">
-      <c r="A18" s="218">
+      <c r="A18" s="222">
         <v>45854.0</v>
       </c>
-      <c r="B18" s="219" t="str">
+      <c r="B18" s="223" t="str">
         <f t="shared" si="1"/>
         <v>水</v>
       </c>
-      <c r="C18" s="240"/>
-      <c r="D18" s="241"/>
-      <c r="E18" s="241"/>
-      <c r="F18" s="241"/>
-      <c r="G18" s="241"/>
-      <c r="H18" s="241"/>
-      <c r="I18" s="241"/>
-      <c r="J18" s="241"/>
-      <c r="K18" s="241"/>
-      <c r="L18" s="241"/>
-      <c r="M18" s="241"/>
-      <c r="N18" s="242"/>
-      <c r="AD18" s="243"/>
-      <c r="AE18" s="244"/>
+      <c r="C18" s="224"/>
+      <c r="D18" s="225"/>
+      <c r="E18" s="225"/>
+      <c r="F18" s="225"/>
+      <c r="G18" s="225"/>
+      <c r="H18" s="225"/>
+      <c r="I18" s="225"/>
+      <c r="J18" s="225"/>
+      <c r="K18" s="225"/>
+      <c r="L18" s="225"/>
+      <c r="M18" s="225"/>
+      <c r="N18" s="226"/>
+      <c r="AD18" s="227"/>
+      <c r="AE18" s="228"/>
     </row>
     <row r="19">
-      <c r="A19" s="211">
+      <c r="A19" s="215">
         <v>45855.0</v>
       </c>
-      <c r="B19" s="212" t="str">
+      <c r="B19" s="216" t="str">
         <f t="shared" si="1"/>
         <v>木</v>
       </c>
-      <c r="C19" s="235"/>
-      <c r="D19" s="236"/>
-      <c r="E19" s="236"/>
-      <c r="F19" s="236"/>
-      <c r="G19" s="236"/>
-      <c r="H19" s="236"/>
-      <c r="I19" s="236"/>
-      <c r="J19" s="236"/>
-      <c r="K19" s="236"/>
-      <c r="L19" s="236"/>
-      <c r="M19" s="236"/>
-      <c r="N19" s="237"/>
-      <c r="AD19" s="238"/>
-      <c r="AE19" s="239"/>
+      <c r="C19" s="229"/>
+      <c r="D19" s="230"/>
+      <c r="E19" s="230"/>
+      <c r="F19" s="230"/>
+      <c r="G19" s="230"/>
+      <c r="H19" s="230"/>
+      <c r="I19" s="230"/>
+      <c r="J19" s="230"/>
+      <c r="K19" s="230"/>
+      <c r="L19" s="230"/>
+      <c r="M19" s="230"/>
+      <c r="N19" s="231"/>
+      <c r="AD19" s="232"/>
+      <c r="AE19" s="233"/>
     </row>
     <row r="20">
-      <c r="A20" s="218">
+      <c r="A20" s="222">
         <v>45856.0</v>
       </c>
-      <c r="B20" s="219" t="str">
+      <c r="B20" s="223" t="str">
         <f t="shared" si="1"/>
         <v>金</v>
       </c>
-      <c r="C20" s="240"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="241"/>
-      <c r="F20" s="241"/>
-      <c r="G20" s="241"/>
-      <c r="H20" s="241"/>
-      <c r="I20" s="241"/>
-      <c r="J20" s="241"/>
-      <c r="K20" s="241"/>
-      <c r="L20" s="241"/>
-      <c r="M20" s="241"/>
-      <c r="N20" s="242"/>
-      <c r="AD20" s="243"/>
-      <c r="AE20" s="244"/>
+      <c r="C20" s="224"/>
+      <c r="D20" s="225"/>
+      <c r="E20" s="225"/>
+      <c r="F20" s="225"/>
+      <c r="G20" s="225"/>
+      <c r="H20" s="225"/>
+      <c r="I20" s="225"/>
+      <c r="J20" s="225"/>
+      <c r="K20" s="225"/>
+      <c r="L20" s="225"/>
+      <c r="M20" s="225"/>
+      <c r="N20" s="226"/>
+      <c r="AD20" s="227"/>
+      <c r="AE20" s="228"/>
     </row>
     <row r="21">
-      <c r="A21" s="211">
+      <c r="A21" s="215">
         <v>45857.0</v>
       </c>
-      <c r="B21" s="212" t="str">
+      <c r="B21" s="216" t="str">
         <f t="shared" si="1"/>
         <v>土</v>
       </c>
-      <c r="C21" s="235"/>
-      <c r="D21" s="236"/>
-      <c r="E21" s="236"/>
-      <c r="F21" s="236"/>
-      <c r="G21" s="236"/>
-      <c r="H21" s="236"/>
-      <c r="I21" s="236"/>
-      <c r="J21" s="236"/>
-      <c r="K21" s="236"/>
-      <c r="L21" s="236"/>
-      <c r="M21" s="236"/>
-      <c r="N21" s="237"/>
-      <c r="AD21" s="238"/>
-      <c r="AE21" s="239"/>
+      <c r="C21" s="229"/>
+      <c r="D21" s="230"/>
+      <c r="E21" s="230"/>
+      <c r="F21" s="230"/>
+      <c r="G21" s="230"/>
+      <c r="H21" s="230"/>
+      <c r="I21" s="230"/>
+      <c r="J21" s="230"/>
+      <c r="K21" s="230"/>
+      <c r="L21" s="230"/>
+      <c r="M21" s="230"/>
+      <c r="N21" s="231"/>
+      <c r="AD21" s="232"/>
+      <c r="AE21" s="233"/>
     </row>
     <row r="22">
-      <c r="A22" s="218">
+      <c r="A22" s="222">
         <v>45858.0</v>
       </c>
-      <c r="B22" s="219" t="str">
+      <c r="B22" s="223" t="str">
         <f t="shared" si="1"/>
         <v>日</v>
       </c>
-      <c r="C22" s="240"/>
-      <c r="D22" s="241"/>
-      <c r="E22" s="241"/>
-      <c r="F22" s="241"/>
-      <c r="G22" s="241"/>
-      <c r="H22" s="241"/>
-      <c r="I22" s="241"/>
-      <c r="J22" s="241"/>
-      <c r="K22" s="241"/>
-      <c r="L22" s="241"/>
-      <c r="M22" s="241"/>
-      <c r="N22" s="242"/>
-      <c r="AD22" s="243"/>
-      <c r="AE22" s="244"/>
+      <c r="C22" s="224"/>
+      <c r="D22" s="225"/>
+      <c r="E22" s="225"/>
+      <c r="F22" s="225"/>
+      <c r="G22" s="225"/>
+      <c r="H22" s="225"/>
+      <c r="I22" s="225"/>
+      <c r="J22" s="225"/>
+      <c r="K22" s="225"/>
+      <c r="L22" s="225"/>
+      <c r="M22" s="225"/>
+      <c r="N22" s="226"/>
+      <c r="AD22" s="227"/>
+      <c r="AE22" s="228"/>
     </row>
     <row r="23">
-      <c r="A23" s="211">
+      <c r="A23" s="215">
         <v>45859.0</v>
       </c>
-      <c r="B23" s="212" t="str">
+      <c r="B23" s="216" t="str">
         <f t="shared" si="1"/>
         <v>月</v>
       </c>
-      <c r="C23" s="235"/>
-      <c r="D23" s="236"/>
-      <c r="E23" s="236"/>
-      <c r="F23" s="236"/>
-      <c r="G23" s="236"/>
-      <c r="H23" s="236"/>
-      <c r="I23" s="236"/>
-      <c r="J23" s="236"/>
-      <c r="K23" s="236"/>
-      <c r="L23" s="236"/>
-      <c r="M23" s="236"/>
-      <c r="N23" s="237"/>
-      <c r="AD23" s="238"/>
-      <c r="AE23" s="239"/>
+      <c r="C23" s="229"/>
+      <c r="D23" s="230"/>
+      <c r="E23" s="230"/>
+      <c r="F23" s="230"/>
+      <c r="G23" s="230"/>
+      <c r="H23" s="230"/>
+      <c r="I23" s="230"/>
+      <c r="J23" s="230"/>
+      <c r="K23" s="230"/>
+      <c r="L23" s="230"/>
+      <c r="M23" s="230"/>
+      <c r="N23" s="231"/>
+      <c r="AD23" s="232"/>
+      <c r="AE23" s="233"/>
     </row>
     <row r="24">
-      <c r="A24" s="218">
+      <c r="A24" s="222">
         <v>45860.0</v>
       </c>
-      <c r="B24" s="219" t="str">
+      <c r="B24" s="223" t="str">
         <f t="shared" si="1"/>
         <v>火</v>
       </c>
-      <c r="C24" s="240"/>
-      <c r="D24" s="241"/>
-      <c r="E24" s="241"/>
-      <c r="F24" s="241"/>
-      <c r="G24" s="241"/>
-      <c r="H24" s="241"/>
-      <c r="I24" s="241"/>
-      <c r="J24" s="241"/>
-      <c r="K24" s="241"/>
-      <c r="L24" s="241"/>
-      <c r="M24" s="241"/>
-      <c r="N24" s="242"/>
-      <c r="AD24" s="243"/>
-      <c r="AE24" s="244"/>
+      <c r="C24" s="224"/>
+      <c r="D24" s="225"/>
+      <c r="E24" s="225"/>
+      <c r="F24" s="225"/>
+      <c r="G24" s="225"/>
+      <c r="H24" s="225"/>
+      <c r="I24" s="225"/>
+      <c r="J24" s="225"/>
+      <c r="K24" s="225"/>
+      <c r="L24" s="225"/>
+      <c r="M24" s="225"/>
+      <c r="N24" s="226"/>
+      <c r="AD24" s="227"/>
+      <c r="AE24" s="228"/>
     </row>
     <row r="25">
-      <c r="A25" s="211">
+      <c r="A25" s="215">
         <v>45861.0</v>
       </c>
-      <c r="B25" s="212" t="str">
+      <c r="B25" s="216" t="str">
         <f t="shared" si="1"/>
         <v>水</v>
       </c>
-      <c r="C25" s="235"/>
-      <c r="D25" s="236"/>
-      <c r="E25" s="236"/>
-      <c r="F25" s="236"/>
-      <c r="G25" s="236"/>
-      <c r="H25" s="236"/>
-      <c r="I25" s="236"/>
-      <c r="J25" s="236"/>
-      <c r="K25" s="236"/>
-      <c r="L25" s="236"/>
-      <c r="M25" s="236"/>
-      <c r="N25" s="237"/>
-      <c r="AD25" s="238"/>
-      <c r="AE25" s="239"/>
+      <c r="C25" s="229"/>
+      <c r="D25" s="230"/>
+      <c r="E25" s="230"/>
+      <c r="F25" s="230"/>
+      <c r="G25" s="230"/>
+      <c r="H25" s="230"/>
+      <c r="I25" s="230"/>
+      <c r="J25" s="230"/>
+      <c r="K25" s="230"/>
+      <c r="L25" s="230"/>
+      <c r="M25" s="230"/>
+      <c r="N25" s="231"/>
+      <c r="AD25" s="232"/>
+      <c r="AE25" s="233"/>
     </row>
     <row r="26">
-      <c r="A26" s="218">
+      <c r="A26" s="222">
         <v>45862.0</v>
       </c>
-      <c r="B26" s="219" t="str">
+      <c r="B26" s="223" t="str">
         <f t="shared" si="1"/>
         <v>木</v>
       </c>
-      <c r="C26" s="240"/>
-      <c r="D26" s="241"/>
-      <c r="E26" s="241"/>
-      <c r="F26" s="241"/>
-      <c r="G26" s="241"/>
-      <c r="H26" s="241"/>
-      <c r="I26" s="241"/>
-      <c r="J26" s="241"/>
-      <c r="K26" s="241"/>
-      <c r="L26" s="241"/>
-      <c r="M26" s="241"/>
-      <c r="N26" s="242"/>
-      <c r="AD26" s="243"/>
-      <c r="AE26" s="244"/>
+      <c r="C26" s="224"/>
+      <c r="D26" s="225"/>
+      <c r="E26" s="225"/>
+      <c r="F26" s="225"/>
+      <c r="G26" s="225"/>
+      <c r="H26" s="225"/>
+      <c r="I26" s="225"/>
+      <c r="J26" s="225"/>
+      <c r="K26" s="225"/>
+      <c r="L26" s="225"/>
+      <c r="M26" s="225"/>
+      <c r="N26" s="226"/>
+      <c r="AD26" s="227"/>
+      <c r="AE26" s="228"/>
     </row>
     <row r="27">
-      <c r="A27" s="211">
+      <c r="A27" s="215">
         <v>45863.0</v>
       </c>
-      <c r="B27" s="212" t="str">
+      <c r="B27" s="216" t="str">
         <f t="shared" si="1"/>
         <v>金</v>
       </c>
-      <c r="C27" s="235"/>
-      <c r="D27" s="236"/>
-      <c r="E27" s="236"/>
-      <c r="F27" s="236"/>
-      <c r="G27" s="236"/>
-      <c r="H27" s="236"/>
-      <c r="I27" s="236"/>
-      <c r="J27" s="236"/>
-      <c r="K27" s="236"/>
-      <c r="L27" s="236"/>
-      <c r="M27" s="236"/>
-      <c r="N27" s="237"/>
-      <c r="AD27" s="238"/>
-      <c r="AE27" s="239"/>
+      <c r="C27" s="229"/>
+      <c r="D27" s="230"/>
+      <c r="E27" s="230"/>
+      <c r="F27" s="230"/>
+      <c r="G27" s="230"/>
+      <c r="H27" s="230"/>
+      <c r="I27" s="230"/>
+      <c r="J27" s="230"/>
+      <c r="K27" s="230"/>
+      <c r="L27" s="230"/>
+      <c r="M27" s="230"/>
+      <c r="N27" s="231"/>
+      <c r="AD27" s="232"/>
+      <c r="AE27" s="233"/>
     </row>
     <row r="28">
-      <c r="A28" s="218">
+      <c r="A28" s="222">
         <v>45864.0</v>
       </c>
-      <c r="B28" s="219" t="str">
+      <c r="B28" s="223" t="str">
         <f t="shared" si="1"/>
         <v>土</v>
       </c>
-      <c r="C28" s="240"/>
-      <c r="D28" s="241"/>
-      <c r="E28" s="241"/>
-      <c r="F28" s="241"/>
-      <c r="G28" s="241"/>
-      <c r="H28" s="241"/>
-      <c r="I28" s="241"/>
-      <c r="J28" s="241"/>
-      <c r="K28" s="241"/>
-      <c r="L28" s="241"/>
-      <c r="M28" s="241"/>
-      <c r="N28" s="242"/>
-      <c r="AD28" s="243"/>
-      <c r="AE28" s="244"/>
+      <c r="C28" s="224"/>
+      <c r="D28" s="225"/>
+      <c r="E28" s="225"/>
+      <c r="F28" s="225"/>
+      <c r="G28" s="225"/>
+      <c r="H28" s="225"/>
+      <c r="I28" s="225"/>
+      <c r="J28" s="225"/>
+      <c r="K28" s="225"/>
+      <c r="L28" s="225"/>
+      <c r="M28" s="225"/>
+      <c r="N28" s="226"/>
+      <c r="AD28" s="227"/>
+      <c r="AE28" s="228"/>
     </row>
     <row r="29">
-      <c r="A29" s="211">
+      <c r="A29" s="215">
         <v>45865.0</v>
       </c>
-      <c r="B29" s="212" t="str">
+      <c r="B29" s="216" t="str">
         <f t="shared" si="1"/>
         <v>日</v>
       </c>
-      <c r="C29" s="235"/>
-      <c r="D29" s="236"/>
-      <c r="E29" s="236"/>
-      <c r="F29" s="236"/>
-      <c r="G29" s="236"/>
-      <c r="H29" s="236"/>
-      <c r="I29" s="236"/>
-      <c r="J29" s="236"/>
-      <c r="K29" s="236"/>
-      <c r="L29" s="236"/>
-      <c r="M29" s="236"/>
-      <c r="N29" s="237"/>
-      <c r="AD29" s="238"/>
-      <c r="AE29" s="239"/>
+      <c r="C29" s="229"/>
+      <c r="D29" s="230"/>
+      <c r="E29" s="230"/>
+      <c r="F29" s="230"/>
+      <c r="G29" s="230"/>
+      <c r="H29" s="230"/>
+      <c r="I29" s="230"/>
+      <c r="J29" s="230"/>
+      <c r="K29" s="230"/>
+      <c r="L29" s="230"/>
+      <c r="M29" s="230"/>
+      <c r="N29" s="231"/>
+      <c r="AD29" s="232"/>
+      <c r="AE29" s="233"/>
     </row>
     <row r="30">
-      <c r="A30" s="218">
+      <c r="A30" s="222">
         <v>45866.0</v>
       </c>
-      <c r="B30" s="219" t="str">
+      <c r="B30" s="223" t="str">
         <f t="shared" si="1"/>
         <v>月</v>
       </c>
-      <c r="C30" s="240"/>
-      <c r="D30" s="241"/>
-      <c r="E30" s="241"/>
-      <c r="F30" s="241"/>
-      <c r="G30" s="241"/>
-      <c r="H30" s="241"/>
-      <c r="I30" s="241"/>
-      <c r="J30" s="241"/>
-      <c r="K30" s="241"/>
-      <c r="L30" s="241"/>
-      <c r="M30" s="241"/>
-      <c r="N30" s="242"/>
-      <c r="AD30" s="243"/>
-      <c r="AE30" s="244"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="225"/>
+      <c r="E30" s="225"/>
+      <c r="F30" s="225"/>
+      <c r="G30" s="225"/>
+      <c r="H30" s="225"/>
+      <c r="I30" s="225"/>
+      <c r="J30" s="225"/>
+      <c r="K30" s="225"/>
+      <c r="L30" s="225"/>
+      <c r="M30" s="225"/>
+      <c r="N30" s="226"/>
+      <c r="AD30" s="227"/>
+      <c r="AE30" s="228"/>
     </row>
     <row r="31">
-      <c r="A31" s="211">
+      <c r="A31" s="215">
         <v>45867.0</v>
       </c>
-      <c r="B31" s="212" t="str">
+      <c r="B31" s="216" t="str">
         <f t="shared" si="1"/>
         <v>火</v>
       </c>
-      <c r="C31" s="235"/>
-      <c r="D31" s="236"/>
-      <c r="E31" s="236"/>
-      <c r="F31" s="236"/>
-      <c r="G31" s="236"/>
-      <c r="H31" s="236"/>
-      <c r="I31" s="236"/>
-      <c r="J31" s="236"/>
-      <c r="K31" s="236"/>
-      <c r="L31" s="236"/>
-      <c r="M31" s="236"/>
-      <c r="N31" s="237"/>
-      <c r="AD31" s="238"/>
-      <c r="AE31" s="239"/>
+      <c r="C31" s="229"/>
+      <c r="D31" s="230"/>
+      <c r="E31" s="230"/>
+      <c r="F31" s="230"/>
+      <c r="G31" s="230"/>
+      <c r="H31" s="230"/>
+      <c r="I31" s="230"/>
+      <c r="J31" s="230"/>
+      <c r="K31" s="230"/>
+      <c r="L31" s="230"/>
+      <c r="M31" s="230"/>
+      <c r="N31" s="231"/>
+      <c r="AD31" s="232"/>
+      <c r="AE31" s="233"/>
     </row>
     <row r="32">
-      <c r="A32" s="218">
+      <c r="A32" s="222">
         <v>45868.0</v>
       </c>
-      <c r="B32" s="219" t="str">
+      <c r="B32" s="223" t="str">
         <f t="shared" si="1"/>
         <v>水</v>
       </c>
-      <c r="C32" s="240"/>
-      <c r="D32" s="241"/>
-      <c r="E32" s="241"/>
-      <c r="F32" s="241"/>
-      <c r="G32" s="241"/>
-      <c r="H32" s="241"/>
-      <c r="I32" s="241"/>
-      <c r="J32" s="241"/>
-      <c r="K32" s="241"/>
-      <c r="L32" s="241"/>
-      <c r="M32" s="241"/>
-      <c r="N32" s="242"/>
-      <c r="AD32" s="243"/>
-      <c r="AE32" s="244"/>
+      <c r="C32" s="224"/>
+      <c r="D32" s="225"/>
+      <c r="E32" s="225"/>
+      <c r="F32" s="225"/>
+      <c r="G32" s="225"/>
+      <c r="H32" s="225"/>
+      <c r="I32" s="225"/>
+      <c r="J32" s="225"/>
+      <c r="K32" s="225"/>
+      <c r="L32" s="225"/>
+      <c r="M32" s="225"/>
+      <c r="N32" s="226"/>
+      <c r="AD32" s="227"/>
+      <c r="AE32" s="228"/>
     </row>
     <row r="33">
-      <c r="A33" s="211">
+      <c r="A33" s="215">
         <v>45869.0</v>
       </c>
-      <c r="B33" s="212" t="str">
+      <c r="B33" s="216" t="str">
         <f t="shared" si="1"/>
         <v>木</v>
       </c>
-      <c r="C33" s="245"/>
-      <c r="D33" s="246"/>
-      <c r="E33" s="246"/>
-      <c r="F33" s="246"/>
-      <c r="G33" s="246"/>
-      <c r="H33" s="246"/>
-      <c r="I33" s="246"/>
-      <c r="J33" s="246"/>
-      <c r="K33" s="246"/>
-      <c r="L33" s="246"/>
-      <c r="M33" s="246"/>
-      <c r="N33" s="247"/>
-      <c r="AD33" s="248"/>
-      <c r="AE33" s="249"/>
+      <c r="C33" s="239"/>
+      <c r="D33" s="240"/>
+      <c r="E33" s="240"/>
+      <c r="F33" s="240"/>
+      <c r="G33" s="240"/>
+      <c r="H33" s="240"/>
+      <c r="I33" s="240"/>
+      <c r="J33" s="240"/>
+      <c r="K33" s="240"/>
+      <c r="L33" s="240"/>
+      <c r="M33" s="240"/>
+      <c r="N33" s="241"/>
+      <c r="AD33" s="242"/>
+      <c r="AE33" s="243"/>
     </row>
     <row r="34">
-      <c r="A34" s="250" t="s">
+      <c r="A34" s="244" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="251"/>
-      <c r="C34" s="252">
+      <c r="B34" s="245"/>
+      <c r="C34" s="246">
         <f t="shared" ref="C34:N34" si="2">SUM(C2:C33)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="253">
+      <c r="D34" s="247">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E34" s="253">
+      <c r="E34" s="247">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F34" s="253">
+      <c r="F34" s="247">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G34" s="253">
+      <c r="G34" s="247">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H34" s="253">
+      <c r="H34" s="247">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I34" s="253">
+      <c r="I34" s="247">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J34" s="253">
+      <c r="J34" s="247">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K34" s="253">
+      <c r="K34" s="247">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L34" s="253">
+      <c r="L34" s="247">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M34" s="253">
+      <c r="M34" s="247">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N34" s="254">
+      <c r="N34" s="248">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD34" s="255">
+      <c r="AD34" s="246">
         <f t="shared" ref="AD34:AE34" si="3">SUM(AD2:AD33)</f>
         <v>0</v>
       </c>
-      <c r="AE34" s="256">
+      <c r="AE34" s="249">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -28104,265 +28077,265 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1">
-      <c r="A1" s="257" t="s">
+      <c r="A1" s="250" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="258" t="s">
+      <c r="B1" s="251" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="258" t="s">
+      <c r="C1" s="251" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="258" t="s">
+      <c r="D1" s="251" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="258" t="s">
+      <c r="E1" s="251" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="258" t="s">
+      <c r="F1" s="251" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="258" t="s">
+      <c r="G1" s="251" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="258" t="s">
+      <c r="H1" s="251" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="258" t="s">
+      <c r="I1" s="251" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="258" t="s">
+      <c r="J1" s="251" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="258" t="s">
+      <c r="K1" s="251" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="258" t="s">
+      <c r="L1" s="251" t="s">
         <v>103</v>
       </c>
-      <c r="M1" s="259" t="s">
+      <c r="M1" s="252" t="s">
         <v>104</v>
       </c>
-      <c r="N1" s="260"/>
+      <c r="N1" s="253"/>
     </row>
     <row r="2" ht="21.75" customHeight="1">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="254" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="262"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="262"/>
-      <c r="J2" s="262"/>
-      <c r="K2" s="262"/>
-      <c r="L2" s="262"/>
-      <c r="M2" s="263"/>
-      <c r="N2" s="264"/>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="256"/>
+      <c r="N2" s="257"/>
     </row>
     <row r="3" ht="21.75" customHeight="1">
-      <c r="A3" s="261" t="s">
+      <c r="A3" s="254" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="265"/>
-      <c r="C3" s="265"/>
-      <c r="D3" s="265"/>
-      <c r="E3" s="265"/>
-      <c r="F3" s="265"/>
-      <c r="G3" s="265"/>
-      <c r="H3" s="265"/>
-      <c r="I3" s="265"/>
-      <c r="J3" s="265"/>
-      <c r="K3" s="265"/>
-      <c r="L3" s="265"/>
-      <c r="M3" s="263"/>
-      <c r="N3" s="264"/>
+      <c r="B3" s="258"/>
+      <c r="C3" s="258"/>
+      <c r="D3" s="258"/>
+      <c r="E3" s="258"/>
+      <c r="F3" s="258"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="258"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="257"/>
     </row>
     <row r="4" ht="21.75" customHeight="1">
-      <c r="A4" s="266"/>
-      <c r="B4" s="265"/>
-      <c r="C4" s="265"/>
-      <c r="D4" s="265"/>
-      <c r="E4" s="265"/>
-      <c r="F4" s="265"/>
-      <c r="G4" s="265"/>
-      <c r="H4" s="265"/>
-      <c r="I4" s="265"/>
-      <c r="J4" s="265"/>
-      <c r="K4" s="265"/>
-      <c r="L4" s="265"/>
-      <c r="M4" s="263"/>
-      <c r="N4" s="264"/>
+      <c r="A4" s="259"/>
+      <c r="B4" s="258"/>
+      <c r="C4" s="258"/>
+      <c r="D4" s="258"/>
+      <c r="E4" s="258"/>
+      <c r="F4" s="258"/>
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="258"/>
+      <c r="M4" s="256"/>
+      <c r="N4" s="257"/>
     </row>
     <row r="5" ht="21.75" customHeight="1">
-      <c r="A5" s="267"/>
-      <c r="B5" s="268"/>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="268"/>
-      <c r="G5" s="268"/>
-      <c r="H5" s="268"/>
-      <c r="I5" s="268"/>
-      <c r="J5" s="268"/>
-      <c r="K5" s="268"/>
-      <c r="L5" s="268"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="264"/>
+      <c r="A5" s="260"/>
+      <c r="B5" s="261"/>
+      <c r="C5" s="261"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
+      <c r="G5" s="261"/>
+      <c r="H5" s="261"/>
+      <c r="I5" s="261"/>
+      <c r="J5" s="261"/>
+      <c r="K5" s="261"/>
+      <c r="L5" s="261"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="257"/>
     </row>
     <row r="6" ht="21.75" customHeight="1">
-      <c r="A6" s="270" t="s">
+      <c r="A6" s="263" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="271">
+      <c r="B6" s="264">
         <f t="shared" ref="B6:M6" si="1">SUM(B2:B5)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="271">
+      <c r="C6" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="271">
+      <c r="D6" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E6" s="271">
+      <c r="E6" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F6" s="271">
+      <c r="F6" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G6" s="271">
+      <c r="G6" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="271">
+      <c r="H6" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="271">
+      <c r="I6" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="271">
+      <c r="J6" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K6" s="271">
+      <c r="K6" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L6" s="271">
+      <c r="L6" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M6" s="271">
+      <c r="M6" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N6" s="264"/>
+      <c r="N6" s="257"/>
     </row>
     <row r="7" ht="21.75" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="272"/>
-      <c r="C7" s="272"/>
-      <c r="D7" s="272"/>
-      <c r="E7" s="272"/>
-      <c r="F7" s="272"/>
-      <c r="G7" s="272"/>
-      <c r="H7" s="272"/>
-      <c r="I7" s="272"/>
-      <c r="J7" s="272"/>
-      <c r="K7" s="272"/>
-      <c r="L7" s="272"/>
-      <c r="M7" s="272"/>
-      <c r="N7" s="264"/>
+      <c r="B7" s="265"/>
+      <c r="C7" s="265"/>
+      <c r="D7" s="265"/>
+      <c r="E7" s="265"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="265"/>
+      <c r="H7" s="265"/>
+      <c r="I7" s="265"/>
+      <c r="J7" s="265"/>
+      <c r="K7" s="265"/>
+      <c r="L7" s="265"/>
+      <c r="M7" s="265"/>
+      <c r="N7" s="257"/>
     </row>
     <row r="8" ht="21.75" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="273">
+      <c r="B8" s="266">
         <f>SUM(B6:M6)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="272"/>
+      <c r="C8" s="265"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="272"/>
-      <c r="F8" s="272"/>
-      <c r="G8" s="272"/>
-      <c r="H8" s="272"/>
-      <c r="I8" s="272"/>
-      <c r="J8" s="272"/>
-      <c r="K8" s="272"/>
-      <c r="L8" s="272"/>
-      <c r="M8" s="272"/>
-      <c r="N8" s="264"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="265"/>
+      <c r="G8" s="265"/>
+      <c r="H8" s="265"/>
+      <c r="I8" s="265"/>
+      <c r="J8" s="265"/>
+      <c r="K8" s="265"/>
+      <c r="L8" s="265"/>
+      <c r="M8" s="265"/>
+      <c r="N8" s="257"/>
     </row>
     <row r="9" ht="21.75" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="272" t="s">
+      <c r="B9" s="265" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="272" t="s">
+      <c r="C9" s="265" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="272"/>
-      <c r="E9" s="272"/>
-      <c r="F9" s="272"/>
-      <c r="G9" s="272"/>
-      <c r="H9" s="272"/>
-      <c r="I9" s="272"/>
-      <c r="J9" s="272"/>
-      <c r="K9" s="272"/>
-      <c r="L9" s="272"/>
-      <c r="M9" s="272"/>
-      <c r="N9" s="264"/>
+      <c r="D9" s="265"/>
+      <c r="E9" s="265"/>
+      <c r="F9" s="265"/>
+      <c r="G9" s="265"/>
+      <c r="H9" s="265"/>
+      <c r="I9" s="265"/>
+      <c r="J9" s="265"/>
+      <c r="K9" s="265"/>
+      <c r="L9" s="265"/>
+      <c r="M9" s="265"/>
+      <c r="N9" s="257"/>
     </row>
     <row r="10" ht="21.75" customHeight="1">
       <c r="A10" s="12"/>
-      <c r="B10" s="272" t="s">
+      <c r="B10" s="265" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="272" t="s">
+      <c r="C10" s="265" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="272"/>
-      <c r="E10" s="272"/>
-      <c r="F10" s="272"/>
-      <c r="G10" s="272"/>
-      <c r="H10" s="272"/>
-      <c r="I10" s="272"/>
-      <c r="J10" s="272"/>
-      <c r="K10" s="272"/>
-      <c r="L10" s="272"/>
-      <c r="M10" s="272"/>
-      <c r="N10" s="264"/>
+      <c r="D10" s="265"/>
+      <c r="E10" s="265"/>
+      <c r="F10" s="265"/>
+      <c r="G10" s="265"/>
+      <c r="H10" s="265"/>
+      <c r="I10" s="265"/>
+      <c r="J10" s="265"/>
+      <c r="K10" s="265"/>
+      <c r="L10" s="265"/>
+      <c r="M10" s="265"/>
+      <c r="N10" s="257"/>
     </row>
     <row r="11" ht="21.75" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="272" t="s">
+      <c r="B11" s="265" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="272" t="s">
+      <c r="C11" s="265" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="272"/>
-      <c r="E11" s="272"/>
-      <c r="F11" s="272"/>
-      <c r="G11" s="272"/>
-      <c r="H11" s="272"/>
-      <c r="I11" s="272"/>
-      <c r="J11" s="272"/>
-      <c r="K11" s="272"/>
-      <c r="L11" s="272"/>
-      <c r="M11" s="272"/>
-      <c r="N11" s="264"/>
+      <c r="D11" s="265"/>
+      <c r="E11" s="265"/>
+      <c r="F11" s="265"/>
+      <c r="G11" s="265"/>
+      <c r="H11" s="265"/>
+      <c r="I11" s="265"/>
+      <c r="J11" s="265"/>
+      <c r="K11" s="265"/>
+      <c r="L11" s="265"/>
+      <c r="M11" s="265"/>
+      <c r="N11" s="257"/>
     </row>
   </sheetData>
   <printOptions/>
